--- a/literature_review/LR-Overview.xlsx
+++ b/literature_review/LR-Overview.xlsx
@@ -8,22 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/saski/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5D7C1946-5C0F-C34D-82F9-AA50F52965C7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{93E9226C-DFC8-344C-8235-EC9A1EFA6084}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Statistics" sheetId="1" r:id="rId1"/>
     <sheet name="1-LiteratureResearch" sheetId="2" r:id="rId2"/>
     <sheet name="Proposal Papers" sheetId="3" state="hidden" r:id="rId3"/>
     <sheet name="Connected Papers Exploring Hack" sheetId="4" state="hidden" r:id="rId4"/>
-    <sheet name="2-FirstAnalysis" sheetId="5" r:id="rId5"/>
-    <sheet name="3-SecondAnalysis(cleaned)" sheetId="6" r:id="rId6"/>
+    <sheet name="2-Analysis(cleaned)" sheetId="6" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'1-LiteratureResearch'!$A$4:$I$75</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'2-FirstAnalysis'!$A$2:$AK$31</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'3-SecondAnalysis(cleaned)'!$A$2:$AR$29</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'2-Analysis(cleaned)'!$A$2:$AR$29</definedName>
   </definedNames>
   <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
@@ -35,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1873" uniqueCount="734">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1266" uniqueCount="688">
   <si>
     <t>Data</t>
   </si>
@@ -1344,21 +1342,9 @@
     <t>Data sources</t>
   </si>
   <si>
-    <t>Did the authors consider any alternative data source?</t>
-  </si>
-  <si>
     <t>Method</t>
   </si>
   <si>
-    <t>NLP Framework:
-Named Entity Recognition (NER)
-Topic Modeling (TM)
-Sentiment Analysis (SA)
-Text Classification (TC)
-Summarization (Summ)
-Keyword Extraction (KE)</t>
-  </si>
-  <si>
     <t>Nr</t>
   </si>
   <si>
@@ -1428,25 +1414,7 @@
     <t>Comment</t>
   </si>
   <si>
-    <t>Fake Name</t>
-  </si>
-  <si>
-    <t>Example - CTI from Twitter</t>
-  </si>
-  <si>
-    <t>This paper shows how to extract CTI from Twitter - with the focus to collect tactical CTI.</t>
-  </si>
-  <si>
     <t>Twitter</t>
-  </si>
-  <si>
-    <t>Because Twitter has lots of security posts and they consulted with CTI practitioners to confirm the data source is appropriate.</t>
-  </si>
-  <si>
-    <t>Vulnerabilities (CVE)</t>
-  </si>
-  <si>
-    <t>Hyejin Shin</t>
   </si>
   <si>
     <t>#Twiti: Social Listening for Threat Intelligence</t>
@@ -1495,15 +1463,7 @@
     <t>Bert-based NER Cybersec specific, log-reg, random forest and xgboost</t>
   </si>
   <si>
-    <t>NER (In preprocessing)
-TC
-KE (URLs, IP, Pastebins etc.)</t>
-  </si>
-  <si>
     <t>IOC: mainly malware IOC (IP addresses, URL file hashes), but they assert it could be easily modified to analyze other things too (Phising or spam for example).</t>
-  </si>
-  <si>
-    <t>Technical</t>
   </si>
   <si>
     <t>malware IOC</t>
@@ -1558,9 +1518,6 @@
     <t>Classification of text into CTI relevant or irrelevant</t>
   </si>
   <si>
-    <t>Tactical</t>
-  </si>
-  <si>
     <t>https://www.researchgate.net/publication/350197554_Exploring_Open_Source_Information_for_Cyber_Threat_Intelligence</t>
   </si>
   <si>
@@ -1578,10 +1535,6 @@
 Domain-specific CTI generation</t>
   </si>
   <si>
-    <t>TC
-SA (Threat index is created)</t>
-  </si>
-  <si>
     <t>Description/Domain/Vulnerability (CVE...)/
 File/Version/IP</t>
   </si>
@@ -1596,9 +1549,6 @@
   </si>
   <si>
     <t>Automated Data Acquisition, Analysis, Management and sharing framework</t>
-  </si>
-  <si>
-    <t>(x)</t>
   </si>
   <si>
     <t>They assert their crawlers are adapt for all datasources we mention. They to a case study on IoT vulnerabilities where they only use twitter. They just propose an architecture. They do not really apply any sources aside of Twitter.</t>
@@ -1613,12 +1563,6 @@
 and Random Forest Classifier, as well as CNN-based models used </t>
   </si>
   <si>
-    <t>NER
-TC
-SA (Threat index)
-KE</t>
-  </si>
-  <si>
     <t>Structured CTI, STIX-Like</t>
   </si>
   <si>
@@ -1664,11 +1608,6 @@
   <si>
     <t>BERT is used for the classificators 
 K-Means and LDA is used for semantic clustering</t>
-  </si>
-  <si>
-    <t>TM
-TC
-KE</t>
   </si>
   <si>
     <t>Operations done by the algorithm :
@@ -1698,10 +1637,6 @@
     <t>list of dynamic word2vec associated word list associated with a keyword filter. Ensemble learning is used to better data quality. K-means for clustering. BERT, Naive, Stochastic gradient descent and linear regression are used as baselines</t>
   </si>
   <si>
-    <t>TM
-TC</t>
-  </si>
-  <si>
     <t>Relevant or irrelevant posts</t>
   </si>
   <si>
@@ -1727,11 +1662,6 @@
   </si>
   <si>
     <t>They develop the n-level correlation to enrich IoC in between each other.</t>
-  </si>
-  <si>
-    <t>TM
-TC (deduplification)
-Summ (IoC get enriched)</t>
   </si>
   <si>
     <t>Enriched IoC</t>
@@ -1788,10 +1718,6 @@
 For fusion they use an improved Levenshtein distance</t>
   </si>
   <si>
-    <t>Summ (fusion of datapoints is done)
-KE (triplets are created)</t>
-  </si>
-  <si>
     <t>Extraction of triples: (subject entity of type, relation, object) such as  (“sqlite3 in versionc 3.26.0”, “hasVulnerability”, “CVE-2019-5018”). CKG are something similar.</t>
   </si>
   <si>
@@ -1811,10 +1737,6 @@
 4) User ranking is created</t>
   </si>
   <si>
-    <t>TM
-SA (User ranking)</t>
-  </si>
-  <si>
     <t>User ranking in regards to CTI relevancy is extracted</t>
   </si>
   <si>
@@ -1836,9 +1758,6 @@
     <t xml:space="preserve">doc2vec, K-means clustering and deep clustering (iteratively going over convolutional NN and K-means, this means we iteratively extract features and then cluster the features) </t>
   </si>
   <si>
-    <t>TM</t>
-  </si>
-  <si>
     <t>Forum posts containing information that needs proactive measures are extracted.</t>
   </si>
   <si>
@@ -1860,10 +1779,6 @@
     <t>BERT in combination with LSTM GRU or other methods is used in order to extract the relevant information</t>
   </si>
   <si>
-    <t>NER (used for comparison against BERT)
-KE (STIX objects)</t>
-  </si>
-  <si>
     <t>Refactored CTI with IOC, TTPS and other metadata (Attacker,tools,region,Industry,campaign)</t>
   </si>
   <si>
@@ -1885,12 +1800,6 @@
     <t>External crawlers were used, which might employ AI. Processing layers are explained where and how to take place but explicit algorithms or their family are only mentioned (LDA, correlation, multilabel classification</t>
   </si>
   <si>
-    <t xml:space="preserve">TM
-SA
-KE (STIX objects)
-</t>
-  </si>
-  <si>
     <t>STIX objects (a specific CTI form)</t>
   </si>
   <si>
@@ -1912,11 +1821,6 @@
     <t>The creation of nodes and edges seems to be done with SQL queries</t>
   </si>
   <si>
-    <t>SA
-TM (visualization)
-KE</t>
-  </si>
-  <si>
     <t>Visualization of the darkweb ecosystem. Which assets are connected to which entity, which forum etc.</t>
   </si>
   <si>
@@ -1938,10 +1842,6 @@
     <t>Based on extracted features and using as a label a function of true intelligence published, which is validated with the Open Threat Exchange as external datasource</t>
   </si>
   <si>
-    <t xml:space="preserve">SA (relevance score of a source is computed)
-</t>
-  </si>
-  <si>
     <t>A relevance score of a source (usually a twitter user with expertise in CTI)</t>
   </si>
   <si>
@@ -1951,44 +1851,6 @@
     <t>https://www.sciencedirect.com/science/article/pii/S0167404821004004</t>
   </si>
   <si>
-    <t>Duplicate: On the Automated Assessment of Open-Source Cyber Threat Intelligence Sources</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC7302822/</t>
-  </si>
-  <si>
-    <t>Prediction of hacker's expertise and personality (Big-5 personality test) by analyzing data they create by moving inside a honeypot server, a CTF and a cyber expertise test</t>
-  </si>
-  <si>
-    <t>The source is data created by the Honeypsy system which is composed of the Big-5 personality test, a cyber expertise test, and a capture-the-ﬂag (CTF) event to collect logs</t>
-  </si>
-  <si>
-    <t>The prediction of user behaviour is the focus ufer user and customer experience analysis, and predicting hacker behaviour would be advantageous for defenders.</t>
-  </si>
-  <si>
-    <t>Yes in the related work other sources for psycological evaluations of hackers and their technical capabilities are mentioned</t>
-  </si>
-  <si>
-    <t>ML and regression analysis are done to infer relationships between the big-5 personality test, the honeypot logs and their expertise. Gaussian Process Regression and Linear SVM</t>
-  </si>
-  <si>
-    <t>SA</t>
-  </si>
-  <si>
-    <t>The CTI extracted is:
-A psycological profile of the hacker
-Expertise of the hacker</t>
-  </si>
-  <si>
-    <t>attackers info</t>
-  </si>
-  <si>
-    <t>https://www.hindawi.com/journals/scn/2022/7620125/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Irdin: I would consider this paper out of scope, no data sets, no real output </t>
-  </si>
-  <si>
     <t>TIP design for reliability, privacy, scalability and sustainability. The main objective of the paper is to process confidential CTI data and avoid poisoning attacks with the purpose of worsening CTI feeds.</t>
   </si>
   <si>
@@ -1999,9 +1861,6 @@
   </si>
   <si>
     <t>The architecture is based on blockchain technology</t>
-  </si>
-  <si>
-    <t>Summ</t>
   </si>
   <si>
     <t>Refactored CTI.</t>
@@ -2053,10 +1912,6 @@
 They compare their result with GPT-3 and propose a hybrid with a GPT-created embedding for the analysis.</t>
   </si>
   <si>
-    <t>TC
-Semantic Role Labeling</t>
-  </si>
-  <si>
     <t>Technical manifestations (information on observable manifestations of an attack or the linking of IoCs with CTI)</t>
   </si>
   <si>
@@ -2079,18 +1934,10 @@
   </si>
   <si>
     <t>Darknet marketplaces mentioned in related works.</t>
-  </si>
-  <si>
-    <t>x
-(they specifically design  a HTML-reader)</t>
   </si>
   <si>
     <t>Classification into threat/no-threat articles is done by extracting features from the related articles and then using a MLP.
 CyberSecurityIntelligence (CSI) is extracted with a method they developed called HBKSL.</t>
-  </si>
-  <si>
-    <t>TC
-Summ (STIX objects)</t>
   </si>
   <si>
     <t>STIX objects (a specific CTI form) and a CTI database</t>
@@ -2116,11 +1963,6 @@
 Classification CT relevant/irrelevant done with LSTM.</t>
   </si>
   <si>
-    <t>TC
-TM
-SA (likelyhood of exploit)</t>
-  </si>
-  <si>
     <t>Twitter content analysis. Tweets get classified into CT relevant/irrelevant, there is a prediction of how likely the exploit using the CVE is</t>
   </si>
   <si>
@@ -2159,9 +2001,6 @@
     <t>https://www.semanticscholar.org/paper/Cyber-Threat-Discovery-from-Dark-Web-Zenebe-Shumba/f2c46e77f7c6e404c4ff8ea061c37635abd20006</t>
   </si>
   <si>
-    <t xml:space="preserve">Fahim Sufi </t>
-  </si>
-  <si>
     <t>ML to analyze contextual information from social media posts to generate a single index at country level.</t>
   </si>
   <si>
@@ -2211,9 +2050,6 @@
     <t>Qualitative assessment are extracted such as: Keywords used//Key threat actors//prices for ddos attacks//number of customers and vendors etc. They also do a cross-analysis with aggregated blocklists</t>
   </si>
   <si>
-    <t>(Statistical qualitative results)</t>
-  </si>
-  <si>
     <t>Statistical analysis of the data provided by the crawler can be done</t>
   </si>
   <si>
@@ -2251,21 +2087,11 @@
   </si>
   <si>
     <t>Yes Twitter and darkweb reddit and stack exchanges are mentioned</t>
-  </si>
-  <si>
-    <t>x (texts are longer than posts)</t>
-  </si>
-  <si>
-    <t>x (webpages)</t>
   </si>
   <si>
     <t>For text processing different approaches were experimented upon.
 For classification SVM and Random Forest were used
 NER with validation from the MalwareTextDB.</t>
-  </si>
-  <si>
-    <t>NER
-TC</t>
   </si>
   <si>
     <t>CT-relevant/irrelevant classification</t>
@@ -2418,7 +2244,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -2543,22 +2369,6 @@
     <font>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="9"/>
-      <color theme="4"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="10"/>
-      <color theme="4"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="1"/>
@@ -2988,24 +2798,24 @@
   </borders>
   <cellStyleXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="23" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="21" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0">
@@ -3013,7 +2823,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="135">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3024,10 +2834,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="15" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="15" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="15" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="15" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3042,13 +2852,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" xfId="16" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="16" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="16" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="16" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" xfId="16" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="16" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3072,13 +2882,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="23" fillId="0" borderId="12" xfId="16" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="21" fillId="0" borderId="12" xfId="16" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="23" fillId="0" borderId="14" xfId="16" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="21" fillId="0" borderId="14" xfId="16" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="19" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3093,7 +2903,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" xfId="16" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="16" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -3111,7 +2921,7 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="23" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="21" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3229,33 +3039,12 @@
     <xf numFmtId="0" fontId="16" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3265,29 +3054,8 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="10" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="10" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3314,7 +3082,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3338,7 +3106,7 @@
     <xf numFmtId="0" fontId="16" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3347,7 +3115,7 @@
     <xf numFmtId="0" fontId="16" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3383,19 +3151,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3805,8 +3561,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J58"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+    <sheetView topLeftCell="A30" zoomScale="94" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -4763,7 +4519,7 @@
   </sheetPr>
   <dimension ref="A1:I75"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
@@ -4781,15 +4537,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="38" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B1" s="124" t="s">
+      <c r="B1" s="110" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="124"/>
-      <c r="D1" s="124"/>
-      <c r="E1" s="124"/>
-      <c r="F1" s="124"/>
-      <c r="G1" s="124"/>
-      <c r="H1" s="124"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
       <c r="I1" s="39"/>
     </row>
     <row r="2" spans="1:9" s="38" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -4963,7 +4719,7 @@
       </c>
       <c r="I9" s="46"/>
     </row>
-    <row r="10" spans="1:9" ht="52" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9" ht="39" x14ac:dyDescent="0.15">
       <c r="A10" s="35">
         <v>7</v>
       </c>
@@ -5076,7 +4832,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="39" hidden="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9" ht="26" hidden="1" x14ac:dyDescent="0.15">
       <c r="A15" s="35">
         <v>12</v>
       </c>
@@ -5378,7 +5134,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="52" hidden="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:9" ht="39" hidden="1" x14ac:dyDescent="0.15">
       <c r="A28" s="35">
         <v>25</v>
       </c>
@@ -5729,7 +5485,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="39" hidden="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:9" ht="26" hidden="1" x14ac:dyDescent="0.15">
       <c r="A43" s="35">
         <v>40</v>
       </c>
@@ -5870,7 +5626,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="52" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:9" ht="39" x14ac:dyDescent="0.15">
       <c r="A49" s="35">
         <v>45</v>
       </c>
@@ -5959,7 +5715,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="39" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:9" ht="26" x14ac:dyDescent="0.15">
       <c r="A53" s="35">
         <v>49</v>
       </c>
@@ -6199,7 +5955,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="91" hidden="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:9" ht="78" hidden="1" x14ac:dyDescent="0.15">
       <c r="A63" s="35">
         <v>59</v>
       </c>
@@ -6401,7 +6157,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="71" spans="1:9" ht="104" hidden="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:9" ht="91" hidden="1" x14ac:dyDescent="0.15">
       <c r="A71" s="35">
         <v>67</v>
       </c>
@@ -6476,7 +6232,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="74" spans="1:9" ht="65" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:9" ht="52" x14ac:dyDescent="0.15">
       <c r="A74" s="35">
         <v>70</v>
       </c>
@@ -7580,2897 +7336,16 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <sheetPr>
-    <tabColor rgb="FFE2F0D9"/>
-  </sheetPr>
-  <dimension ref="A1:AK65"/>
-  <sheetViews>
-    <sheetView topLeftCell="V1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O23" sqref="O23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="3.5" style="59" customWidth="1"/>
-    <col min="2" max="2" width="20.5" style="59" customWidth="1"/>
-    <col min="3" max="3" width="5.83203125" style="59" customWidth="1"/>
-    <col min="4" max="4" width="33" style="59" customWidth="1"/>
-    <col min="5" max="5" width="34.83203125" style="60" customWidth="1"/>
-    <col min="6" max="7" width="10.5" style="61" customWidth="1"/>
-    <col min="8" max="10" width="11.5" style="61"/>
-    <col min="11" max="12" width="12.5" style="61" customWidth="1"/>
-    <col min="13" max="13" width="10.5" style="61" customWidth="1"/>
-    <col min="14" max="14" width="36.5" style="62" customWidth="1"/>
-    <col min="15" max="15" width="22.83203125" style="61" customWidth="1"/>
-    <col min="16" max="16" width="33" style="59" customWidth="1"/>
-    <col min="17" max="17" width="36.1640625" style="63" customWidth="1"/>
-    <col min="18" max="18" width="17.5" style="61" customWidth="1"/>
-    <col min="19" max="19" width="19.5" style="61" customWidth="1"/>
-    <col min="20" max="20" width="25" style="63" customWidth="1"/>
-    <col min="21" max="22" width="11.5" style="61"/>
-    <col min="23" max="23" width="32.83203125" style="60" customWidth="1"/>
-    <col min="24" max="24" width="36.5" style="59" customWidth="1"/>
-    <col min="25" max="26" width="39.5" style="59" customWidth="1"/>
-    <col min="27" max="29" width="12.83203125" style="59" customWidth="1"/>
-    <col min="30" max="30" width="8.5" style="59" hidden="1" customWidth="1"/>
-    <col min="31" max="31" width="4.5" style="59" hidden="1" customWidth="1"/>
-    <col min="32" max="32" width="6.83203125" style="59" hidden="1" customWidth="1"/>
-    <col min="33" max="33" width="16.83203125" style="59" customWidth="1"/>
-    <col min="34" max="34" width="83.83203125" style="59" customWidth="1"/>
-    <col min="35" max="35" width="38.83203125" style="64" customWidth="1"/>
-    <col min="36" max="36" width="33.83203125" style="59" customWidth="1"/>
-    <col min="37" max="37" width="26.5" style="59" customWidth="1"/>
-    <col min="38" max="16383" width="11.5" style="59"/>
-    <col min="16384" max="16384" width="11.5" style="59" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:35" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="65"/>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="127" t="s">
-        <v>422</v>
-      </c>
-      <c r="G1" s="127"/>
-      <c r="H1" s="127"/>
-      <c r="I1" s="127"/>
-      <c r="J1" s="127"/>
-      <c r="K1" s="127"/>
-      <c r="L1" s="127"/>
-      <c r="M1" s="127"/>
-      <c r="N1" s="67"/>
-      <c r="O1" s="128" t="s">
-        <v>20</v>
-      </c>
-      <c r="P1" s="65"/>
-      <c r="Q1" s="128" t="s">
-        <v>423</v>
-      </c>
-      <c r="R1" s="127" t="s">
-        <v>27</v>
-      </c>
-      <c r="S1" s="127"/>
-      <c r="T1" s="127"/>
-      <c r="U1" s="129" t="s">
-        <v>424</v>
-      </c>
-      <c r="V1" s="129"/>
-      <c r="W1" s="129"/>
-      <c r="X1" s="125" t="s">
-        <v>425</v>
-      </c>
-      <c r="Y1" s="44"/>
-      <c r="Z1" s="44"/>
-      <c r="AA1" s="126" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB1" s="126"/>
-      <c r="AC1" s="126"/>
-      <c r="AD1" s="126"/>
-      <c r="AE1" s="126"/>
-      <c r="AF1" s="126"/>
-      <c r="AG1" s="126"/>
-      <c r="AH1" s="126"/>
-      <c r="AI1" s="65" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="2" spans="1:35" s="75" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="70" t="s">
-        <v>426</v>
-      </c>
-      <c r="B2" s="70" t="s">
-        <v>427</v>
-      </c>
-      <c r="C2" s="70" t="s">
-        <v>61</v>
-      </c>
-      <c r="D2" s="70" t="s">
-        <v>62</v>
-      </c>
-      <c r="E2" s="71" t="s">
-        <v>63</v>
-      </c>
-      <c r="F2" s="72" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="72" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="72" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" s="72" t="s">
-        <v>428</v>
-      </c>
-      <c r="J2" s="72" t="s">
-        <v>429</v>
-      </c>
-      <c r="K2" s="72" t="s">
-        <v>16</v>
-      </c>
-      <c r="L2" s="72" t="s">
-        <v>430</v>
-      </c>
-      <c r="M2" s="72" t="s">
-        <v>431</v>
-      </c>
-      <c r="N2" s="68" t="s">
-        <v>432</v>
-      </c>
-      <c r="O2" s="128"/>
-      <c r="P2" s="70" t="s">
-        <v>433</v>
-      </c>
-      <c r="Q2" s="128"/>
-      <c r="R2" s="72" t="s">
-        <v>434</v>
-      </c>
-      <c r="S2" s="72" t="s">
-        <v>435</v>
-      </c>
-      <c r="T2" s="73" t="s">
-        <v>436</v>
-      </c>
-      <c r="U2" s="72" t="s">
-        <v>437</v>
-      </c>
-      <c r="V2" s="72" t="s">
-        <v>438</v>
-      </c>
-      <c r="W2" s="71" t="s">
-        <v>439</v>
-      </c>
-      <c r="X2" s="125"/>
-      <c r="Y2" s="70" t="s">
-        <v>440</v>
-      </c>
-      <c r="Z2" s="70" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA2" s="70" t="s">
-        <v>441</v>
-      </c>
-      <c r="AB2" s="70" t="s">
-        <v>442</v>
-      </c>
-      <c r="AC2" s="70" t="s">
-        <v>443</v>
-      </c>
-      <c r="AD2" s="70" t="s">
-        <v>444</v>
-      </c>
-      <c r="AE2" s="70" t="s">
-        <v>445</v>
-      </c>
-      <c r="AF2" s="70" t="s">
-        <v>446</v>
-      </c>
-      <c r="AG2" s="70" t="s">
-        <v>447</v>
-      </c>
-      <c r="AH2" s="70" t="s">
-        <v>448</v>
-      </c>
-      <c r="AI2" s="74"/>
-    </row>
-    <row r="3" spans="1:35" s="81" customFormat="1" ht="39" x14ac:dyDescent="0.15">
-      <c r="A3" s="76">
-        <v>0</v>
-      </c>
-      <c r="B3" s="76" t="s">
-        <v>449</v>
-      </c>
-      <c r="C3" s="76">
-        <v>2023</v>
-      </c>
-      <c r="D3" s="76" t="s">
-        <v>450</v>
-      </c>
-      <c r="E3" s="77" t="s">
-        <v>451</v>
-      </c>
-      <c r="F3" s="78" t="s">
-        <v>71</v>
-      </c>
-      <c r="G3" s="78"/>
-      <c r="H3" s="78"/>
-      <c r="I3" s="78"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="78"/>
-      <c r="L3" s="78"/>
-      <c r="M3" s="78"/>
-      <c r="N3" s="79" t="s">
-        <v>452</v>
-      </c>
-      <c r="O3" s="78" t="s">
-        <v>23</v>
-      </c>
-      <c r="P3" s="76" t="s">
-        <v>453</v>
-      </c>
-      <c r="Q3" s="80" t="s">
-        <v>22</v>
-      </c>
-      <c r="R3" s="78"/>
-      <c r="S3" s="78"/>
-      <c r="T3" s="80"/>
-      <c r="U3" s="78"/>
-      <c r="V3" s="78" t="s">
-        <v>71</v>
-      </c>
-      <c r="W3" s="77" t="s">
-        <v>39</v>
-      </c>
-      <c r="X3" s="76"/>
-      <c r="Y3" s="76" t="s">
-        <v>454</v>
-      </c>
-      <c r="Z3" s="76"/>
-      <c r="AA3" s="76"/>
-      <c r="AB3" s="76"/>
-      <c r="AC3" s="76"/>
-      <c r="AD3" s="76"/>
-      <c r="AE3" s="76"/>
-      <c r="AF3" s="76"/>
-      <c r="AG3" s="76"/>
-      <c r="AH3" s="76"/>
-      <c r="AI3" s="76"/>
-    </row>
-    <row r="4" spans="1:35" s="64" customFormat="1" ht="78" x14ac:dyDescent="0.15">
-      <c r="A4" s="48">
-        <v>1</v>
-      </c>
-      <c r="B4" s="48" t="s">
-        <v>455</v>
-      </c>
-      <c r="C4" s="48">
-        <v>2021</v>
-      </c>
-      <c r="D4" s="48" t="s">
-        <v>456</v>
-      </c>
-      <c r="E4" s="82" t="s">
-        <v>457</v>
-      </c>
-      <c r="F4" s="49" t="s">
-        <v>71</v>
-      </c>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="49"/>
-      <c r="L4" s="49"/>
-      <c r="M4" s="49"/>
-      <c r="N4" s="83" t="s">
-        <v>452</v>
-      </c>
-      <c r="O4" s="49" t="s">
-        <v>23</v>
-      </c>
-      <c r="P4" s="48" t="s">
-        <v>458</v>
-      </c>
-      <c r="Q4" s="84" t="s">
-        <v>459</v>
-      </c>
-      <c r="R4" s="49" t="s">
-        <v>71</v>
-      </c>
-      <c r="S4" s="49"/>
-      <c r="T4" s="84"/>
-      <c r="U4" s="49"/>
-      <c r="V4" s="49" t="s">
-        <v>71</v>
-      </c>
-      <c r="W4" s="82" t="s">
-        <v>460</v>
-      </c>
-      <c r="X4" s="48" t="s">
-        <v>461</v>
-      </c>
-      <c r="Y4" s="48" t="s">
-        <v>462</v>
-      </c>
-      <c r="Z4" s="48" t="s">
-        <v>463</v>
-      </c>
-      <c r="AA4" s="48" t="s">
-        <v>71</v>
-      </c>
-      <c r="AB4" s="48"/>
-      <c r="AC4" s="48"/>
-      <c r="AD4" s="48"/>
-      <c r="AE4" s="48" t="s">
-        <v>71</v>
-      </c>
-      <c r="AF4" s="48"/>
-      <c r="AG4" s="48" t="s">
-        <v>464</v>
-      </c>
-      <c r="AH4" s="48" t="s">
-        <v>462</v>
-      </c>
-      <c r="AI4" s="85" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="5" spans="1:35" s="64" customFormat="1" ht="65" x14ac:dyDescent="0.15">
-      <c r="A5" s="48">
-        <v>2</v>
-      </c>
-      <c r="B5" s="48" t="s">
-        <v>80</v>
-      </c>
-      <c r="C5" s="48">
-        <v>2020</v>
-      </c>
-      <c r="D5" s="48" t="s">
-        <v>81</v>
-      </c>
-      <c r="E5" s="82" t="s">
-        <v>82</v>
-      </c>
-      <c r="F5" s="49" t="s">
-        <v>71</v>
-      </c>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49" t="s">
-        <v>71</v>
-      </c>
-      <c r="I5" s="49" t="s">
-        <v>71</v>
-      </c>
-      <c r="J5" s="49"/>
-      <c r="K5" s="49" t="s">
-        <v>71</v>
-      </c>
-      <c r="L5" s="49"/>
-      <c r="M5" s="49"/>
-      <c r="N5" s="83" t="s">
-        <v>466</v>
-      </c>
-      <c r="O5" s="49" t="s">
-        <v>23</v>
-      </c>
-      <c r="P5" s="48" t="s">
-        <v>467</v>
-      </c>
-      <c r="Q5" s="84" t="s">
-        <v>22</v>
-      </c>
-      <c r="R5" s="49" t="s">
-        <v>71</v>
-      </c>
-      <c r="S5" s="49" t="s">
-        <v>71</v>
-      </c>
-      <c r="T5" s="84"/>
-      <c r="U5" s="49"/>
-      <c r="V5" s="49" t="s">
-        <v>71</v>
-      </c>
-      <c r="W5" s="82" t="s">
-        <v>468</v>
-      </c>
-      <c r="X5" s="48" t="s">
-        <v>469</v>
-      </c>
-      <c r="Y5" s="48" t="s">
-        <v>470</v>
-      </c>
-      <c r="Z5" s="48" t="s">
-        <v>471</v>
-      </c>
-      <c r="AA5" s="48" t="s">
-        <v>71</v>
-      </c>
-      <c r="AB5" s="48"/>
-      <c r="AC5" s="48"/>
-      <c r="AD5" s="48"/>
-      <c r="AE5" s="48"/>
-      <c r="AF5" s="48"/>
-      <c r="AG5" s="48" t="s">
-        <v>441</v>
-      </c>
-      <c r="AH5" s="48" t="s">
-        <v>470</v>
-      </c>
-      <c r="AI5" s="86" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="6" spans="1:35" s="64" customFormat="1" ht="52" x14ac:dyDescent="0.15">
-      <c r="A6" s="48">
-        <v>3</v>
-      </c>
-      <c r="B6" s="48" t="s">
-        <v>83</v>
-      </c>
-      <c r="C6" s="48">
-        <v>2020</v>
-      </c>
-      <c r="D6" s="48" t="s">
-        <v>84</v>
-      </c>
-      <c r="E6" s="82" t="s">
-        <v>473</v>
-      </c>
-      <c r="F6" s="49" t="s">
-        <v>71</v>
-      </c>
-      <c r="G6" s="49" t="s">
-        <v>71</v>
-      </c>
-      <c r="H6" s="49" t="s">
-        <v>71</v>
-      </c>
-      <c r="I6" s="49"/>
-      <c r="J6" s="49"/>
-      <c r="K6" s="49" t="s">
-        <v>71</v>
-      </c>
-      <c r="L6" s="49"/>
-      <c r="M6" s="49" t="s">
-        <v>71</v>
-      </c>
-      <c r="N6" s="83" t="s">
-        <v>474</v>
-      </c>
-      <c r="O6" s="49" t="s">
-        <v>22</v>
-      </c>
-      <c r="P6" s="48"/>
-      <c r="Q6" s="84" t="s">
-        <v>475</v>
-      </c>
-      <c r="R6" s="49" t="s">
-        <v>71</v>
-      </c>
-      <c r="S6" s="49" t="s">
-        <v>71</v>
-      </c>
-      <c r="T6" s="84"/>
-      <c r="U6" s="49"/>
-      <c r="V6" s="49" t="s">
-        <v>71</v>
-      </c>
-      <c r="W6" s="82" t="s">
-        <v>476</v>
-      </c>
-      <c r="X6" s="48" t="s">
-        <v>477</v>
-      </c>
-      <c r="Y6" s="48" t="s">
-        <v>478</v>
-      </c>
-      <c r="Z6" s="48" t="s">
-        <v>463</v>
-      </c>
-      <c r="AA6" s="48" t="s">
-        <v>71</v>
-      </c>
-      <c r="AB6" s="48" t="s">
-        <v>71</v>
-      </c>
-      <c r="AC6" s="48"/>
-      <c r="AD6" s="48" t="s">
-        <v>71</v>
-      </c>
-      <c r="AE6" s="48"/>
-      <c r="AF6" s="48"/>
-      <c r="AG6" s="48" t="s">
-        <v>479</v>
-      </c>
-      <c r="AH6" s="48" t="s">
-        <v>480</v>
-      </c>
-      <c r="AI6" s="86" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="7" spans="1:35" s="64" customFormat="1" ht="93.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="48">
-        <v>4</v>
-      </c>
-      <c r="B7" s="48" t="s">
-        <v>86</v>
-      </c>
-      <c r="C7" s="48">
-        <v>2021</v>
-      </c>
-      <c r="D7" s="48" t="s">
-        <v>87</v>
-      </c>
-      <c r="E7" s="82" t="s">
-        <v>482</v>
-      </c>
-      <c r="F7" s="49" t="s">
-        <v>71</v>
-      </c>
-      <c r="G7" s="49" t="s">
-        <v>483</v>
-      </c>
-      <c r="H7" s="49" t="s">
-        <v>483</v>
-      </c>
-      <c r="I7" s="49"/>
-      <c r="J7" s="49" t="s">
-        <v>483</v>
-      </c>
-      <c r="K7" s="49" t="s">
-        <v>483</v>
-      </c>
-      <c r="L7" s="49" t="s">
-        <v>483</v>
-      </c>
-      <c r="M7" s="49" t="s">
-        <v>483</v>
-      </c>
-      <c r="N7" s="83" t="s">
-        <v>484</v>
-      </c>
-      <c r="O7" s="49" t="s">
-        <v>23</v>
-      </c>
-      <c r="P7" s="48" t="s">
-        <v>485</v>
-      </c>
-      <c r="Q7" s="84" t="s">
-        <v>22</v>
-      </c>
-      <c r="R7" s="49" t="s">
-        <v>71</v>
-      </c>
-      <c r="S7" s="49" t="s">
-        <v>71</v>
-      </c>
-      <c r="T7" s="84"/>
-      <c r="U7" s="49"/>
-      <c r="V7" s="49" t="s">
-        <v>71</v>
-      </c>
-      <c r="W7" s="82" t="s">
-        <v>486</v>
-      </c>
-      <c r="X7" s="48" t="s">
-        <v>487</v>
-      </c>
-      <c r="Y7" s="48" t="s">
-        <v>488</v>
-      </c>
-      <c r="Z7" s="48" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA7" s="48"/>
-      <c r="AB7" s="48"/>
-      <c r="AC7" s="48" t="s">
-        <v>71</v>
-      </c>
-      <c r="AD7" s="48"/>
-      <c r="AE7" s="48"/>
-      <c r="AF7" s="48"/>
-      <c r="AG7" s="48" t="s">
-        <v>443</v>
-      </c>
-      <c r="AH7" s="48" t="s">
-        <v>489</v>
-      </c>
-      <c r="AI7" s="86" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="8" spans="1:35" s="64" customFormat="1" ht="39" x14ac:dyDescent="0.15">
-      <c r="A8" s="48">
-        <v>5</v>
-      </c>
-      <c r="B8" s="48" t="s">
-        <v>92</v>
-      </c>
-      <c r="C8" s="48">
-        <v>2021</v>
-      </c>
-      <c r="D8" s="48" t="s">
-        <v>93</v>
-      </c>
-      <c r="E8" s="82" t="s">
-        <v>491</v>
-      </c>
-      <c r="F8" s="49" t="s">
-        <v>71</v>
-      </c>
-      <c r="G8" s="49"/>
-      <c r="H8" s="49"/>
-      <c r="I8" s="49"/>
-      <c r="J8" s="49"/>
-      <c r="K8" s="49"/>
-      <c r="L8" s="49"/>
-      <c r="M8" s="49"/>
-      <c r="N8" s="83" t="s">
-        <v>492</v>
-      </c>
-      <c r="O8" s="49" t="s">
-        <v>23</v>
-      </c>
-      <c r="P8" s="48" t="s">
-        <v>493</v>
-      </c>
-      <c r="Q8" s="84" t="s">
-        <v>494</v>
-      </c>
-      <c r="R8" s="49" t="s">
-        <v>71</v>
-      </c>
-      <c r="S8" s="49"/>
-      <c r="T8" s="84"/>
-      <c r="U8" s="49"/>
-      <c r="V8" s="49" t="s">
-        <v>71</v>
-      </c>
-      <c r="W8" s="82" t="s">
-        <v>495</v>
-      </c>
-      <c r="X8" s="48" t="s">
-        <v>469</v>
-      </c>
-      <c r="Y8" s="48" t="s">
-        <v>496</v>
-      </c>
-      <c r="Z8" s="48" t="s">
-        <v>471</v>
-      </c>
-      <c r="AA8" s="48" t="s">
-        <v>71</v>
-      </c>
-      <c r="AB8" s="48" t="s">
-        <v>71</v>
-      </c>
-      <c r="AC8" s="48"/>
-      <c r="AD8" s="48" t="s">
-        <v>71</v>
-      </c>
-      <c r="AE8" s="48"/>
-      <c r="AF8" s="48" t="s">
-        <v>71</v>
-      </c>
-      <c r="AG8" s="48" t="s">
-        <v>497</v>
-      </c>
-      <c r="AH8" s="48" t="s">
-        <v>496</v>
-      </c>
-      <c r="AI8" s="86" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="9" spans="1:35" s="64" customFormat="1" ht="143" x14ac:dyDescent="0.15">
-      <c r="A9" s="48">
-        <v>6</v>
-      </c>
-      <c r="B9" s="48" t="s">
-        <v>106</v>
-      </c>
-      <c r="C9" s="48">
-        <v>2020</v>
-      </c>
-      <c r="D9" s="48" t="s">
-        <v>107</v>
-      </c>
-      <c r="E9" s="82" t="s">
-        <v>499</v>
-      </c>
-      <c r="F9" s="49" t="s">
-        <v>71</v>
-      </c>
-      <c r="G9" s="49"/>
-      <c r="H9" s="49"/>
-      <c r="I9" s="49"/>
-      <c r="J9" s="49"/>
-      <c r="K9" s="49"/>
-      <c r="L9" s="49"/>
-      <c r="M9" s="49"/>
-      <c r="N9" s="83" t="s">
-        <v>452</v>
-      </c>
-      <c r="O9" s="49" t="s">
-        <v>23</v>
-      </c>
-      <c r="P9" s="48" t="s">
-        <v>500</v>
-      </c>
-      <c r="Q9" s="84" t="s">
-        <v>501</v>
-      </c>
-      <c r="R9" s="49" t="s">
-        <v>71</v>
-      </c>
-      <c r="S9" s="49"/>
-      <c r="T9" s="84"/>
-      <c r="U9" s="49"/>
-      <c r="V9" s="49" t="s">
-        <v>71</v>
-      </c>
-      <c r="W9" s="82" t="s">
-        <v>502</v>
-      </c>
-      <c r="X9" s="48" t="s">
-        <v>503</v>
-      </c>
-      <c r="Y9" s="48" t="s">
-        <v>504</v>
-      </c>
-      <c r="Z9" s="48" t="s">
-        <v>471</v>
-      </c>
-      <c r="AA9" s="48" t="s">
-        <v>71</v>
-      </c>
-      <c r="AB9" s="48" t="s">
-        <v>71</v>
-      </c>
-      <c r="AC9" s="48"/>
-      <c r="AD9" s="48" t="s">
-        <v>71</v>
-      </c>
-      <c r="AE9" s="48"/>
-      <c r="AF9" s="48"/>
-      <c r="AG9" s="48" t="s">
-        <v>505</v>
-      </c>
-      <c r="AH9" s="48" t="s">
-        <v>504</v>
-      </c>
-      <c r="AI9" s="86" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="10" spans="1:35" s="64" customFormat="1" ht="78" x14ac:dyDescent="0.15">
-      <c r="A10" s="48">
-        <v>7</v>
-      </c>
-      <c r="B10" s="48" t="s">
-        <v>109</v>
-      </c>
-      <c r="C10" s="48">
-        <v>2020</v>
-      </c>
-      <c r="D10" s="48" t="s">
-        <v>110</v>
-      </c>
-      <c r="E10" s="82" t="s">
-        <v>507</v>
-      </c>
-      <c r="F10" s="49" t="s">
-        <v>71</v>
-      </c>
-      <c r="G10" s="49" t="s">
-        <v>71</v>
-      </c>
-      <c r="H10" s="49" t="s">
-        <v>71</v>
-      </c>
-      <c r="I10" s="49"/>
-      <c r="J10" s="49"/>
-      <c r="K10" s="49"/>
-      <c r="L10" s="49"/>
-      <c r="M10" s="49"/>
-      <c r="N10" s="83" t="s">
-        <v>508</v>
-      </c>
-      <c r="O10" s="49" t="s">
-        <v>23</v>
-      </c>
-      <c r="P10" s="48" t="s">
-        <v>509</v>
-      </c>
-      <c r="Q10" s="84" t="s">
-        <v>510</v>
-      </c>
-      <c r="R10" s="49" t="s">
-        <v>71</v>
-      </c>
-      <c r="S10" s="49"/>
-      <c r="T10" s="84"/>
-      <c r="U10" s="49"/>
-      <c r="V10" s="49" t="s">
-        <v>71</v>
-      </c>
-      <c r="W10" s="82" t="s">
-        <v>511</v>
-      </c>
-      <c r="X10" s="48" t="s">
-        <v>512</v>
-      </c>
-      <c r="Y10" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="Z10" s="48" t="s">
-        <v>471</v>
-      </c>
-      <c r="AA10" s="48" t="s">
-        <v>71</v>
-      </c>
-      <c r="AB10" s="48"/>
-      <c r="AC10" s="48"/>
-      <c r="AD10" s="48"/>
-      <c r="AE10" s="48"/>
-      <c r="AF10" s="48"/>
-      <c r="AG10" s="48" t="s">
-        <v>514</v>
-      </c>
-      <c r="AH10" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="AI10" s="86" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="11" spans="1:35" s="64" customFormat="1" ht="78" x14ac:dyDescent="0.15">
-      <c r="A11" s="48">
-        <v>8</v>
-      </c>
-      <c r="B11" s="48" t="s">
-        <v>123</v>
-      </c>
-      <c r="C11" s="48">
-        <v>2019</v>
-      </c>
-      <c r="D11" s="48" t="s">
-        <v>124</v>
-      </c>
-      <c r="E11" s="82" t="s">
-        <v>516</v>
-      </c>
-      <c r="F11" s="49"/>
-      <c r="G11" s="49"/>
-      <c r="H11" s="49"/>
-      <c r="I11" s="49"/>
-      <c r="J11" s="49" t="s">
-        <v>71</v>
-      </c>
-      <c r="K11" s="49"/>
-      <c r="L11" s="49"/>
-      <c r="M11" s="49"/>
-      <c r="N11" s="87" t="s">
-        <v>517</v>
-      </c>
-      <c r="O11" s="49" t="s">
-        <v>22</v>
-      </c>
-      <c r="P11" s="48" t="s">
-        <v>518</v>
-      </c>
-      <c r="Q11" s="84" t="s">
-        <v>519</v>
-      </c>
-      <c r="R11" s="49" t="s">
-        <v>520</v>
-      </c>
-      <c r="S11" s="49"/>
-      <c r="T11" s="84"/>
-      <c r="U11" s="49" t="s">
-        <v>71</v>
-      </c>
-      <c r="V11" s="49"/>
-      <c r="W11" s="82" t="s">
-        <v>521</v>
-      </c>
-      <c r="X11" s="48" t="s">
-        <v>522</v>
-      </c>
-      <c r="Y11" s="48" t="s">
-        <v>523</v>
-      </c>
-      <c r="Z11" s="48" t="s">
-        <v>463</v>
-      </c>
-      <c r="AA11" s="48" t="s">
-        <v>71</v>
-      </c>
-      <c r="AB11" s="48"/>
-      <c r="AC11" s="48"/>
-      <c r="AD11" s="48"/>
-      <c r="AE11" s="48"/>
-      <c r="AF11" s="48"/>
-      <c r="AG11" s="48" t="s">
-        <v>514</v>
-      </c>
-      <c r="AH11" s="48" t="s">
-        <v>524</v>
-      </c>
-      <c r="AI11" s="86" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="12" spans="1:35" s="64" customFormat="1" ht="104" x14ac:dyDescent="0.15">
-      <c r="A12" s="48">
-        <v>9</v>
-      </c>
-      <c r="B12" s="48" t="s">
-        <v>126</v>
-      </c>
-      <c r="C12" s="48">
-        <v>2021</v>
-      </c>
-      <c r="D12" s="48" t="s">
-        <v>127</v>
-      </c>
-      <c r="E12" s="82" t="s">
-        <v>526</v>
-      </c>
-      <c r="F12" s="49"/>
-      <c r="G12" s="49"/>
-      <c r="H12" s="49"/>
-      <c r="I12" s="49"/>
-      <c r="J12" s="49"/>
-      <c r="K12" s="49" t="s">
-        <v>71</v>
-      </c>
-      <c r="L12" s="49"/>
-      <c r="M12" s="49"/>
-      <c r="N12" s="87" t="s">
-        <v>527</v>
-      </c>
-      <c r="O12" s="49" t="s">
-        <v>23</v>
-      </c>
-      <c r="P12" s="48" t="s">
-        <v>528</v>
-      </c>
-      <c r="Q12" s="84" t="s">
-        <v>529</v>
-      </c>
-      <c r="R12" s="49" t="s">
-        <v>71</v>
-      </c>
-      <c r="S12" s="49"/>
-      <c r="T12" s="84"/>
-      <c r="U12" s="49"/>
-      <c r="V12" s="49" t="s">
-        <v>71</v>
-      </c>
-      <c r="W12" s="82" t="s">
-        <v>530</v>
-      </c>
-      <c r="X12" s="48" t="s">
-        <v>512</v>
-      </c>
-      <c r="Y12" s="48" t="s">
-        <v>531</v>
-      </c>
-      <c r="Z12" s="48" t="s">
-        <v>471</v>
-      </c>
-      <c r="AA12" s="48" t="s">
-        <v>71</v>
-      </c>
-      <c r="AB12" s="48"/>
-      <c r="AC12" s="48"/>
-      <c r="AD12" s="48"/>
-      <c r="AE12" s="48"/>
-      <c r="AF12" s="48"/>
-      <c r="AG12" s="48" t="s">
-        <v>514</v>
-      </c>
-      <c r="AH12" s="48" t="s">
-        <v>532</v>
-      </c>
-      <c r="AI12" s="86" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="13" spans="1:35" s="64" customFormat="1" ht="52" x14ac:dyDescent="0.15">
-      <c r="A13" s="48">
-        <v>10</v>
-      </c>
-      <c r="B13" s="48" t="s">
-        <v>137</v>
-      </c>
-      <c r="C13" s="48">
-        <v>2023</v>
-      </c>
-      <c r="D13" s="48" t="s">
-        <v>138</v>
-      </c>
-      <c r="E13" s="82" t="s">
-        <v>534</v>
-      </c>
-      <c r="F13" s="49"/>
-      <c r="G13" s="49"/>
-      <c r="H13" s="49" t="s">
-        <v>483</v>
-      </c>
-      <c r="I13" s="49"/>
-      <c r="J13" s="49" t="s">
-        <v>71</v>
-      </c>
-      <c r="K13" s="49" t="s">
-        <v>483</v>
-      </c>
-      <c r="L13" s="49"/>
-      <c r="M13" s="49"/>
-      <c r="N13" s="87" t="s">
-        <v>535</v>
-      </c>
-      <c r="O13" s="49" t="s">
-        <v>22</v>
-      </c>
-      <c r="P13" s="48" t="s">
-        <v>536</v>
-      </c>
-      <c r="Q13" s="84" t="s">
-        <v>22</v>
-      </c>
-      <c r="R13" s="49" t="s">
-        <v>71</v>
-      </c>
-      <c r="S13" s="49" t="s">
-        <v>71</v>
-      </c>
-      <c r="T13" s="84"/>
-      <c r="U13" s="49"/>
-      <c r="V13" s="49" t="s">
-        <v>71</v>
-      </c>
-      <c r="W13" s="82" t="s">
-        <v>537</v>
-      </c>
-      <c r="X13" s="48" t="s">
-        <v>538</v>
-      </c>
-      <c r="Y13" s="48" t="s">
-        <v>539</v>
-      </c>
-      <c r="Z13" s="48" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA13" s="48" t="s">
-        <v>71</v>
-      </c>
-      <c r="AB13" s="48"/>
-      <c r="AC13" s="48"/>
-      <c r="AD13" s="48"/>
-      <c r="AE13" s="48"/>
-      <c r="AF13" s="48" t="s">
-        <v>71</v>
-      </c>
-      <c r="AG13" s="48" t="s">
-        <v>540</v>
-      </c>
-      <c r="AH13" s="48" t="s">
-        <v>541</v>
-      </c>
-      <c r="AI13" s="48"/>
-    </row>
-    <row r="14" spans="1:35" s="64" customFormat="1" ht="78" x14ac:dyDescent="0.15">
-      <c r="A14" s="48">
-        <v>11</v>
-      </c>
-      <c r="B14" s="48" t="s">
-        <v>144</v>
-      </c>
-      <c r="C14" s="48">
-        <v>2021</v>
-      </c>
-      <c r="D14" s="48" t="s">
-        <v>145</v>
-      </c>
-      <c r="E14" s="82" t="s">
-        <v>542</v>
-      </c>
-      <c r="F14" s="49" t="s">
-        <v>71</v>
-      </c>
-      <c r="G14" s="49"/>
-      <c r="H14" s="49"/>
-      <c r="I14" s="49"/>
-      <c r="J14" s="49"/>
-      <c r="K14" s="49"/>
-      <c r="L14" s="49"/>
-      <c r="M14" s="49"/>
-      <c r="N14" s="87" t="s">
-        <v>452</v>
-      </c>
-      <c r="O14" s="49" t="s">
-        <v>22</v>
-      </c>
-      <c r="P14" s="48" t="s">
-        <v>518</v>
-      </c>
-      <c r="Q14" s="84" t="s">
-        <v>22</v>
-      </c>
-      <c r="R14" s="49" t="s">
-        <v>71</v>
-      </c>
-      <c r="S14" s="49"/>
-      <c r="T14" s="84"/>
-      <c r="U14" s="49" t="s">
-        <v>71</v>
-      </c>
-      <c r="V14" s="49"/>
-      <c r="W14" s="82" t="s">
-        <v>543</v>
-      </c>
-      <c r="X14" s="48" t="s">
-        <v>544</v>
-      </c>
-      <c r="Y14" s="48" t="s">
-        <v>545</v>
-      </c>
-      <c r="Z14" s="48" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA14" s="48" t="s">
-        <v>71</v>
-      </c>
-      <c r="AB14" s="48"/>
-      <c r="AC14" s="48"/>
-      <c r="AD14" s="48"/>
-      <c r="AE14" s="48"/>
-      <c r="AF14" s="48"/>
-      <c r="AG14" s="48" t="s">
-        <v>546</v>
-      </c>
-      <c r="AH14" s="48" t="s">
-        <v>545</v>
-      </c>
-      <c r="AI14" s="86" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="15" spans="1:35" s="64" customFormat="1" ht="65" x14ac:dyDescent="0.15">
-      <c r="A15" s="48">
-        <v>12</v>
-      </c>
-      <c r="B15" s="48" t="s">
-        <v>163</v>
-      </c>
-      <c r="C15" s="48">
-        <v>2020</v>
-      </c>
-      <c r="D15" s="48" t="s">
-        <v>164</v>
-      </c>
-      <c r="E15" s="82" t="s">
-        <v>548</v>
-      </c>
-      <c r="F15" s="49"/>
-      <c r="G15" s="49"/>
-      <c r="H15" s="49"/>
-      <c r="I15" s="49"/>
-      <c r="J15" s="49"/>
-      <c r="K15" s="49" t="s">
-        <v>71</v>
-      </c>
-      <c r="L15" s="49"/>
-      <c r="M15" s="49"/>
-      <c r="N15" s="87" t="s">
-        <v>549</v>
-      </c>
-      <c r="O15" s="49" t="s">
-        <v>23</v>
-      </c>
-      <c r="P15" s="48" t="s">
-        <v>550</v>
-      </c>
-      <c r="Q15" s="84" t="s">
-        <v>22</v>
-      </c>
-      <c r="R15" s="49" t="s">
-        <v>71</v>
-      </c>
-      <c r="S15" s="49"/>
-      <c r="T15" s="84"/>
-      <c r="U15" s="49"/>
-      <c r="V15" s="49" t="s">
-        <v>71</v>
-      </c>
-      <c r="W15" s="82" t="s">
-        <v>551</v>
-      </c>
-      <c r="X15" s="48" t="s">
-        <v>552</v>
-      </c>
-      <c r="Y15" s="48" t="s">
-        <v>553</v>
-      </c>
-      <c r="Z15" s="48" t="s">
-        <v>471</v>
-      </c>
-      <c r="AA15" s="48" t="s">
-        <v>71</v>
-      </c>
-      <c r="AB15" s="48"/>
-      <c r="AC15" s="48"/>
-      <c r="AD15" s="48"/>
-      <c r="AE15" s="48"/>
-      <c r="AF15" s="48"/>
-      <c r="AG15" s="48" t="s">
-        <v>514</v>
-      </c>
-      <c r="AH15" s="48" t="s">
-        <v>554</v>
-      </c>
-      <c r="AI15" s="86" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="16" spans="1:35" s="64" customFormat="1" ht="52" x14ac:dyDescent="0.15">
-      <c r="A16" s="48">
-        <v>13</v>
-      </c>
-      <c r="B16" s="48" t="s">
-        <v>166</v>
-      </c>
-      <c r="C16" s="48">
-        <v>2022</v>
-      </c>
-      <c r="D16" s="48" t="s">
-        <v>167</v>
-      </c>
-      <c r="E16" s="82" t="s">
-        <v>556</v>
-      </c>
-      <c r="F16" s="49"/>
-      <c r="G16" s="49" t="s">
-        <v>71</v>
-      </c>
-      <c r="H16" s="49" t="s">
-        <v>71</v>
-      </c>
-      <c r="I16" s="49"/>
-      <c r="J16" s="49"/>
-      <c r="K16" s="49"/>
-      <c r="L16" s="49"/>
-      <c r="M16" s="49"/>
-      <c r="N16" s="87" t="s">
-        <v>557</v>
-      </c>
-      <c r="O16" s="49" t="s">
-        <v>22</v>
-      </c>
-      <c r="P16" s="48" t="s">
-        <v>518</v>
-      </c>
-      <c r="Q16" s="84" t="s">
-        <v>558</v>
-      </c>
-      <c r="R16" s="49" t="s">
-        <v>71</v>
-      </c>
-      <c r="S16" s="49"/>
-      <c r="T16" s="84"/>
-      <c r="U16" s="49"/>
-      <c r="V16" s="49" t="s">
-        <v>71</v>
-      </c>
-      <c r="W16" s="82" t="s">
-        <v>559</v>
-      </c>
-      <c r="X16" s="48" t="s">
-        <v>560</v>
-      </c>
-      <c r="Y16" s="48" t="s">
-        <v>561</v>
-      </c>
-      <c r="Z16" s="48" t="s">
-        <v>463</v>
-      </c>
-      <c r="AA16" s="48" t="s">
-        <v>71</v>
-      </c>
-      <c r="AB16" s="48"/>
-      <c r="AC16" s="48"/>
-      <c r="AD16" s="48"/>
-      <c r="AE16" s="48" t="s">
-        <v>71</v>
-      </c>
-      <c r="AF16" s="48"/>
-      <c r="AG16" s="48" t="s">
-        <v>562</v>
-      </c>
-      <c r="AH16" s="48" t="s">
-        <v>561</v>
-      </c>
-      <c r="AI16" s="86" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="17" spans="1:37" s="64" customFormat="1" ht="65" x14ac:dyDescent="0.15">
-      <c r="A17" s="48">
-        <v>14</v>
-      </c>
-      <c r="B17" s="48" t="s">
-        <v>169</v>
-      </c>
-      <c r="C17" s="48">
-        <v>2023</v>
-      </c>
-      <c r="D17" s="48" t="s">
-        <v>170</v>
-      </c>
-      <c r="E17" s="82" t="s">
-        <v>564</v>
-      </c>
-      <c r="F17" s="49"/>
-      <c r="G17" s="49"/>
-      <c r="H17" s="49"/>
-      <c r="I17" s="49"/>
-      <c r="J17" s="49"/>
-      <c r="K17" s="49" t="s">
-        <v>483</v>
-      </c>
-      <c r="L17" s="49"/>
-      <c r="M17" s="49"/>
-      <c r="N17" s="87" t="s">
-        <v>565</v>
-      </c>
-      <c r="O17" s="49" t="s">
-        <v>22</v>
-      </c>
-      <c r="P17" s="48" t="s">
-        <v>518</v>
-      </c>
-      <c r="Q17" s="84" t="s">
-        <v>566</v>
-      </c>
-      <c r="R17" s="49" t="s">
-        <v>71</v>
-      </c>
-      <c r="S17" s="49"/>
-      <c r="T17" s="84"/>
-      <c r="U17" s="49" t="s">
-        <v>71</v>
-      </c>
-      <c r="V17" s="49"/>
-      <c r="W17" s="82" t="s">
-        <v>567</v>
-      </c>
-      <c r="X17" s="48" t="s">
-        <v>568</v>
-      </c>
-      <c r="Y17" s="48" t="s">
-        <v>569</v>
-      </c>
-      <c r="Z17" s="48" t="s">
-        <v>463</v>
-      </c>
-      <c r="AA17" s="48"/>
-      <c r="AB17" s="48"/>
-      <c r="AC17" s="48" t="s">
-        <v>71</v>
-      </c>
-      <c r="AD17" s="48"/>
-      <c r="AE17" s="48"/>
-      <c r="AF17" s="48"/>
-      <c r="AG17" s="48" t="s">
-        <v>443</v>
-      </c>
-      <c r="AH17" s="48" t="s">
-        <v>570</v>
-      </c>
-      <c r="AI17" s="86" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="18" spans="1:37" s="64" customFormat="1" ht="39" x14ac:dyDescent="0.15">
-      <c r="A18" s="48">
-        <v>15</v>
-      </c>
-      <c r="B18" s="48" t="s">
-        <v>178</v>
-      </c>
-      <c r="C18" s="48">
-        <v>2019</v>
-      </c>
-      <c r="D18" s="48" t="s">
-        <v>179</v>
-      </c>
-      <c r="E18" s="82" t="s">
-        <v>572</v>
-      </c>
-      <c r="F18" s="49"/>
-      <c r="G18" s="49"/>
-      <c r="H18" s="49"/>
-      <c r="I18" s="49"/>
-      <c r="J18" s="49"/>
-      <c r="K18" s="49" t="s">
-        <v>71</v>
-      </c>
-      <c r="L18" s="49" t="s">
-        <v>71</v>
-      </c>
-      <c r="M18" s="49"/>
-      <c r="N18" s="87" t="s">
-        <v>573</v>
-      </c>
-      <c r="O18" s="49" t="s">
-        <v>23</v>
-      </c>
-      <c r="P18" s="48" t="s">
-        <v>574</v>
-      </c>
-      <c r="Q18" s="84" t="s">
-        <v>22</v>
-      </c>
-      <c r="R18" s="49" t="s">
-        <v>71</v>
-      </c>
-      <c r="S18" s="49"/>
-      <c r="T18" s="84"/>
-      <c r="U18" s="49" t="s">
-        <v>71</v>
-      </c>
-      <c r="V18" s="49"/>
-      <c r="W18" s="82" t="s">
-        <v>575</v>
-      </c>
-      <c r="X18" s="48" t="s">
-        <v>576</v>
-      </c>
-      <c r="Y18" s="48" t="s">
-        <v>577</v>
-      </c>
-      <c r="Z18" s="48" t="s">
-        <v>52</v>
-      </c>
-      <c r="AA18" s="48" t="s">
-        <v>71</v>
-      </c>
-      <c r="AB18" s="48"/>
-      <c r="AC18" s="48"/>
-      <c r="AD18" s="48"/>
-      <c r="AE18" s="48"/>
-      <c r="AF18" s="48" t="s">
-        <v>71</v>
-      </c>
-      <c r="AG18" s="48" t="s">
-        <v>540</v>
-      </c>
-      <c r="AH18" s="48" t="s">
-        <v>578</v>
-      </c>
-      <c r="AI18" s="86" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="19" spans="1:37" s="64" customFormat="1" ht="52" x14ac:dyDescent="0.15">
-      <c r="A19" s="48">
-        <v>16</v>
-      </c>
-      <c r="B19" s="48" t="s">
-        <v>89</v>
-      </c>
-      <c r="C19" s="48">
-        <v>2022</v>
-      </c>
-      <c r="D19" s="48" t="s">
-        <v>197</v>
-      </c>
-      <c r="E19" s="82" t="s">
-        <v>580</v>
-      </c>
-      <c r="F19" s="49" t="s">
-        <v>71</v>
-      </c>
-      <c r="G19" s="49"/>
-      <c r="H19" s="49"/>
-      <c r="I19" s="49"/>
-      <c r="J19" s="49"/>
-      <c r="K19" s="49"/>
-      <c r="L19" s="49"/>
-      <c r="M19" s="49"/>
-      <c r="N19" s="87" t="s">
-        <v>452</v>
-      </c>
-      <c r="O19" s="49" t="s">
-        <v>23</v>
-      </c>
-      <c r="P19" s="48" t="s">
-        <v>581</v>
-      </c>
-      <c r="Q19" s="84" t="s">
-        <v>582</v>
-      </c>
-      <c r="R19" s="49" t="s">
-        <v>71</v>
-      </c>
-      <c r="S19" s="49"/>
-      <c r="T19" s="84"/>
-      <c r="U19" s="49"/>
-      <c r="V19" s="49" t="s">
-        <v>71</v>
-      </c>
-      <c r="W19" s="82" t="s">
-        <v>583</v>
-      </c>
-      <c r="X19" s="48" t="s">
-        <v>584</v>
-      </c>
-      <c r="Y19" s="48" t="s">
-        <v>585</v>
-      </c>
-      <c r="Z19" s="48" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA19" s="48" t="s">
-        <v>71</v>
-      </c>
-      <c r="AB19" s="48"/>
-      <c r="AC19" s="48"/>
-      <c r="AD19" s="48"/>
-      <c r="AE19" s="48"/>
-      <c r="AF19" s="48"/>
-      <c r="AG19" s="48" t="s">
-        <v>514</v>
-      </c>
-      <c r="AH19" s="48" t="s">
-        <v>586</v>
-      </c>
-      <c r="AI19" s="86" t="s">
-        <v>587</v>
-      </c>
-      <c r="AJ19" s="64" t="s">
-        <v>588</v>
-      </c>
-      <c r="AK19" s="88" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="20" spans="1:37" s="93" customFormat="1" ht="52" x14ac:dyDescent="0.15">
-      <c r="A20" s="89">
-        <v>17</v>
-      </c>
-      <c r="B20" s="89" t="s">
-        <v>202</v>
-      </c>
-      <c r="C20" s="89">
-        <v>2021</v>
-      </c>
-      <c r="D20" s="89" t="s">
-        <v>203</v>
-      </c>
-      <c r="E20" s="90" t="s">
-        <v>590</v>
-      </c>
-      <c r="F20" s="91"/>
-      <c r="G20" s="91"/>
-      <c r="H20" s="91"/>
-      <c r="I20" s="91"/>
-      <c r="J20" s="91"/>
-      <c r="K20" s="91"/>
-      <c r="L20" s="91"/>
-      <c r="M20" s="91"/>
-      <c r="N20" s="87" t="s">
-        <v>591</v>
-      </c>
-      <c r="O20" s="91" t="s">
-        <v>23</v>
-      </c>
-      <c r="P20" s="89" t="s">
-        <v>592</v>
-      </c>
-      <c r="Q20" s="92" t="s">
-        <v>593</v>
-      </c>
-      <c r="R20" s="91" t="s">
-        <v>71</v>
-      </c>
-      <c r="S20" s="91"/>
-      <c r="T20" s="92"/>
-      <c r="U20" s="91"/>
-      <c r="V20" s="91" t="s">
-        <v>71</v>
-      </c>
-      <c r="W20" s="90" t="s">
-        <v>594</v>
-      </c>
-      <c r="X20" s="89" t="s">
-        <v>595</v>
-      </c>
-      <c r="Y20" s="89" t="s">
-        <v>596</v>
-      </c>
-      <c r="Z20" s="89" t="s">
-        <v>471</v>
-      </c>
-      <c r="AA20" s="89" t="s">
-        <v>71</v>
-      </c>
-      <c r="AB20" s="89"/>
-      <c r="AC20" s="89"/>
-      <c r="AD20" s="89"/>
-      <c r="AE20" s="89"/>
-      <c r="AF20" s="89"/>
-      <c r="AG20" s="89" t="s">
-        <v>597</v>
-      </c>
-      <c r="AH20" s="89" t="s">
-        <v>596</v>
-      </c>
-      <c r="AI20" s="86" t="s">
-        <v>598</v>
-      </c>
-      <c r="AJ20" s="93" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="21" spans="1:37" s="64" customFormat="1" ht="65" x14ac:dyDescent="0.15">
-      <c r="A21" s="48">
-        <v>18</v>
-      </c>
-      <c r="B21" s="48" t="s">
-        <v>205</v>
-      </c>
-      <c r="C21" s="48">
-        <v>2020</v>
-      </c>
-      <c r="D21" s="48" t="s">
-        <v>206</v>
-      </c>
-      <c r="E21" s="82" t="s">
-        <v>600</v>
-      </c>
-      <c r="F21" s="49"/>
-      <c r="G21" s="49"/>
-      <c r="H21" s="49"/>
-      <c r="I21" s="49"/>
-      <c r="J21" s="49" t="s">
-        <v>71</v>
-      </c>
-      <c r="K21" s="49"/>
-      <c r="L21" s="49"/>
-      <c r="M21" s="49"/>
-      <c r="N21" s="87" t="s">
-        <v>601</v>
-      </c>
-      <c r="O21" s="49" t="s">
-        <v>22</v>
-      </c>
-      <c r="P21" s="48" t="s">
-        <v>518</v>
-      </c>
-      <c r="Q21" s="84" t="s">
-        <v>602</v>
-      </c>
-      <c r="R21" s="49" t="s">
-        <v>71</v>
-      </c>
-      <c r="S21" s="49"/>
-      <c r="T21" s="84"/>
-      <c r="U21" s="49" t="s">
-        <v>71</v>
-      </c>
-      <c r="V21" s="49"/>
-      <c r="W21" s="82" t="s">
-        <v>603</v>
-      </c>
-      <c r="X21" s="48" t="s">
-        <v>604</v>
-      </c>
-      <c r="Y21" s="48" t="s">
-        <v>605</v>
-      </c>
-      <c r="Z21" s="48" t="s">
-        <v>463</v>
-      </c>
-      <c r="AA21" s="48" t="s">
-        <v>71</v>
-      </c>
-      <c r="AB21" s="48"/>
-      <c r="AC21" s="48"/>
-      <c r="AD21" s="48"/>
-      <c r="AE21" s="48"/>
-      <c r="AF21" s="48"/>
-      <c r="AG21" s="48" t="s">
-        <v>514</v>
-      </c>
-      <c r="AH21" s="48" t="s">
-        <v>606</v>
-      </c>
-      <c r="AI21" s="86" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="22" spans="1:37" s="64" customFormat="1" ht="78" x14ac:dyDescent="0.15">
-      <c r="A22" s="48">
-        <v>19</v>
-      </c>
-      <c r="B22" s="48" t="s">
-        <v>208</v>
-      </c>
-      <c r="C22" s="48">
-        <v>2020</v>
-      </c>
-      <c r="D22" s="48" t="s">
-        <v>209</v>
-      </c>
-      <c r="E22" s="82" t="s">
-        <v>608</v>
-      </c>
-      <c r="F22" s="49"/>
-      <c r="G22" s="49"/>
-      <c r="H22" s="49"/>
-      <c r="I22" s="49" t="s">
-        <v>71</v>
-      </c>
-      <c r="J22" s="49"/>
-      <c r="K22" s="49" t="s">
-        <v>71</v>
-      </c>
-      <c r="L22" s="49" t="s">
-        <v>71</v>
-      </c>
-      <c r="M22" s="49"/>
-      <c r="N22" s="87" t="s">
-        <v>609</v>
-      </c>
-      <c r="O22" s="49" t="s">
-        <v>23</v>
-      </c>
-      <c r="P22" s="48" t="s">
-        <v>610</v>
-      </c>
-      <c r="Q22" s="84" t="s">
-        <v>22</v>
-      </c>
-      <c r="R22" s="49" t="s">
-        <v>71</v>
-      </c>
-      <c r="S22" s="49" t="s">
-        <v>71</v>
-      </c>
-      <c r="T22" s="84"/>
-      <c r="U22" s="49"/>
-      <c r="V22" s="49" t="s">
-        <v>71</v>
-      </c>
-      <c r="W22" s="82" t="s">
-        <v>611</v>
-      </c>
-      <c r="X22" s="48" t="s">
-        <v>512</v>
-      </c>
-      <c r="Y22" s="48" t="s">
-        <v>612</v>
-      </c>
-      <c r="Z22" s="48" t="s">
-        <v>463</v>
-      </c>
-      <c r="AA22" s="48" t="s">
-        <v>71</v>
-      </c>
-      <c r="AB22" s="48"/>
-      <c r="AC22" s="48"/>
-      <c r="AD22" s="48"/>
-      <c r="AE22" s="48"/>
-      <c r="AF22" s="48"/>
-      <c r="AG22" s="48" t="s">
-        <v>613</v>
-      </c>
-      <c r="AH22" s="48" t="s">
-        <v>614</v>
-      </c>
-      <c r="AI22" s="86" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="23" spans="1:37" s="64" customFormat="1" ht="117" x14ac:dyDescent="0.15">
-      <c r="A23" s="48">
-        <v>20</v>
-      </c>
-      <c r="B23" s="48" t="s">
-        <v>213</v>
-      </c>
-      <c r="C23" s="48">
-        <v>2023</v>
-      </c>
-      <c r="D23" s="48" t="s">
-        <v>214</v>
-      </c>
-      <c r="E23" s="82" t="s">
-        <v>616</v>
-      </c>
-      <c r="F23" s="49" t="s">
-        <v>71</v>
-      </c>
-      <c r="G23" s="49"/>
-      <c r="H23" s="49"/>
-      <c r="I23" s="49" t="s">
-        <v>71</v>
-      </c>
-      <c r="J23" s="49"/>
-      <c r="K23" s="49"/>
-      <c r="L23" s="49"/>
-      <c r="M23" s="49"/>
-      <c r="N23" s="83" t="s">
-        <v>617</v>
-      </c>
-      <c r="O23" s="49" t="s">
-        <v>22</v>
-      </c>
-      <c r="P23" s="48" t="s">
-        <v>518</v>
-      </c>
-      <c r="Q23" s="84" t="s">
-        <v>618</v>
-      </c>
-      <c r="R23" s="49" t="s">
-        <v>71</v>
-      </c>
-      <c r="S23" s="49" t="s">
-        <v>71</v>
-      </c>
-      <c r="T23" s="84"/>
-      <c r="U23" s="49" t="s">
-        <v>71</v>
-      </c>
-      <c r="V23" s="49"/>
-      <c r="W23" s="82" t="s">
-        <v>619</v>
-      </c>
-      <c r="X23" s="48" t="s">
-        <v>620</v>
-      </c>
-      <c r="Y23" s="48" t="s">
-        <v>621</v>
-      </c>
-      <c r="Z23" s="48" t="s">
-        <v>471</v>
-      </c>
-      <c r="AA23" s="48" t="s">
-        <v>71</v>
-      </c>
-      <c r="AB23" s="48"/>
-      <c r="AC23" s="48"/>
-      <c r="AD23" s="48"/>
-      <c r="AE23" s="48"/>
-      <c r="AF23" s="48" t="s">
-        <v>71</v>
-      </c>
-      <c r="AG23" s="48" t="s">
-        <v>622</v>
-      </c>
-      <c r="AH23" s="48" t="s">
-        <v>623</v>
-      </c>
-      <c r="AI23" s="86" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="24" spans="1:37" s="97" customFormat="1" ht="87" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="48">
-        <v>21</v>
-      </c>
-      <c r="B24" s="48" t="s">
-        <v>216</v>
-      </c>
-      <c r="C24" s="48">
-        <v>2021</v>
-      </c>
-      <c r="D24" s="48" t="s">
-        <v>217</v>
-      </c>
-      <c r="E24" s="82" t="s">
-        <v>625</v>
-      </c>
-      <c r="F24" s="49"/>
-      <c r="G24" s="49"/>
-      <c r="H24" s="49" t="s">
-        <v>71</v>
-      </c>
-      <c r="I24" s="49"/>
-      <c r="J24" s="49"/>
-      <c r="K24" s="49"/>
-      <c r="L24" s="49"/>
-      <c r="M24" s="49"/>
-      <c r="N24" s="94" t="s">
-        <v>626</v>
-      </c>
-      <c r="O24" s="49" t="s">
-        <v>23</v>
-      </c>
-      <c r="P24" s="95" t="s">
-        <v>627</v>
-      </c>
-      <c r="Q24" s="84" t="s">
-        <v>628</v>
-      </c>
-      <c r="R24" s="49"/>
-      <c r="S24" s="49" t="s">
-        <v>629</v>
-      </c>
-      <c r="T24" s="84"/>
-      <c r="U24" s="49"/>
-      <c r="V24" s="49" t="s">
-        <v>71</v>
-      </c>
-      <c r="W24" s="96" t="s">
-        <v>630</v>
-      </c>
-      <c r="X24" s="95" t="s">
-        <v>631</v>
-      </c>
-      <c r="Y24" s="95" t="s">
-        <v>632</v>
-      </c>
-      <c r="Z24" s="48" t="s">
-        <v>463</v>
-      </c>
-      <c r="AA24" s="95"/>
-      <c r="AB24" s="95"/>
-      <c r="AC24" s="95" t="s">
-        <v>71</v>
-      </c>
-      <c r="AD24" s="95"/>
-      <c r="AE24" s="95"/>
-      <c r="AF24" s="95"/>
-      <c r="AG24" s="48" t="s">
-        <v>443</v>
-      </c>
-      <c r="AH24" s="95" t="s">
-        <v>633</v>
-      </c>
-      <c r="AI24" s="86" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="25" spans="1:37" s="97" customFormat="1" ht="78" x14ac:dyDescent="0.15">
-      <c r="A25" s="48">
-        <v>22</v>
-      </c>
-      <c r="B25" s="48" t="s">
-        <v>230</v>
-      </c>
-      <c r="C25" s="48">
-        <v>2020</v>
-      </c>
-      <c r="D25" s="48" t="s">
-        <v>231</v>
-      </c>
-      <c r="E25" s="96" t="s">
-        <v>635</v>
-      </c>
-      <c r="F25" s="49" t="s">
-        <v>71</v>
-      </c>
-      <c r="G25" s="49" t="s">
-        <v>71</v>
-      </c>
-      <c r="H25" s="49"/>
-      <c r="I25" s="49" t="s">
-        <v>71</v>
-      </c>
-      <c r="J25" s="49"/>
-      <c r="K25" s="49"/>
-      <c r="L25" s="49"/>
-      <c r="M25" s="49" t="s">
-        <v>71</v>
-      </c>
-      <c r="N25" s="94" t="s">
-        <v>636</v>
-      </c>
-      <c r="O25" s="49" t="s">
-        <v>23</v>
-      </c>
-      <c r="P25" s="95" t="s">
-        <v>637</v>
-      </c>
-      <c r="Q25" s="84" t="s">
-        <v>22</v>
-      </c>
-      <c r="R25" s="49" t="s">
-        <v>71</v>
-      </c>
-      <c r="S25" s="49" t="s">
-        <v>71</v>
-      </c>
-      <c r="T25" s="84"/>
-      <c r="U25" s="49"/>
-      <c r="V25" s="49" t="s">
-        <v>71</v>
-      </c>
-      <c r="W25" s="96" t="s">
-        <v>638</v>
-      </c>
-      <c r="X25" s="95" t="s">
-        <v>639</v>
-      </c>
-      <c r="Y25" s="95" t="s">
-        <v>640</v>
-      </c>
-      <c r="Z25" s="95" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA25" s="95"/>
-      <c r="AB25" s="95" t="s">
-        <v>71</v>
-      </c>
-      <c r="AC25" s="95"/>
-      <c r="AD25" s="95" t="s">
-        <v>71</v>
-      </c>
-      <c r="AE25" s="95"/>
-      <c r="AF25" s="95"/>
-      <c r="AG25" s="95" t="s">
-        <v>641</v>
-      </c>
-      <c r="AH25" s="95" t="s">
-        <v>642</v>
-      </c>
-      <c r="AI25" s="86" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="26" spans="1:37" s="97" customFormat="1" ht="52" x14ac:dyDescent="0.15">
-      <c r="A26" s="48">
-        <v>23</v>
-      </c>
-      <c r="B26" s="48" t="s">
-        <v>236</v>
-      </c>
-      <c r="C26" s="48">
-        <v>2019</v>
-      </c>
-      <c r="D26" s="48" t="s">
-        <v>237</v>
-      </c>
-      <c r="E26" s="96" t="s">
-        <v>644</v>
-      </c>
-      <c r="F26" s="49"/>
-      <c r="G26" s="49"/>
-      <c r="H26" s="49"/>
-      <c r="I26" s="49"/>
-      <c r="J26" s="49"/>
-      <c r="K26" s="49" t="s">
-        <v>71</v>
-      </c>
-      <c r="L26" s="49"/>
-      <c r="M26" s="49"/>
-      <c r="N26" s="94" t="s">
-        <v>645</v>
-      </c>
-      <c r="O26" s="49" t="s">
-        <v>23</v>
-      </c>
-      <c r="P26" s="95" t="s">
-        <v>646</v>
-      </c>
-      <c r="Q26" s="84" t="s">
-        <v>22</v>
-      </c>
-      <c r="R26" s="49" t="s">
-        <v>71</v>
-      </c>
-      <c r="S26" s="49"/>
-      <c r="T26" s="84"/>
-      <c r="U26" s="49"/>
-      <c r="V26" s="49" t="s">
-        <v>71</v>
-      </c>
-      <c r="W26" s="96" t="s">
-        <v>647</v>
-      </c>
-      <c r="X26" s="95" t="s">
-        <v>469</v>
-      </c>
-      <c r="Y26" s="95" t="s">
-        <v>648</v>
-      </c>
-      <c r="Z26" s="95" t="s">
-        <v>471</v>
-      </c>
-      <c r="AA26" s="95" t="s">
-        <v>71</v>
-      </c>
-      <c r="AB26" s="95"/>
-      <c r="AC26" s="95"/>
-      <c r="AD26" s="95"/>
-      <c r="AE26" s="95"/>
-      <c r="AF26" s="95"/>
-      <c r="AG26" s="48" t="s">
-        <v>649</v>
-      </c>
-      <c r="AH26" s="95" t="s">
-        <v>650</v>
-      </c>
-      <c r="AI26" s="86" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="27" spans="1:37" s="97" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="48">
-        <v>24</v>
-      </c>
-      <c r="B27" s="48" t="s">
-        <v>652</v>
-      </c>
-      <c r="C27" s="48">
-        <v>2023</v>
-      </c>
-      <c r="D27" s="48" t="s">
-        <v>220</v>
-      </c>
-      <c r="E27" s="96" t="s">
-        <v>653</v>
-      </c>
-      <c r="F27" s="49" t="s">
-        <v>71</v>
-      </c>
-      <c r="G27" s="49"/>
-      <c r="H27" s="49"/>
-      <c r="I27" s="49"/>
-      <c r="J27" s="49"/>
-      <c r="K27" s="49"/>
-      <c r="L27" s="49"/>
-      <c r="M27" s="49"/>
-      <c r="N27" s="94" t="s">
-        <v>654</v>
-      </c>
-      <c r="O27" s="49" t="s">
-        <v>23</v>
-      </c>
-      <c r="P27" s="95" t="s">
-        <v>655</v>
-      </c>
-      <c r="Q27" s="84" t="s">
-        <v>656</v>
-      </c>
-      <c r="R27" s="49" t="s">
-        <v>71</v>
-      </c>
-      <c r="S27" s="49"/>
-      <c r="T27" s="84"/>
-      <c r="U27" s="49"/>
-      <c r="V27" s="49" t="s">
-        <v>71</v>
-      </c>
-      <c r="W27" s="96" t="s">
-        <v>657</v>
-      </c>
-      <c r="X27" s="95" t="s">
-        <v>595</v>
-      </c>
-      <c r="Y27" s="95" t="s">
-        <v>658</v>
-      </c>
-      <c r="Z27" s="95" t="s">
-        <v>52</v>
-      </c>
-      <c r="AA27" s="95" t="s">
-        <v>71</v>
-      </c>
-      <c r="AB27" s="95"/>
-      <c r="AC27" s="95"/>
-      <c r="AD27" s="95"/>
-      <c r="AE27" s="95"/>
-      <c r="AF27" s="95" t="s">
-        <v>71</v>
-      </c>
-      <c r="AG27" s="95" t="s">
-        <v>446</v>
-      </c>
-      <c r="AH27" s="95" t="s">
-        <v>659</v>
-      </c>
-      <c r="AI27" s="86" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="28" spans="1:37" s="97" customFormat="1" ht="39" x14ac:dyDescent="0.15">
-      <c r="A28" s="48">
-        <v>25</v>
-      </c>
-      <c r="B28" s="48" t="s">
-        <v>241</v>
-      </c>
-      <c r="C28" s="48">
-        <v>2023</v>
-      </c>
-      <c r="D28" s="48" t="s">
-        <v>242</v>
-      </c>
-      <c r="E28" s="96" t="s">
-        <v>661</v>
-      </c>
-      <c r="F28" s="49" t="s">
-        <v>71</v>
-      </c>
-      <c r="G28" s="49"/>
-      <c r="H28" s="49"/>
-      <c r="I28" s="49" t="s">
-        <v>71</v>
-      </c>
-      <c r="J28" s="49"/>
-      <c r="K28" s="49"/>
-      <c r="L28" s="49"/>
-      <c r="M28" s="49"/>
-      <c r="N28" s="94" t="s">
-        <v>662</v>
-      </c>
-      <c r="O28" s="49" t="s">
-        <v>22</v>
-      </c>
-      <c r="P28" s="95" t="s">
-        <v>663</v>
-      </c>
-      <c r="Q28" s="84" t="s">
-        <v>22</v>
-      </c>
-      <c r="R28" s="49" t="s">
-        <v>71</v>
-      </c>
-      <c r="S28" s="49" t="s">
-        <v>71</v>
-      </c>
-      <c r="T28" s="84"/>
-      <c r="U28" s="49"/>
-      <c r="V28" s="49" t="s">
-        <v>71</v>
-      </c>
-      <c r="W28" s="96" t="s">
-        <v>657</v>
-      </c>
-      <c r="X28" s="95" t="s">
-        <v>595</v>
-      </c>
-      <c r="Y28" s="95" t="s">
-        <v>658</v>
-      </c>
-      <c r="Z28" s="95" t="s">
-        <v>52</v>
-      </c>
-      <c r="AA28" s="95" t="s">
-        <v>71</v>
-      </c>
-      <c r="AB28" s="95"/>
-      <c r="AC28" s="95"/>
-      <c r="AD28" s="95"/>
-      <c r="AE28" s="95"/>
-      <c r="AF28" s="95" t="s">
-        <v>71</v>
-      </c>
-      <c r="AG28" s="95" t="s">
-        <v>446</v>
-      </c>
-      <c r="AH28" s="95" t="s">
-        <v>659</v>
-      </c>
-      <c r="AI28" s="86" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="29" spans="1:37" s="97" customFormat="1" ht="65" x14ac:dyDescent="0.15">
-      <c r="A29" s="48">
-        <v>26</v>
-      </c>
-      <c r="B29" s="48" t="s">
-        <v>255</v>
-      </c>
-      <c r="C29" s="48">
-        <v>2021</v>
-      </c>
-      <c r="D29" s="48" t="s">
-        <v>256</v>
-      </c>
-      <c r="E29" s="96" t="s">
-        <v>665</v>
-      </c>
-      <c r="F29" s="49"/>
-      <c r="G29" s="49"/>
-      <c r="H29" s="49"/>
-      <c r="I29" s="49"/>
-      <c r="J29" s="49"/>
-      <c r="K29" s="49" t="s">
-        <v>71</v>
-      </c>
-      <c r="L29" s="49" t="s">
-        <v>71</v>
-      </c>
-      <c r="M29" s="49" t="s">
-        <v>71</v>
-      </c>
-      <c r="N29" s="94" t="s">
-        <v>666</v>
-      </c>
-      <c r="O29" s="49" t="s">
-        <v>23</v>
-      </c>
-      <c r="P29" s="95" t="s">
-        <v>667</v>
-      </c>
-      <c r="Q29" s="84" t="s">
-        <v>22</v>
-      </c>
-      <c r="R29" s="49" t="s">
-        <v>71</v>
-      </c>
-      <c r="S29" s="49" t="s">
-        <v>71</v>
-      </c>
-      <c r="T29" s="84"/>
-      <c r="U29" s="49" t="s">
-        <v>71</v>
-      </c>
-      <c r="V29" s="49"/>
-      <c r="W29" s="96" t="s">
-        <v>668</v>
-      </c>
-      <c r="X29" s="95" t="s">
-        <v>669</v>
-      </c>
-      <c r="Y29" s="95" t="s">
-        <v>670</v>
-      </c>
-      <c r="Z29" s="95" t="s">
-        <v>471</v>
-      </c>
-      <c r="AA29" s="95" t="s">
-        <v>71</v>
-      </c>
-      <c r="AB29" s="95"/>
-      <c r="AC29" s="95"/>
-      <c r="AD29" s="95"/>
-      <c r="AE29" s="95"/>
-      <c r="AF29" s="95"/>
-      <c r="AG29" s="48" t="s">
-        <v>514</v>
-      </c>
-      <c r="AH29" s="95" t="s">
-        <v>671</v>
-      </c>
-      <c r="AI29" s="86" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="30" spans="1:37" s="97" customFormat="1" ht="52" x14ac:dyDescent="0.15">
-      <c r="A30" s="48">
-        <v>27</v>
-      </c>
-      <c r="B30" s="48" t="s">
-        <v>273</v>
-      </c>
-      <c r="C30" s="48">
-        <v>2019</v>
-      </c>
-      <c r="D30" s="48" t="s">
-        <v>274</v>
-      </c>
-      <c r="E30" s="96" t="s">
-        <v>673</v>
-      </c>
-      <c r="F30" s="49"/>
-      <c r="G30" s="49"/>
-      <c r="H30" s="49"/>
-      <c r="I30" s="49"/>
-      <c r="J30" s="49"/>
-      <c r="K30" s="49" t="s">
-        <v>71</v>
-      </c>
-      <c r="L30" s="49"/>
-      <c r="M30" s="49"/>
-      <c r="N30" s="94" t="s">
-        <v>674</v>
-      </c>
-      <c r="O30" s="49" t="s">
-        <v>23</v>
-      </c>
-      <c r="P30" s="95" t="s">
-        <v>675</v>
-      </c>
-      <c r="Q30" s="84" t="s">
-        <v>494</v>
-      </c>
-      <c r="R30" s="49" t="s">
-        <v>71</v>
-      </c>
-      <c r="S30" s="49"/>
-      <c r="T30" s="84"/>
-      <c r="U30" s="49"/>
-      <c r="V30" s="49" t="s">
-        <v>71</v>
-      </c>
-      <c r="W30" s="96" t="s">
-        <v>676</v>
-      </c>
-      <c r="X30" s="95" t="s">
-        <v>469</v>
-      </c>
-      <c r="Y30" s="95" t="s">
-        <v>470</v>
-      </c>
-      <c r="Z30" s="95" t="s">
-        <v>471</v>
-      </c>
-      <c r="AA30" s="95" t="s">
-        <v>71</v>
-      </c>
-      <c r="AB30" s="95"/>
-      <c r="AC30" s="95"/>
-      <c r="AD30" s="95"/>
-      <c r="AE30" s="95"/>
-      <c r="AF30" s="95"/>
-      <c r="AG30" s="48" t="s">
-        <v>514</v>
-      </c>
-      <c r="AH30" s="95" t="s">
-        <v>677</v>
-      </c>
-      <c r="AI30" s="86" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="31" spans="1:37" s="97" customFormat="1" ht="65" x14ac:dyDescent="0.15">
-      <c r="A31" s="48">
-        <v>28</v>
-      </c>
-      <c r="B31" s="48" t="s">
-        <v>279</v>
-      </c>
-      <c r="C31" s="48">
-        <v>2021</v>
-      </c>
-      <c r="D31" s="48" t="s">
-        <v>280</v>
-      </c>
-      <c r="E31" s="96" t="s">
-        <v>679</v>
-      </c>
-      <c r="F31" s="49"/>
-      <c r="G31" s="49" t="s">
-        <v>71</v>
-      </c>
-      <c r="H31" s="49"/>
-      <c r="I31" s="49"/>
-      <c r="J31" s="49"/>
-      <c r="K31" s="49"/>
-      <c r="L31" s="49"/>
-      <c r="M31" s="49"/>
-      <c r="N31" s="94" t="s">
-        <v>680</v>
-      </c>
-      <c r="O31" s="49" t="s">
-        <v>23</v>
-      </c>
-      <c r="P31" s="95" t="s">
-        <v>681</v>
-      </c>
-      <c r="Q31" s="84" t="s">
-        <v>682</v>
-      </c>
-      <c r="R31" s="49" t="s">
-        <v>683</v>
-      </c>
-      <c r="S31" s="49" t="s">
-        <v>684</v>
-      </c>
-      <c r="T31" s="84"/>
-      <c r="U31" s="49" t="s">
-        <v>71</v>
-      </c>
-      <c r="V31" s="49"/>
-      <c r="W31" s="96" t="s">
-        <v>685</v>
-      </c>
-      <c r="X31" s="95" t="s">
-        <v>686</v>
-      </c>
-      <c r="Y31" s="95" t="s">
-        <v>687</v>
-      </c>
-      <c r="Z31" s="48" t="s">
-        <v>471</v>
-      </c>
-      <c r="AA31" s="95" t="s">
-        <v>71</v>
-      </c>
-      <c r="AB31" s="95"/>
-      <c r="AC31" s="95"/>
-      <c r="AD31" s="95"/>
-      <c r="AE31" s="95"/>
-      <c r="AF31" s="95"/>
-      <c r="AG31" s="48" t="s">
-        <v>514</v>
-      </c>
-      <c r="AH31" s="95" t="s">
-        <v>687</v>
-      </c>
-      <c r="AI31" s="86" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="32" spans="1:37" s="64" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B32" s="48"/>
-      <c r="C32" s="48"/>
-      <c r="E32" s="98"/>
-      <c r="F32" s="99"/>
-      <c r="G32" s="99"/>
-      <c r="H32" s="99"/>
-      <c r="I32" s="99"/>
-      <c r="J32" s="99"/>
-      <c r="K32" s="99"/>
-      <c r="L32" s="99"/>
-      <c r="M32" s="99"/>
-      <c r="N32" s="100"/>
-      <c r="O32" s="99"/>
-      <c r="Q32" s="101"/>
-      <c r="R32" s="99"/>
-      <c r="S32" s="99"/>
-      <c r="T32" s="101"/>
-      <c r="U32" s="99"/>
-      <c r="V32" s="99"/>
-      <c r="W32" s="98"/>
-      <c r="AI32" s="102"/>
-    </row>
-    <row r="33" spans="6:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F33" s="103"/>
-      <c r="G33" s="103"/>
-      <c r="H33" s="103"/>
-      <c r="I33" s="103"/>
-      <c r="J33" s="103"/>
-      <c r="K33" s="103"/>
-      <c r="L33" s="103"/>
-      <c r="M33" s="103"/>
-      <c r="R33" s="103"/>
-      <c r="S33" s="103"/>
-      <c r="T33" s="104"/>
-    </row>
-    <row r="34" spans="6:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F34" s="103"/>
-      <c r="G34" s="103"/>
-      <c r="H34" s="103"/>
-      <c r="I34" s="103"/>
-      <c r="J34" s="103"/>
-      <c r="K34" s="103"/>
-      <c r="L34" s="103"/>
-      <c r="M34" s="103"/>
-      <c r="R34" s="103"/>
-      <c r="S34" s="103"/>
-      <c r="T34" s="104"/>
-    </row>
-    <row r="35" spans="6:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F35" s="103"/>
-      <c r="G35" s="103"/>
-      <c r="H35" s="103"/>
-      <c r="I35" s="103"/>
-      <c r="J35" s="103"/>
-      <c r="K35" s="103"/>
-      <c r="L35" s="103"/>
-      <c r="M35" s="103"/>
-      <c r="R35" s="103"/>
-      <c r="S35" s="103"/>
-      <c r="T35" s="104"/>
-    </row>
-    <row r="36" spans="6:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F36" s="103"/>
-      <c r="G36" s="103"/>
-      <c r="H36" s="103"/>
-      <c r="I36" s="103"/>
-      <c r="J36" s="103"/>
-      <c r="K36" s="103"/>
-      <c r="L36" s="103"/>
-      <c r="M36" s="103"/>
-      <c r="R36" s="103"/>
-      <c r="S36" s="103"/>
-      <c r="T36" s="104"/>
-    </row>
-    <row r="37" spans="6:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F37" s="103"/>
-      <c r="G37" s="103"/>
-      <c r="H37" s="103"/>
-      <c r="I37" s="103"/>
-      <c r="J37" s="103"/>
-      <c r="K37" s="103"/>
-      <c r="L37" s="103"/>
-      <c r="M37" s="103"/>
-      <c r="R37" s="103"/>
-      <c r="S37" s="103"/>
-      <c r="T37" s="104"/>
-    </row>
-    <row r="38" spans="6:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F38" s="103"/>
-      <c r="G38" s="103"/>
-      <c r="H38" s="103"/>
-      <c r="I38" s="103"/>
-      <c r="J38" s="103"/>
-      <c r="K38" s="103"/>
-      <c r="L38" s="103"/>
-      <c r="M38" s="103"/>
-      <c r="R38" s="103"/>
-      <c r="S38" s="103"/>
-      <c r="T38" s="104"/>
-    </row>
-    <row r="39" spans="6:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F39" s="103"/>
-      <c r="G39" s="103"/>
-      <c r="H39" s="103"/>
-      <c r="I39" s="103"/>
-      <c r="J39" s="103"/>
-      <c r="K39" s="103"/>
-      <c r="L39" s="103"/>
-      <c r="M39" s="103"/>
-      <c r="R39" s="103"/>
-      <c r="S39" s="103"/>
-      <c r="T39" s="104"/>
-    </row>
-    <row r="40" spans="6:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F40" s="103"/>
-      <c r="G40" s="103"/>
-      <c r="H40" s="103"/>
-      <c r="I40" s="103"/>
-      <c r="J40" s="103"/>
-      <c r="K40" s="103"/>
-      <c r="L40" s="103"/>
-      <c r="M40" s="103"/>
-      <c r="R40" s="103"/>
-      <c r="S40" s="103"/>
-      <c r="T40" s="104"/>
-    </row>
-    <row r="41" spans="6:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F41" s="103"/>
-      <c r="G41" s="103"/>
-      <c r="H41" s="103"/>
-      <c r="I41" s="103"/>
-      <c r="J41" s="103"/>
-      <c r="K41" s="103"/>
-      <c r="L41" s="103"/>
-      <c r="M41" s="103"/>
-      <c r="R41" s="103"/>
-      <c r="S41" s="103"/>
-      <c r="T41" s="104"/>
-    </row>
-    <row r="42" spans="6:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F42" s="103"/>
-      <c r="G42" s="103"/>
-      <c r="H42" s="103"/>
-      <c r="I42" s="103"/>
-      <c r="J42" s="103"/>
-      <c r="K42" s="103"/>
-      <c r="L42" s="103"/>
-      <c r="M42" s="103"/>
-      <c r="R42" s="103"/>
-      <c r="S42" s="103"/>
-      <c r="T42" s="104"/>
-    </row>
-    <row r="43" spans="6:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F43" s="103"/>
-      <c r="G43" s="103"/>
-      <c r="H43" s="103"/>
-      <c r="I43" s="103"/>
-      <c r="J43" s="103"/>
-      <c r="K43" s="103"/>
-      <c r="L43" s="103"/>
-      <c r="M43" s="103"/>
-      <c r="R43" s="103"/>
-      <c r="S43" s="103"/>
-      <c r="T43" s="104"/>
-    </row>
-    <row r="44" spans="6:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F44" s="103"/>
-      <c r="G44" s="103"/>
-      <c r="H44" s="103"/>
-      <c r="I44" s="103"/>
-      <c r="J44" s="103"/>
-      <c r="K44" s="103"/>
-      <c r="L44" s="103"/>
-      <c r="M44" s="103"/>
-      <c r="R44" s="103"/>
-      <c r="S44" s="103"/>
-      <c r="T44" s="104"/>
-    </row>
-    <row r="45" spans="6:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F45" s="103"/>
-      <c r="G45" s="103"/>
-      <c r="H45" s="103"/>
-      <c r="I45" s="103"/>
-      <c r="J45" s="103"/>
-      <c r="K45" s="103"/>
-      <c r="L45" s="103"/>
-      <c r="M45" s="103"/>
-      <c r="R45" s="103"/>
-      <c r="S45" s="103"/>
-      <c r="T45" s="104"/>
-    </row>
-    <row r="46" spans="6:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F46" s="103"/>
-      <c r="G46" s="103"/>
-      <c r="H46" s="103"/>
-      <c r="I46" s="103"/>
-      <c r="J46" s="103"/>
-      <c r="K46" s="103"/>
-      <c r="L46" s="103"/>
-      <c r="M46" s="103"/>
-      <c r="R46" s="103"/>
-      <c r="S46" s="103"/>
-      <c r="T46" s="104"/>
-    </row>
-    <row r="47" spans="6:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F47" s="103"/>
-      <c r="G47" s="103"/>
-      <c r="H47" s="103"/>
-      <c r="I47" s="103"/>
-      <c r="J47" s="103"/>
-      <c r="K47" s="103"/>
-      <c r="L47" s="103"/>
-      <c r="M47" s="103"/>
-      <c r="R47" s="103"/>
-      <c r="S47" s="103"/>
-      <c r="T47" s="104"/>
-    </row>
-    <row r="48" spans="6:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="R48" s="103"/>
-      <c r="S48" s="103"/>
-      <c r="T48" s="104"/>
-    </row>
-    <row r="49" spans="18:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="R49" s="103"/>
-      <c r="S49" s="103"/>
-      <c r="T49" s="104"/>
-    </row>
-    <row r="50" spans="18:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="R50" s="103"/>
-      <c r="S50" s="103"/>
-      <c r="T50" s="104"/>
-    </row>
-    <row r="51" spans="18:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="R51" s="103"/>
-      <c r="S51" s="103"/>
-      <c r="T51" s="104"/>
-    </row>
-    <row r="52" spans="18:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="R52" s="103"/>
-      <c r="S52" s="103"/>
-      <c r="T52" s="104"/>
-    </row>
-    <row r="53" spans="18:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="R53" s="103"/>
-      <c r="S53" s="103"/>
-      <c r="T53" s="104"/>
-    </row>
-    <row r="54" spans="18:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="R54" s="103"/>
-      <c r="S54" s="103"/>
-      <c r="T54" s="104"/>
-    </row>
-    <row r="55" spans="18:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="R55" s="103"/>
-      <c r="S55" s="103"/>
-      <c r="T55" s="104"/>
-    </row>
-    <row r="56" spans="18:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="R56" s="103"/>
-      <c r="S56" s="103"/>
-      <c r="T56" s="104"/>
-    </row>
-    <row r="57" spans="18:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="R57" s="103"/>
-      <c r="S57" s="103"/>
-      <c r="T57" s="104"/>
-    </row>
-    <row r="58" spans="18:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="R58" s="103"/>
-      <c r="S58" s="103"/>
-      <c r="T58" s="104"/>
-    </row>
-    <row r="59" spans="18:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="R59" s="103"/>
-      <c r="S59" s="103"/>
-      <c r="T59" s="104"/>
-    </row>
-    <row r="60" spans="18:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="R60" s="103"/>
-      <c r="S60" s="103"/>
-      <c r="T60" s="104"/>
-    </row>
-    <row r="61" spans="18:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="R61" s="103"/>
-      <c r="S61" s="103"/>
-      <c r="T61" s="104"/>
-    </row>
-    <row r="62" spans="18:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="R62" s="103"/>
-      <c r="S62" s="103"/>
-      <c r="T62" s="104"/>
-    </row>
-    <row r="63" spans="18:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="R63" s="103"/>
-      <c r="S63" s="103"/>
-      <c r="T63" s="104"/>
-    </row>
-    <row r="64" spans="18:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="R64" s="103"/>
-      <c r="S64" s="103"/>
-      <c r="T64" s="104"/>
-    </row>
-    <row r="65" spans="18:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="R65" s="103"/>
-      <c r="S65" s="103"/>
-      <c r="T65" s="104"/>
-    </row>
-  </sheetData>
-  <autoFilter ref="A2:AK31" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
-  <mergeCells count="7">
-    <mergeCell ref="X1:X2"/>
-    <mergeCell ref="AA1:AH1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="U1:W1"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="AI4" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
-    <hyperlink ref="AI5" r:id="rId2" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
-    <hyperlink ref="AI6" r:id="rId3" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
-    <hyperlink ref="AI7" r:id="rId4" xr:uid="{00000000-0004-0000-0400-000003000000}"/>
-    <hyperlink ref="AI8" r:id="rId5" xr:uid="{00000000-0004-0000-0400-000004000000}"/>
-    <hyperlink ref="AI9" r:id="rId6" xr:uid="{00000000-0004-0000-0400-000005000000}"/>
-    <hyperlink ref="AI10" r:id="rId7" xr:uid="{00000000-0004-0000-0400-000006000000}"/>
-    <hyperlink ref="AI11" r:id="rId8" xr:uid="{00000000-0004-0000-0400-000007000000}"/>
-    <hyperlink ref="AI12" r:id="rId9" xr:uid="{00000000-0004-0000-0400-000008000000}"/>
-    <hyperlink ref="AI14" r:id="rId10" xr:uid="{00000000-0004-0000-0400-000009000000}"/>
-    <hyperlink ref="AI15" r:id="rId11" xr:uid="{00000000-0004-0000-0400-00000A000000}"/>
-    <hyperlink ref="AI16" r:id="rId12" xr:uid="{00000000-0004-0000-0400-00000B000000}"/>
-    <hyperlink ref="AI17" r:id="rId13" xr:uid="{00000000-0004-0000-0400-00000C000000}"/>
-    <hyperlink ref="AI18" r:id="rId14" xr:uid="{00000000-0004-0000-0400-00000D000000}"/>
-    <hyperlink ref="AI19" r:id="rId15" xr:uid="{00000000-0004-0000-0400-00000E000000}"/>
-    <hyperlink ref="AK19" r:id="rId16" xr:uid="{00000000-0004-0000-0400-00000F000000}"/>
-    <hyperlink ref="AI20" r:id="rId17" xr:uid="{00000000-0004-0000-0400-000010000000}"/>
-    <hyperlink ref="AI21" r:id="rId18" xr:uid="{00000000-0004-0000-0400-000011000000}"/>
-    <hyperlink ref="AI22" r:id="rId19" xr:uid="{00000000-0004-0000-0400-000012000000}"/>
-    <hyperlink ref="AI23" r:id="rId20" xr:uid="{00000000-0004-0000-0400-000013000000}"/>
-    <hyperlink ref="AI24" r:id="rId21" xr:uid="{00000000-0004-0000-0400-000014000000}"/>
-    <hyperlink ref="AI25" r:id="rId22" xr:uid="{00000000-0004-0000-0400-000015000000}"/>
-    <hyperlink ref="AI26" r:id="rId23" xr:uid="{00000000-0004-0000-0400-000016000000}"/>
-    <hyperlink ref="AI27" r:id="rId24" xr:uid="{00000000-0004-0000-0400-000017000000}"/>
-    <hyperlink ref="AI28" r:id="rId25" xr:uid="{00000000-0004-0000-0400-000018000000}"/>
-    <hyperlink ref="AI29" r:id="rId26" xr:uid="{00000000-0004-0000-0400-000019000000}"/>
-    <hyperlink ref="AI30" r:id="rId27" xr:uid="{00000000-0004-0000-0400-00001A000000}"/>
-    <hyperlink ref="AI31" r:id="rId28" xr:uid="{00000000-0004-0000-0400-00001B000000}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <tabColor rgb="FFE2F0D9"/>
   </sheetPr>
   <dimension ref="A1:AP63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="AQ16" sqref="AQ16"/>
+      <selection pane="bottomLeft" activeCell="S66" sqref="S66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -10516,67 +7391,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:42" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="105"/>
-      <c r="B1" s="106"/>
-      <c r="C1" s="107"/>
+      <c r="A1" s="91"/>
+      <c r="B1" s="92"/>
+      <c r="C1" s="93"/>
       <c r="D1" s="65"/>
       <c r="E1" s="66"/>
-      <c r="F1" s="131" t="s">
+      <c r="F1" s="113" t="s">
         <v>422</v>
       </c>
-      <c r="G1" s="131"/>
-      <c r="H1" s="131"/>
-      <c r="I1" s="131"/>
-      <c r="J1" s="131"/>
-      <c r="K1" s="131"/>
-      <c r="L1" s="131"/>
-      <c r="M1" s="131"/>
+      <c r="G1" s="113"/>
+      <c r="H1" s="113"/>
+      <c r="I1" s="113"/>
+      <c r="J1" s="113"/>
+      <c r="K1" s="113"/>
+      <c r="L1" s="113"/>
+      <c r="M1" s="113"/>
       <c r="N1" s="67"/>
       <c r="P1" s="65"/>
-      <c r="R1" s="128" t="s">
+      <c r="R1" s="111" t="s">
         <v>25</v>
       </c>
-      <c r="S1" s="132" t="s">
+      <c r="S1" s="114" t="s">
         <v>27</v>
       </c>
-      <c r="T1" s="132"/>
-      <c r="U1" s="132"/>
-      <c r="V1" s="133" t="s">
-        <v>424</v>
-      </c>
-      <c r="W1" s="133"/>
-      <c r="X1" s="133"/>
-      <c r="Y1" s="134" t="s">
+      <c r="T1" s="114"/>
+      <c r="U1" s="114"/>
+      <c r="V1" s="115" t="s">
+        <v>423</v>
+      </c>
+      <c r="W1" s="115"/>
+      <c r="X1" s="115"/>
+      <c r="Y1" s="116" t="s">
         <v>37</v>
       </c>
-      <c r="Z1" s="134"/>
-      <c r="AA1" s="134"/>
-      <c r="AB1" s="134"/>
-      <c r="AC1" s="134"/>
-      <c r="AD1" s="134"/>
+      <c r="Z1" s="116"/>
+      <c r="AA1" s="116"/>
+      <c r="AB1" s="116"/>
+      <c r="AC1" s="116"/>
+      <c r="AD1" s="116"/>
       <c r="AE1" s="44"/>
-      <c r="AF1" s="108"/>
-      <c r="AG1" s="130" t="s">
+      <c r="AF1" s="94"/>
+      <c r="AG1" s="112" t="s">
         <v>45</v>
       </c>
-      <c r="AH1" s="130"/>
-      <c r="AI1" s="130"/>
-      <c r="AJ1" s="130"/>
-      <c r="AK1" s="130"/>
-      <c r="AL1" s="130"/>
-      <c r="AM1" s="130"/>
-      <c r="AN1" s="130"/>
+      <c r="AH1" s="112"/>
+      <c r="AI1" s="112"/>
+      <c r="AJ1" s="112"/>
+      <c r="AK1" s="112"/>
+      <c r="AL1" s="112"/>
+      <c r="AM1" s="112"/>
+      <c r="AN1" s="112"/>
       <c r="AO1" s="44"/>
       <c r="AP1" s="65" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="2" spans="1:42" s="75" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:42" s="74" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="69" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B2" s="70" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C2" s="71" t="s">
         <v>61</v>
@@ -10587,129 +7462,129 @@
       <c r="E2" s="71" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="109" t="s">
+      <c r="F2" s="95" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="109" t="s">
+      <c r="G2" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="109" t="s">
+      <c r="H2" s="95" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="110" t="s">
+      <c r="I2" s="96" t="s">
+        <v>426</v>
+      </c>
+      <c r="J2" s="95" t="s">
+        <v>427</v>
+      </c>
+      <c r="K2" s="95" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" s="95" t="s">
         <v>428</v>
       </c>
-      <c r="J2" s="109" t="s">
+      <c r="M2" s="95" t="s">
         <v>429</v>
       </c>
-      <c r="K2" s="109" t="s">
-        <v>16</v>
-      </c>
-      <c r="L2" s="109" t="s">
+      <c r="N2" s="68" t="s">
         <v>430</v>
       </c>
-      <c r="M2" s="109" t="s">
+      <c r="O2" s="97" t="s">
+        <v>20</v>
+      </c>
+      <c r="P2" s="70" t="s">
         <v>431</v>
       </c>
-      <c r="N2" s="68" t="s">
+      <c r="Q2" s="97" t="s">
+        <v>25</v>
+      </c>
+      <c r="R2" s="111"/>
+      <c r="S2" s="98" t="s">
         <v>432</v>
       </c>
-      <c r="O2" s="111" t="s">
-        <v>20</v>
-      </c>
-      <c r="P2" s="70" t="s">
+      <c r="T2" s="99" t="s">
         <v>433</v>
       </c>
-      <c r="Q2" s="111" t="s">
-        <v>25</v>
-      </c>
-      <c r="R2" s="128"/>
-      <c r="S2" s="112" t="s">
+      <c r="U2" s="100" t="s">
         <v>434</v>
       </c>
-      <c r="T2" s="113" t="s">
+      <c r="V2" s="72" t="s">
         <v>435</v>
       </c>
-      <c r="U2" s="114" t="s">
+      <c r="W2" s="72" t="s">
         <v>436</v>
       </c>
-      <c r="V2" s="72" t="s">
+      <c r="X2" s="70" t="s">
         <v>437</v>
       </c>
-      <c r="W2" s="72" t="s">
+      <c r="Y2" s="101" t="s">
+        <v>643</v>
+      </c>
+      <c r="Z2" s="102" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA2" s="102" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB2" s="102" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC2" s="103" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD2" s="104" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE2" s="70" t="s">
         <v>438</v>
       </c>
-      <c r="X2" s="70" t="s">
+      <c r="AF2" s="105" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG2" s="106" t="s">
         <v>439</v>
       </c>
-      <c r="Y2" s="115" t="s">
-        <v>689</v>
-      </c>
-      <c r="Z2" s="116" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA2" s="116" t="s">
-        <v>40</v>
-      </c>
-      <c r="AB2" s="116" t="s">
-        <v>41</v>
-      </c>
-      <c r="AC2" s="117" t="s">
-        <v>42</v>
-      </c>
-      <c r="AD2" s="118" t="s">
-        <v>44</v>
-      </c>
-      <c r="AE2" s="70" t="s">
+      <c r="AH2" s="107" t="s">
         <v>440</v>
       </c>
-      <c r="AF2" s="119" t="s">
-        <v>46</v>
-      </c>
-      <c r="AG2" s="120" t="s">
+      <c r="AI2" s="107" t="s">
         <v>441</v>
       </c>
-      <c r="AH2" s="121" t="s">
+      <c r="AJ2" s="107" t="s">
         <v>442</v>
       </c>
-      <c r="AI2" s="121" t="s">
+      <c r="AK2" s="107" t="s">
         <v>443</v>
       </c>
-      <c r="AJ2" s="121" t="s">
+      <c r="AL2" s="107" t="s">
         <v>444</v>
       </c>
-      <c r="AK2" s="121" t="s">
+      <c r="AM2" s="107" t="s">
         <v>445</v>
       </c>
-      <c r="AL2" s="121" t="s">
+      <c r="AN2" s="108" t="s">
         <v>446</v>
       </c>
-      <c r="AM2" s="121" t="s">
-        <v>447</v>
-      </c>
-      <c r="AN2" s="122" t="s">
-        <v>448</v>
-      </c>
       <c r="AO2" s="70" t="s">
-        <v>690</v>
-      </c>
-      <c r="AP2" s="74"/>
+        <v>644</v>
+      </c>
+      <c r="AP2" s="73"/>
     </row>
     <row r="3" spans="1:42" s="64" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="48">
         <v>1</v>
       </c>
       <c r="B3" s="48" t="s">
-        <v>691</v>
+        <v>645</v>
       </c>
       <c r="C3" s="48">
         <v>2021</v>
       </c>
       <c r="D3" s="48" t="s">
-        <v>456</v>
-      </c>
-      <c r="E3" s="82" t="s">
-        <v>457</v>
+        <v>448</v>
+      </c>
+      <c r="E3" s="75" t="s">
+        <v>449</v>
       </c>
       <c r="F3" s="49" t="s">
         <v>71</v>
@@ -10721,32 +7596,32 @@
       <c r="K3" s="49"/>
       <c r="L3" s="49"/>
       <c r="M3" s="49"/>
-      <c r="N3" s="83" t="s">
-        <v>452</v>
+      <c r="N3" s="76" t="s">
+        <v>447</v>
       </c>
       <c r="O3" s="49" t="s">
         <v>23</v>
       </c>
       <c r="P3" s="48" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="Q3" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="R3" s="84" t="s">
-        <v>459</v>
+      <c r="R3" s="77" t="s">
+        <v>451</v>
       </c>
       <c r="S3" s="49" t="s">
         <v>71</v>
       </c>
       <c r="T3" s="49"/>
-      <c r="U3" s="84"/>
+      <c r="U3" s="77"/>
       <c r="V3" s="49"/>
       <c r="W3" s="49" t="s">
         <v>71</v>
       </c>
-      <c r="X3" s="82" t="s">
-        <v>460</v>
+      <c r="X3" s="75" t="s">
+        <v>452</v>
       </c>
       <c r="Y3" s="48" t="s">
         <v>71</v>
@@ -10761,7 +7636,7 @@
         <v>71</v>
       </c>
       <c r="AE3" s="48" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="AF3" s="48" t="s">
         <v>53</v>
@@ -10777,14 +7652,14 @@
       </c>
       <c r="AL3" s="48"/>
       <c r="AM3" s="48" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
       <c r="AN3" s="48" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="AO3" s="48"/>
-      <c r="AP3" s="85" t="s">
-        <v>465</v>
+      <c r="AP3" s="78" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="4" spans="1:42" s="64" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -10792,7 +7667,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="48" t="s">
-        <v>692</v>
+        <v>646</v>
       </c>
       <c r="C4" s="48">
         <v>2020</v>
@@ -10800,7 +7675,7 @@
       <c r="D4" s="48" t="s">
         <v>81</v>
       </c>
-      <c r="E4" s="82" t="s">
+      <c r="E4" s="75" t="s">
         <v>82</v>
       </c>
       <c r="F4" s="49" t="s">
@@ -10819,19 +7694,19 @@
       </c>
       <c r="L4" s="49"/>
       <c r="M4" s="49"/>
-      <c r="N4" s="83" t="s">
-        <v>466</v>
+      <c r="N4" s="76" t="s">
+        <v>456</v>
       </c>
       <c r="O4" s="49" t="s">
         <v>23</v>
       </c>
       <c r="P4" s="48" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="Q4" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="77" t="s">
         <v>22</v>
       </c>
       <c r="S4" s="49" t="s">
@@ -10840,13 +7715,13 @@
       <c r="T4" s="49" t="s">
         <v>71</v>
       </c>
-      <c r="U4" s="84"/>
+      <c r="U4" s="77"/>
       <c r="V4" s="49"/>
       <c r="W4" s="49" t="s">
         <v>71</v>
       </c>
-      <c r="X4" s="82" t="s">
-        <v>468</v>
+      <c r="X4" s="75" t="s">
+        <v>458</v>
       </c>
       <c r="Y4" s="48"/>
       <c r="Z4" s="48"/>
@@ -10857,7 +7732,7 @@
       <c r="AC4" s="48"/>
       <c r="AD4" s="48"/>
       <c r="AE4" s="48" t="s">
-        <v>470</v>
+        <v>460</v>
       </c>
       <c r="AF4" s="48" t="s">
         <v>53</v>
@@ -10871,14 +7746,14 @@
       <c r="AK4" s="48"/>
       <c r="AL4" s="48"/>
       <c r="AM4" s="48" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="AN4" s="48" t="s">
-        <v>470</v>
+        <v>460</v>
       </c>
       <c r="AO4" s="48"/>
-      <c r="AP4" s="86" t="s">
-        <v>472</v>
+      <c r="AP4" s="79" t="s">
+        <v>461</v>
       </c>
     </row>
     <row r="5" spans="1:42" s="64" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -10886,7 +7761,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="48" t="s">
-        <v>693</v>
+        <v>647</v>
       </c>
       <c r="C5" s="48">
         <v>2020</v>
@@ -10894,8 +7769,8 @@
       <c r="D5" s="48" t="s">
         <v>84</v>
       </c>
-      <c r="E5" s="82" t="s">
-        <v>473</v>
+      <c r="E5" s="75" t="s">
+        <v>462</v>
       </c>
       <c r="F5" s="49" t="s">
         <v>71</v>
@@ -10915,8 +7790,8 @@
       <c r="M5" s="49" t="s">
         <v>71</v>
       </c>
-      <c r="N5" s="83" t="s">
-        <v>474</v>
+      <c r="N5" s="76" t="s">
+        <v>463</v>
       </c>
       <c r="O5" s="49" t="s">
         <v>22</v>
@@ -10925,8 +7800,8 @@
       <c r="Q5" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="R5" s="84" t="s">
-        <v>475</v>
+      <c r="R5" s="77" t="s">
+        <v>464</v>
       </c>
       <c r="S5" s="49" t="s">
         <v>71</v>
@@ -10934,13 +7809,13 @@
       <c r="T5" s="49" t="s">
         <v>71</v>
       </c>
-      <c r="U5" s="84"/>
+      <c r="U5" s="77"/>
       <c r="V5" s="49"/>
       <c r="W5" s="49" t="s">
         <v>71</v>
       </c>
-      <c r="X5" s="82" t="s">
-        <v>476</v>
+      <c r="X5" s="75" t="s">
+        <v>465</v>
       </c>
       <c r="Y5" s="48"/>
       <c r="Z5" s="48"/>
@@ -10953,7 +7828,7 @@
       <c r="AC5" s="48"/>
       <c r="AD5" s="48"/>
       <c r="AE5" s="48" t="s">
-        <v>478</v>
+        <v>466</v>
       </c>
       <c r="AF5" s="48" t="s">
         <v>53</v>
@@ -10971,14 +7846,14 @@
       <c r="AK5" s="48"/>
       <c r="AL5" s="48"/>
       <c r="AM5" s="48" t="s">
-        <v>479</v>
+        <v>467</v>
       </c>
       <c r="AN5" s="48" t="s">
-        <v>480</v>
+        <v>468</v>
       </c>
       <c r="AO5" s="48"/>
-      <c r="AP5" s="86" t="s">
-        <v>481</v>
+      <c r="AP5" s="79" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="6" spans="1:42" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -10986,7 +7861,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="48" t="s">
-        <v>694</v>
+        <v>648</v>
       </c>
       <c r="C6" s="48">
         <v>2021</v>
@@ -10994,8 +7869,8 @@
       <c r="D6" s="48" t="s">
         <v>87</v>
       </c>
-      <c r="E6" s="82" t="s">
-        <v>482</v>
+      <c r="E6" s="75" t="s">
+        <v>470</v>
       </c>
       <c r="F6" s="49" t="s">
         <v>71</v>
@@ -11007,19 +7882,19 @@
       <c r="K6" s="49"/>
       <c r="L6" s="49"/>
       <c r="M6" s="49"/>
-      <c r="N6" s="83" t="s">
-        <v>484</v>
+      <c r="N6" s="76" t="s">
+        <v>471</v>
       </c>
       <c r="O6" s="49" t="s">
         <v>23</v>
       </c>
       <c r="P6" s="48" t="s">
-        <v>485</v>
+        <v>472</v>
       </c>
       <c r="Q6" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="R6" s="84" t="s">
+      <c r="R6" s="77" t="s">
         <v>22</v>
       </c>
       <c r="S6" s="49" t="s">
@@ -11028,13 +7903,13 @@
       <c r="T6" s="49" t="s">
         <v>71</v>
       </c>
-      <c r="U6" s="84"/>
+      <c r="U6" s="77"/>
       <c r="V6" s="49"/>
       <c r="W6" s="49" t="s">
         <v>71</v>
       </c>
-      <c r="X6" s="82" t="s">
-        <v>486</v>
+      <c r="X6" s="75" t="s">
+        <v>473</v>
       </c>
       <c r="Y6" s="48" t="s">
         <v>71</v>
@@ -11051,7 +7926,7 @@
         <v>71</v>
       </c>
       <c r="AE6" s="48" t="s">
-        <v>488</v>
+        <v>474</v>
       </c>
       <c r="AF6" s="48" t="s">
         <v>48</v>
@@ -11065,14 +7940,14 @@
       <c r="AK6" s="48"/>
       <c r="AL6" s="48"/>
       <c r="AM6" s="48" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="AN6" s="48" t="s">
-        <v>489</v>
+        <v>475</v>
       </c>
       <c r="AO6" s="48"/>
-      <c r="AP6" s="86" t="s">
-        <v>490</v>
+      <c r="AP6" s="79" t="s">
+        <v>476</v>
       </c>
     </row>
     <row r="7" spans="1:42" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -11080,7 +7955,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="48" t="s">
-        <v>695</v>
+        <v>649</v>
       </c>
       <c r="C7" s="48">
         <v>2021</v>
@@ -11088,8 +7963,8 @@
       <c r="D7" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="E7" s="82" t="s">
-        <v>491</v>
+      <c r="E7" s="75" t="s">
+        <v>477</v>
       </c>
       <c r="F7" s="49" t="s">
         <v>71</v>
@@ -11101,32 +7976,32 @@
       <c r="K7" s="49"/>
       <c r="L7" s="49"/>
       <c r="M7" s="49"/>
-      <c r="N7" s="83" t="s">
-        <v>492</v>
+      <c r="N7" s="76" t="s">
+        <v>478</v>
       </c>
       <c r="O7" s="49" t="s">
         <v>23</v>
       </c>
       <c r="P7" s="48" t="s">
-        <v>493</v>
+        <v>479</v>
       </c>
       <c r="Q7" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="R7" s="84" t="s">
-        <v>494</v>
+      <c r="R7" s="77" t="s">
+        <v>480</v>
       </c>
       <c r="S7" s="49" t="s">
         <v>71</v>
       </c>
       <c r="T7" s="49"/>
-      <c r="U7" s="84"/>
+      <c r="U7" s="77"/>
       <c r="V7" s="49"/>
       <c r="W7" s="49" t="s">
         <v>71</v>
       </c>
-      <c r="X7" s="82" t="s">
-        <v>495</v>
+      <c r="X7" s="75" t="s">
+        <v>481</v>
       </c>
       <c r="Y7" s="48"/>
       <c r="Z7" s="48"/>
@@ -11137,7 +8012,7 @@
       <c r="AC7" s="48"/>
       <c r="AD7" s="48"/>
       <c r="AE7" s="48" t="s">
-        <v>496</v>
+        <v>482</v>
       </c>
       <c r="AF7" s="48" t="s">
         <v>53</v>
@@ -11157,16 +8032,16 @@
         <v>71</v>
       </c>
       <c r="AM7" s="48" t="s">
-        <v>497</v>
+        <v>483</v>
       </c>
       <c r="AN7" s="48" t="s">
-        <v>496</v>
+        <v>482</v>
       </c>
       <c r="AO7" s="48" t="s">
-        <v>696</v>
-      </c>
-      <c r="AP7" s="86" t="s">
-        <v>498</v>
+        <v>650</v>
+      </c>
+      <c r="AP7" s="79" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="8" spans="1:42" s="64" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -11174,7 +8049,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="48" t="s">
-        <v>697</v>
+        <v>651</v>
       </c>
       <c r="C8" s="48">
         <v>2020</v>
@@ -11182,8 +8057,8 @@
       <c r="D8" s="48" t="s">
         <v>107</v>
       </c>
-      <c r="E8" s="82" t="s">
-        <v>499</v>
+      <c r="E8" s="75" t="s">
+        <v>485</v>
       </c>
       <c r="F8" s="49" t="s">
         <v>71</v>
@@ -11195,32 +8070,32 @@
       <c r="K8" s="49"/>
       <c r="L8" s="49"/>
       <c r="M8" s="49"/>
-      <c r="N8" s="83" t="s">
-        <v>452</v>
+      <c r="N8" s="76" t="s">
+        <v>447</v>
       </c>
       <c r="O8" s="49" t="s">
         <v>23</v>
       </c>
       <c r="P8" s="48" t="s">
-        <v>500</v>
+        <v>486</v>
       </c>
       <c r="Q8" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="R8" s="84" t="s">
-        <v>501</v>
+      <c r="R8" s="77" t="s">
+        <v>487</v>
       </c>
       <c r="S8" s="49" t="s">
         <v>71</v>
       </c>
       <c r="T8" s="49"/>
-      <c r="U8" s="84"/>
+      <c r="U8" s="77"/>
       <c r="V8" s="49"/>
       <c r="W8" s="49" t="s">
         <v>71</v>
       </c>
-      <c r="X8" s="82" t="s">
-        <v>502</v>
+      <c r="X8" s="75" t="s">
+        <v>488</v>
       </c>
       <c r="Y8" s="48"/>
       <c r="Z8" s="48" t="s">
@@ -11235,7 +8110,7 @@
         <v>71</v>
       </c>
       <c r="AE8" s="48" t="s">
-        <v>504</v>
+        <v>489</v>
       </c>
       <c r="AF8" s="48" t="s">
         <v>53</v>
@@ -11253,14 +8128,14 @@
       <c r="AK8" s="48"/>
       <c r="AL8" s="48"/>
       <c r="AM8" s="48" t="s">
-        <v>505</v>
+        <v>490</v>
       </c>
       <c r="AN8" s="48" t="s">
-        <v>504</v>
+        <v>489</v>
       </c>
       <c r="AO8" s="48"/>
-      <c r="AP8" s="86" t="s">
-        <v>506</v>
+      <c r="AP8" s="79" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="9" spans="1:42" s="64" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -11268,7 +8143,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="48" t="s">
-        <v>698</v>
+        <v>652</v>
       </c>
       <c r="C9" s="48">
         <v>2020</v>
@@ -11276,8 +8151,8 @@
       <c r="D9" s="48" t="s">
         <v>110</v>
       </c>
-      <c r="E9" s="82" t="s">
-        <v>507</v>
+      <c r="E9" s="75" t="s">
+        <v>492</v>
       </c>
       <c r="F9" s="49" t="s">
         <v>71</v>
@@ -11293,32 +8168,32 @@
       <c r="K9" s="49"/>
       <c r="L9" s="49"/>
       <c r="M9" s="49"/>
-      <c r="N9" s="83" t="s">
-        <v>508</v>
+      <c r="N9" s="76" t="s">
+        <v>493</v>
       </c>
       <c r="O9" s="49" t="s">
         <v>23</v>
       </c>
       <c r="P9" s="48" t="s">
-        <v>509</v>
+        <v>494</v>
       </c>
       <c r="Q9" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="R9" s="84" t="s">
-        <v>510</v>
+      <c r="R9" s="77" t="s">
+        <v>495</v>
       </c>
       <c r="S9" s="49" t="s">
         <v>71</v>
       </c>
       <c r="T9" s="49"/>
-      <c r="U9" s="84"/>
+      <c r="U9" s="77"/>
       <c r="V9" s="49"/>
       <c r="W9" s="49" t="s">
         <v>71</v>
       </c>
-      <c r="X9" s="82" t="s">
-        <v>511</v>
+      <c r="X9" s="75" t="s">
+        <v>496</v>
       </c>
       <c r="Y9" s="48"/>
       <c r="Z9" s="48" t="s">
@@ -11331,7 +8206,7 @@
       <c r="AC9" s="48"/>
       <c r="AD9" s="48"/>
       <c r="AE9" s="48" t="s">
-        <v>513</v>
+        <v>497</v>
       </c>
       <c r="AF9" s="48" t="s">
         <v>53</v>
@@ -11345,16 +8220,16 @@
       <c r="AK9" s="48"/>
       <c r="AL9" s="48"/>
       <c r="AM9" s="48" t="s">
-        <v>514</v>
+        <v>498</v>
       </c>
       <c r="AN9" s="48" t="s">
-        <v>513</v>
+        <v>497</v>
       </c>
       <c r="AO9" s="48" t="s">
-        <v>699</v>
-      </c>
-      <c r="AP9" s="86" t="s">
-        <v>515</v>
+        <v>653</v>
+      </c>
+      <c r="AP9" s="79" t="s">
+        <v>499</v>
       </c>
     </row>
     <row r="10" spans="1:42" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -11362,7 +8237,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="48" t="s">
-        <v>700</v>
+        <v>654</v>
       </c>
       <c r="C10" s="48">
         <v>2019</v>
@@ -11370,8 +8245,8 @@
       <c r="D10" s="48" t="s">
         <v>124</v>
       </c>
-      <c r="E10" s="82" t="s">
-        <v>516</v>
+      <c r="E10" s="75" t="s">
+        <v>500</v>
       </c>
       <c r="F10" s="49"/>
       <c r="G10" s="49"/>
@@ -11383,32 +8258,32 @@
       <c r="K10" s="49"/>
       <c r="L10" s="49"/>
       <c r="M10" s="49"/>
-      <c r="N10" s="123" t="s">
-        <v>517</v>
+      <c r="N10" s="109" t="s">
+        <v>501</v>
       </c>
       <c r="O10" s="49" t="s">
         <v>22</v>
       </c>
       <c r="P10" s="48" t="s">
-        <v>518</v>
+        <v>502</v>
       </c>
       <c r="Q10" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="R10" s="84" t="s">
-        <v>519</v>
+      <c r="R10" s="77" t="s">
+        <v>503</v>
       </c>
       <c r="S10" s="49" t="s">
-        <v>520</v>
+        <v>504</v>
       </c>
       <c r="T10" s="49"/>
-      <c r="U10" s="84"/>
+      <c r="U10" s="77"/>
       <c r="V10" s="49" t="s">
         <v>71</v>
       </c>
       <c r="W10" s="49"/>
-      <c r="X10" s="82" t="s">
-        <v>521</v>
+      <c r="X10" s="75" t="s">
+        <v>505</v>
       </c>
       <c r="Y10" s="48"/>
       <c r="Z10" s="48" t="s">
@@ -11423,7 +8298,7 @@
       </c>
       <c r="AD10" s="48"/>
       <c r="AE10" s="48" t="s">
-        <v>523</v>
+        <v>506</v>
       </c>
       <c r="AF10" s="48" t="s">
         <v>53</v>
@@ -11437,14 +8312,14 @@
       <c r="AK10" s="48"/>
       <c r="AL10" s="48"/>
       <c r="AM10" s="48" t="s">
-        <v>514</v>
+        <v>498</v>
       </c>
       <c r="AN10" s="48" t="s">
-        <v>524</v>
+        <v>507</v>
       </c>
       <c r="AO10" s="48"/>
-      <c r="AP10" s="86" t="s">
-        <v>525</v>
+      <c r="AP10" s="79" t="s">
+        <v>508</v>
       </c>
     </row>
     <row r="11" spans="1:42" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -11452,7 +8327,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="48" t="s">
-        <v>701</v>
+        <v>655</v>
       </c>
       <c r="C11" s="48">
         <v>2021</v>
@@ -11460,8 +8335,8 @@
       <c r="D11" s="48" t="s">
         <v>127</v>
       </c>
-      <c r="E11" s="82" t="s">
-        <v>526</v>
+      <c r="E11" s="75" t="s">
+        <v>509</v>
       </c>
       <c r="F11" s="49"/>
       <c r="G11" s="49"/>
@@ -11473,32 +8348,32 @@
       </c>
       <c r="L11" s="49"/>
       <c r="M11" s="49"/>
-      <c r="N11" s="83" t="s">
-        <v>527</v>
+      <c r="N11" s="76" t="s">
+        <v>510</v>
       </c>
       <c r="O11" s="49" t="s">
         <v>23</v>
       </c>
       <c r="P11" s="48" t="s">
-        <v>528</v>
+        <v>511</v>
       </c>
       <c r="Q11" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="R11" s="84" t="s">
-        <v>529</v>
+      <c r="R11" s="77" t="s">
+        <v>512</v>
       </c>
       <c r="S11" s="49" t="s">
         <v>71</v>
       </c>
       <c r="T11" s="49"/>
-      <c r="U11" s="84"/>
+      <c r="U11" s="77"/>
       <c r="V11" s="49"/>
       <c r="W11" s="49" t="s">
         <v>71</v>
       </c>
-      <c r="X11" s="82" t="s">
-        <v>530</v>
+      <c r="X11" s="75" t="s">
+        <v>513</v>
       </c>
       <c r="Y11" s="48"/>
       <c r="Z11" s="48" t="s">
@@ -11511,7 +8386,7 @@
       <c r="AC11" s="48"/>
       <c r="AD11" s="48"/>
       <c r="AE11" s="48" t="s">
-        <v>531</v>
+        <v>514</v>
       </c>
       <c r="AF11" s="48" t="s">
         <v>53</v>
@@ -11525,16 +8400,16 @@
       <c r="AK11" s="48"/>
       <c r="AL11" s="48"/>
       <c r="AM11" s="48" t="s">
-        <v>514</v>
+        <v>498</v>
       </c>
       <c r="AN11" s="48" t="s">
-        <v>532</v>
+        <v>515</v>
       </c>
       <c r="AO11" s="48" t="s">
-        <v>702</v>
-      </c>
-      <c r="AP11" s="86" t="s">
-        <v>533</v>
+        <v>656</v>
+      </c>
+      <c r="AP11" s="79" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="12" spans="1:42" s="64" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -11542,7 +8417,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="48" t="s">
-        <v>703</v>
+        <v>657</v>
       </c>
       <c r="C12" s="48">
         <v>2023</v>
@@ -11550,8 +8425,8 @@
       <c r="D12" s="48" t="s">
         <v>138</v>
       </c>
-      <c r="E12" s="82" t="s">
-        <v>534</v>
+      <c r="E12" s="75" t="s">
+        <v>517</v>
       </c>
       <c r="F12" s="49"/>
       <c r="G12" s="49"/>
@@ -11563,19 +8438,19 @@
       <c r="K12" s="49"/>
       <c r="L12" s="49"/>
       <c r="M12" s="49"/>
-      <c r="N12" s="83" t="s">
-        <v>535</v>
+      <c r="N12" s="76" t="s">
+        <v>518</v>
       </c>
       <c r="O12" s="49" t="s">
         <v>22</v>
       </c>
       <c r="P12" s="48" t="s">
-        <v>536</v>
+        <v>519</v>
       </c>
       <c r="Q12" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="R12" s="84" t="s">
+      <c r="R12" s="77" t="s">
         <v>22</v>
       </c>
       <c r="S12" s="49" t="s">
@@ -11584,13 +8459,13 @@
       <c r="T12" s="49" t="s">
         <v>71</v>
       </c>
-      <c r="U12" s="84"/>
+      <c r="U12" s="77"/>
       <c r="V12" s="49"/>
       <c r="W12" s="49" t="s">
         <v>71</v>
       </c>
-      <c r="X12" s="82" t="s">
-        <v>537</v>
+      <c r="X12" s="75" t="s">
+        <v>520</v>
       </c>
       <c r="Y12" s="48"/>
       <c r="Z12" s="48"/>
@@ -11603,7 +8478,7 @@
         <v>71</v>
       </c>
       <c r="AE12" s="48" t="s">
-        <v>539</v>
+        <v>521</v>
       </c>
       <c r="AF12" s="48" t="s">
         <v>48</v>
@@ -11619,10 +8494,10 @@
         <v>71</v>
       </c>
       <c r="AM12" s="48" t="s">
-        <v>540</v>
+        <v>522</v>
       </c>
       <c r="AN12" s="48" t="s">
-        <v>541</v>
+        <v>523</v>
       </c>
       <c r="AO12" s="48"/>
       <c r="AP12" s="48"/>
@@ -11632,7 +8507,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="48" t="s">
-        <v>704</v>
+        <v>658</v>
       </c>
       <c r="C13" s="48">
         <v>2021</v>
@@ -11640,8 +8515,8 @@
       <c r="D13" s="48" t="s">
         <v>145</v>
       </c>
-      <c r="E13" s="82" t="s">
-        <v>542</v>
+      <c r="E13" s="75" t="s">
+        <v>524</v>
       </c>
       <c r="F13" s="49" t="s">
         <v>71</v>
@@ -11653,32 +8528,32 @@
       <c r="K13" s="49"/>
       <c r="L13" s="49"/>
       <c r="M13" s="49"/>
-      <c r="N13" s="83" t="s">
-        <v>452</v>
+      <c r="N13" s="76" t="s">
+        <v>447</v>
       </c>
       <c r="O13" s="49" t="s">
         <v>22</v>
       </c>
       <c r="P13" s="48" t="s">
-        <v>518</v>
+        <v>502</v>
       </c>
       <c r="Q13" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="R13" s="84" t="s">
+      <c r="R13" s="77" t="s">
         <v>22</v>
       </c>
       <c r="S13" s="49" t="s">
         <v>71</v>
       </c>
       <c r="T13" s="49"/>
-      <c r="U13" s="84"/>
+      <c r="U13" s="77"/>
       <c r="V13" s="49" t="s">
         <v>71</v>
       </c>
       <c r="W13" s="49"/>
-      <c r="X13" s="82" t="s">
-        <v>543</v>
+      <c r="X13" s="75" t="s">
+        <v>525</v>
       </c>
       <c r="Y13" s="48"/>
       <c r="Z13" s="48" t="s">
@@ -11691,7 +8566,7 @@
       <c r="AC13" s="48"/>
       <c r="AD13" s="48"/>
       <c r="AE13" s="48" t="s">
-        <v>545</v>
+        <v>526</v>
       </c>
       <c r="AF13" s="48" t="s">
         <v>48</v>
@@ -11705,14 +8580,14 @@
       <c r="AK13" s="48"/>
       <c r="AL13" s="48"/>
       <c r="AM13" s="48" t="s">
-        <v>546</v>
+        <v>527</v>
       </c>
       <c r="AN13" s="48" t="s">
-        <v>545</v>
+        <v>526</v>
       </c>
       <c r="AO13" s="48"/>
-      <c r="AP13" s="86" t="s">
-        <v>547</v>
+      <c r="AP13" s="79" t="s">
+        <v>528</v>
       </c>
     </row>
     <row r="14" spans="1:42" s="64" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -11720,7 +8595,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="48" t="s">
-        <v>705</v>
+        <v>659</v>
       </c>
       <c r="C14" s="48">
         <v>2020</v>
@@ -11728,8 +8603,8 @@
       <c r="D14" s="48" t="s">
         <v>164</v>
       </c>
-      <c r="E14" s="82" t="s">
-        <v>548</v>
+      <c r="E14" s="75" t="s">
+        <v>529</v>
       </c>
       <c r="F14" s="49"/>
       <c r="G14" s="49"/>
@@ -11741,32 +8616,32 @@
       </c>
       <c r="L14" s="49"/>
       <c r="M14" s="49"/>
-      <c r="N14" s="83" t="s">
-        <v>549</v>
+      <c r="N14" s="76" t="s">
+        <v>530</v>
       </c>
       <c r="O14" s="49" t="s">
         <v>23</v>
       </c>
       <c r="P14" s="48" t="s">
-        <v>550</v>
+        <v>531</v>
       </c>
       <c r="Q14" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="R14" s="84" t="s">
+      <c r="R14" s="77" t="s">
         <v>22</v>
       </c>
       <c r="S14" s="49" t="s">
         <v>71</v>
       </c>
       <c r="T14" s="49"/>
-      <c r="U14" s="84"/>
+      <c r="U14" s="77"/>
       <c r="V14" s="49"/>
       <c r="W14" s="49" t="s">
         <v>71</v>
       </c>
-      <c r="X14" s="82" t="s">
-        <v>551</v>
+      <c r="X14" s="75" t="s">
+        <v>532</v>
       </c>
       <c r="Y14" s="48"/>
       <c r="Z14" s="48" t="s">
@@ -11777,7 +8652,7 @@
       <c r="AC14" s="48"/>
       <c r="AD14" s="48"/>
       <c r="AE14" s="48" t="s">
-        <v>553</v>
+        <v>533</v>
       </c>
       <c r="AF14" s="48" t="s">
         <v>53</v>
@@ -11791,16 +8666,16 @@
       <c r="AK14" s="48"/>
       <c r="AL14" s="48"/>
       <c r="AM14" s="48" t="s">
-        <v>514</v>
+        <v>498</v>
       </c>
       <c r="AN14" s="48" t="s">
-        <v>554</v>
+        <v>534</v>
       </c>
       <c r="AO14" s="48" t="s">
-        <v>706</v>
-      </c>
-      <c r="AP14" s="86" t="s">
-        <v>555</v>
+        <v>660</v>
+      </c>
+      <c r="AP14" s="79" t="s">
+        <v>535</v>
       </c>
     </row>
     <row r="15" spans="1:42" s="64" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -11808,7 +8683,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="48" t="s">
-        <v>707</v>
+        <v>661</v>
       </c>
       <c r="C15" s="48">
         <v>2022</v>
@@ -11816,8 +8691,8 @@
       <c r="D15" s="48" t="s">
         <v>167</v>
       </c>
-      <c r="E15" s="82" t="s">
-        <v>556</v>
+      <c r="E15" s="75" t="s">
+        <v>536</v>
       </c>
       <c r="F15" s="49"/>
       <c r="G15" s="49" t="s">
@@ -11831,32 +8706,32 @@
       <c r="K15" s="49"/>
       <c r="L15" s="49"/>
       <c r="M15" s="49"/>
-      <c r="N15" s="83" t="s">
-        <v>557</v>
+      <c r="N15" s="76" t="s">
+        <v>537</v>
       </c>
       <c r="O15" s="49" t="s">
         <v>22</v>
       </c>
       <c r="P15" s="48" t="s">
-        <v>518</v>
+        <v>502</v>
       </c>
       <c r="Q15" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="R15" s="84" t="s">
-        <v>558</v>
+      <c r="R15" s="77" t="s">
+        <v>538</v>
       </c>
       <c r="S15" s="49" t="s">
         <v>71</v>
       </c>
       <c r="T15" s="49"/>
-      <c r="U15" s="84"/>
+      <c r="U15" s="77"/>
       <c r="V15" s="49"/>
       <c r="W15" s="49" t="s">
         <v>71</v>
       </c>
-      <c r="X15" s="82" t="s">
-        <v>559</v>
+      <c r="X15" s="75" t="s">
+        <v>539</v>
       </c>
       <c r="Y15" s="48" t="s">
         <v>71</v>
@@ -11869,7 +8744,7 @@
         <v>71</v>
       </c>
       <c r="AE15" s="48" t="s">
-        <v>561</v>
+        <v>540</v>
       </c>
       <c r="AF15" s="48" t="s">
         <v>53</v>
@@ -11885,16 +8760,16 @@
       </c>
       <c r="AL15" s="48"/>
       <c r="AM15" s="48" t="s">
-        <v>562</v>
+        <v>541</v>
       </c>
       <c r="AN15" s="48" t="s">
-        <v>561</v>
+        <v>540</v>
       </c>
       <c r="AO15" s="48" t="s">
-        <v>708</v>
-      </c>
-      <c r="AP15" s="86" t="s">
-        <v>563</v>
+        <v>662</v>
+      </c>
+      <c r="AP15" s="79" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="16" spans="1:42" s="64" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -11902,7 +8777,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="48" t="s">
-        <v>709</v>
+        <v>663</v>
       </c>
       <c r="C16" s="48">
         <v>2023</v>
@@ -11910,8 +8785,8 @@
       <c r="D16" s="48" t="s">
         <v>170</v>
       </c>
-      <c r="E16" s="82" t="s">
-        <v>564</v>
+      <c r="E16" s="75" t="s">
+        <v>543</v>
       </c>
       <c r="F16" s="49"/>
       <c r="G16" s="49"/>
@@ -11921,32 +8796,32 @@
       <c r="K16" s="49"/>
       <c r="L16" s="49"/>
       <c r="M16" s="49"/>
-      <c r="N16" s="83" t="s">
-        <v>565</v>
+      <c r="N16" s="76" t="s">
+        <v>544</v>
       </c>
       <c r="O16" s="49" t="s">
         <v>22</v>
       </c>
       <c r="P16" s="48" t="s">
-        <v>518</v>
+        <v>502</v>
       </c>
       <c r="Q16" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="R16" s="84" t="s">
-        <v>566</v>
+      <c r="R16" s="77" t="s">
+        <v>545</v>
       </c>
       <c r="S16" s="49" t="s">
         <v>71</v>
       </c>
       <c r="T16" s="49"/>
-      <c r="U16" s="84"/>
+      <c r="U16" s="77"/>
       <c r="V16" s="49" t="s">
         <v>71</v>
       </c>
       <c r="W16" s="49"/>
-      <c r="X16" s="82" t="s">
-        <v>567</v>
+      <c r="X16" s="75" t="s">
+        <v>546</v>
       </c>
       <c r="Y16" s="48"/>
       <c r="Z16" s="48" t="s">
@@ -11958,10 +8833,10 @@
       <c r="AB16" s="48"/>
       <c r="AC16" s="48"/>
       <c r="AD16" s="48" t="s">
-        <v>710</v>
+        <v>664</v>
       </c>
       <c r="AE16" s="48" t="s">
-        <v>569</v>
+        <v>547</v>
       </c>
       <c r="AF16" s="48" t="s">
         <v>53</v>
@@ -11975,16 +8850,16 @@
       <c r="AK16" s="48"/>
       <c r="AL16" s="48"/>
       <c r="AM16" s="48" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="AN16" s="48" t="s">
-        <v>570</v>
+        <v>548</v>
       </c>
       <c r="AO16" s="48" t="s">
-        <v>711</v>
-      </c>
-      <c r="AP16" s="86" t="s">
-        <v>571</v>
+        <v>665</v>
+      </c>
+      <c r="AP16" s="79" t="s">
+        <v>549</v>
       </c>
     </row>
     <row r="17" spans="1:42" s="64" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -11992,7 +8867,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="48" t="s">
-        <v>712</v>
+        <v>666</v>
       </c>
       <c r="C17" s="48">
         <v>2019</v>
@@ -12000,8 +8875,8 @@
       <c r="D17" s="48" t="s">
         <v>179</v>
       </c>
-      <c r="E17" s="82" t="s">
-        <v>572</v>
+      <c r="E17" s="75" t="s">
+        <v>550</v>
       </c>
       <c r="F17" s="49"/>
       <c r="G17" s="49"/>
@@ -12015,32 +8890,32 @@
         <v>71</v>
       </c>
       <c r="M17" s="49"/>
-      <c r="N17" s="83" t="s">
-        <v>573</v>
+      <c r="N17" s="76" t="s">
+        <v>551</v>
       </c>
       <c r="O17" s="49" t="s">
         <v>23</v>
       </c>
       <c r="P17" s="48" t="s">
-        <v>574</v>
+        <v>552</v>
       </c>
       <c r="Q17" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="R17" s="84" t="s">
+      <c r="R17" s="77" t="s">
         <v>22</v>
       </c>
       <c r="S17" s="49" t="s">
         <v>71</v>
       </c>
       <c r="T17" s="49"/>
-      <c r="U17" s="84"/>
+      <c r="U17" s="77"/>
       <c r="V17" s="49" t="s">
         <v>71</v>
       </c>
       <c r="W17" s="49"/>
-      <c r="X17" s="82" t="s">
-        <v>575</v>
+      <c r="X17" s="75" t="s">
+        <v>553</v>
       </c>
       <c r="Y17" s="48"/>
       <c r="Z17" s="48" t="s">
@@ -12055,7 +8930,7 @@
         <v>71</v>
       </c>
       <c r="AE17" s="48" t="s">
-        <v>577</v>
+        <v>554</v>
       </c>
       <c r="AF17" s="48" t="s">
         <v>52</v>
@@ -12071,16 +8946,16 @@
         <v>71</v>
       </c>
       <c r="AM17" s="48" t="s">
-        <v>540</v>
+        <v>522</v>
       </c>
       <c r="AN17" s="48" t="s">
-        <v>578</v>
+        <v>555</v>
       </c>
       <c r="AO17" s="48" t="s">
-        <v>713</v>
-      </c>
-      <c r="AP17" s="86" t="s">
-        <v>579</v>
+        <v>667</v>
+      </c>
+      <c r="AP17" s="79" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="18" spans="1:42" s="64" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -12088,7 +8963,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="48" t="s">
-        <v>714</v>
+        <v>668</v>
       </c>
       <c r="C18" s="48">
         <v>2022</v>
@@ -12096,8 +8971,8 @@
       <c r="D18" s="48" t="s">
         <v>197</v>
       </c>
-      <c r="E18" s="82" t="s">
-        <v>580</v>
+      <c r="E18" s="75" t="s">
+        <v>557</v>
       </c>
       <c r="F18" s="49" t="s">
         <v>71</v>
@@ -12109,32 +8984,32 @@
       <c r="K18" s="49"/>
       <c r="L18" s="49"/>
       <c r="M18" s="49"/>
-      <c r="N18" s="83" t="s">
-        <v>452</v>
+      <c r="N18" s="76" t="s">
+        <v>447</v>
       </c>
       <c r="O18" s="49" t="s">
         <v>23</v>
       </c>
       <c r="P18" s="48" t="s">
-        <v>581</v>
+        <v>558</v>
       </c>
       <c r="Q18" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="R18" s="84" t="s">
-        <v>582</v>
+      <c r="R18" s="77" t="s">
+        <v>559</v>
       </c>
       <c r="S18" s="49" t="s">
         <v>71</v>
       </c>
       <c r="T18" s="49"/>
-      <c r="U18" s="84"/>
+      <c r="U18" s="77"/>
       <c r="V18" s="49"/>
       <c r="W18" s="49" t="s">
         <v>71</v>
       </c>
-      <c r="X18" s="82" t="s">
-        <v>583</v>
+      <c r="X18" s="75" t="s">
+        <v>560</v>
       </c>
       <c r="Y18" s="48"/>
       <c r="Z18" s="48"/>
@@ -12145,7 +9020,7 @@
       <c r="AC18" s="48"/>
       <c r="AD18" s="48"/>
       <c r="AE18" s="48" t="s">
-        <v>585</v>
+        <v>561</v>
       </c>
       <c r="AF18" s="48" t="s">
         <v>48</v>
@@ -12159,16 +9034,16 @@
       <c r="AK18" s="48"/>
       <c r="AL18" s="48"/>
       <c r="AM18" s="48" t="s">
-        <v>514</v>
+        <v>498</v>
       </c>
       <c r="AN18" s="48" t="s">
-        <v>586</v>
+        <v>562</v>
       </c>
       <c r="AO18" s="48" t="s">
-        <v>715</v>
-      </c>
-      <c r="AP18" s="86" t="s">
-        <v>587</v>
+        <v>669</v>
+      </c>
+      <c r="AP18" s="79" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="19" spans="1:42" s="64" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -12176,7 +9051,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="48" t="s">
-        <v>716</v>
+        <v>670</v>
       </c>
       <c r="C19" s="48">
         <v>2020</v>
@@ -12184,8 +9059,8 @@
       <c r="D19" s="48" t="s">
         <v>206</v>
       </c>
-      <c r="E19" s="82" t="s">
-        <v>600</v>
+      <c r="E19" s="75" t="s">
+        <v>564</v>
       </c>
       <c r="F19" s="49"/>
       <c r="G19" s="49"/>
@@ -12197,32 +9072,32 @@
       <c r="K19" s="49"/>
       <c r="L19" s="49"/>
       <c r="M19" s="49"/>
-      <c r="N19" s="123" t="s">
-        <v>601</v>
+      <c r="N19" s="109" t="s">
+        <v>565</v>
       </c>
       <c r="O19" s="49" t="s">
         <v>22</v>
       </c>
       <c r="P19" s="48" t="s">
-        <v>518</v>
+        <v>502</v>
       </c>
       <c r="Q19" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="R19" s="84" t="s">
-        <v>602</v>
+      <c r="R19" s="77" t="s">
+        <v>566</v>
       </c>
       <c r="S19" s="49" t="s">
         <v>71</v>
       </c>
       <c r="T19" s="49"/>
-      <c r="U19" s="84"/>
+      <c r="U19" s="77"/>
       <c r="V19" s="49" t="s">
         <v>71</v>
       </c>
       <c r="W19" s="49"/>
-      <c r="X19" s="82" t="s">
-        <v>603</v>
+      <c r="X19" s="75" t="s">
+        <v>567</v>
       </c>
       <c r="Y19" s="48"/>
       <c r="Z19" s="48"/>
@@ -12233,7 +9108,7 @@
       </c>
       <c r="AD19" s="48"/>
       <c r="AE19" s="48" t="s">
-        <v>605</v>
+        <v>568</v>
       </c>
       <c r="AF19" s="48" t="s">
         <v>53</v>
@@ -12247,16 +9122,16 @@
       <c r="AK19" s="48"/>
       <c r="AL19" s="48"/>
       <c r="AM19" s="48" t="s">
-        <v>514</v>
+        <v>498</v>
       </c>
       <c r="AN19" s="48" t="s">
-        <v>606</v>
+        <v>569</v>
       </c>
       <c r="AO19" s="48" t="s">
-        <v>717</v>
-      </c>
-      <c r="AP19" s="86" t="s">
-        <v>607</v>
+        <v>671</v>
+      </c>
+      <c r="AP19" s="79" t="s">
+        <v>570</v>
       </c>
     </row>
     <row r="20" spans="1:42" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -12264,7 +9139,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="48" t="s">
-        <v>718</v>
+        <v>672</v>
       </c>
       <c r="C20" s="48">
         <v>2020</v>
@@ -12272,8 +9147,8 @@
       <c r="D20" s="48" t="s">
         <v>209</v>
       </c>
-      <c r="E20" s="82" t="s">
-        <v>608</v>
+      <c r="E20" s="75" t="s">
+        <v>571</v>
       </c>
       <c r="F20" s="49"/>
       <c r="G20" s="49"/>
@@ -12289,19 +9164,19 @@
         <v>71</v>
       </c>
       <c r="M20" s="49"/>
-      <c r="N20" s="83" t="s">
-        <v>609</v>
+      <c r="N20" s="76" t="s">
+        <v>572</v>
       </c>
       <c r="O20" s="49" t="s">
         <v>23</v>
       </c>
       <c r="P20" s="48" t="s">
-        <v>610</v>
+        <v>573</v>
       </c>
       <c r="Q20" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="R20" s="84" t="s">
+      <c r="R20" s="77" t="s">
         <v>22</v>
       </c>
       <c r="S20" s="49" t="s">
@@ -12310,13 +9185,13 @@
       <c r="T20" s="49" t="s">
         <v>71</v>
       </c>
-      <c r="U20" s="84"/>
+      <c r="U20" s="77"/>
       <c r="V20" s="49"/>
       <c r="W20" s="49" t="s">
         <v>71</v>
       </c>
-      <c r="X20" s="82" t="s">
-        <v>611</v>
+      <c r="X20" s="75" t="s">
+        <v>574</v>
       </c>
       <c r="Y20" s="48"/>
       <c r="Z20" s="48" t="s">
@@ -12329,7 +9204,7 @@
       <c r="AC20" s="48"/>
       <c r="AD20" s="48"/>
       <c r="AE20" s="48" t="s">
-        <v>612</v>
+        <v>575</v>
       </c>
       <c r="AF20" s="48" t="s">
         <v>53</v>
@@ -12343,14 +9218,14 @@
       <c r="AK20" s="48"/>
       <c r="AL20" s="48"/>
       <c r="AM20" s="48" t="s">
-        <v>613</v>
+        <v>576</v>
       </c>
       <c r="AN20" s="48" t="s">
-        <v>614</v>
+        <v>577</v>
       </c>
       <c r="AO20" s="48"/>
-      <c r="AP20" s="86" t="s">
-        <v>615</v>
+      <c r="AP20" s="79" t="s">
+        <v>578</v>
       </c>
     </row>
     <row r="21" spans="1:42" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -12358,7 +9233,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="48" t="s">
-        <v>719</v>
+        <v>673</v>
       </c>
       <c r="C21" s="48">
         <v>2023</v>
@@ -12366,8 +9241,8 @@
       <c r="D21" s="48" t="s">
         <v>214</v>
       </c>
-      <c r="E21" s="82" t="s">
-        <v>616</v>
+      <c r="E21" s="75" t="s">
+        <v>579</v>
       </c>
       <c r="F21" s="49" t="s">
         <v>71</v>
@@ -12381,20 +9256,20 @@
       <c r="K21" s="49"/>
       <c r="L21" s="49"/>
       <c r="M21" s="49"/>
-      <c r="N21" s="83" t="s">
-        <v>617</v>
+      <c r="N21" s="76" t="s">
+        <v>580</v>
       </c>
       <c r="O21" s="49" t="s">
         <v>22</v>
       </c>
       <c r="P21" s="48" t="s">
-        <v>518</v>
+        <v>502</v>
       </c>
       <c r="Q21" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="R21" s="84" t="s">
-        <v>618</v>
+      <c r="R21" s="77" t="s">
+        <v>581</v>
       </c>
       <c r="S21" s="49" t="s">
         <v>71</v>
@@ -12402,13 +9277,13 @@
       <c r="T21" s="49" t="s">
         <v>71</v>
       </c>
-      <c r="U21" s="84"/>
+      <c r="U21" s="77"/>
       <c r="V21" s="49" t="s">
         <v>71</v>
       </c>
       <c r="W21" s="49"/>
-      <c r="X21" s="82" t="s">
-        <v>619</v>
+      <c r="X21" s="75" t="s">
+        <v>582</v>
       </c>
       <c r="Y21" s="48"/>
       <c r="Z21" s="48"/>
@@ -12419,7 +9294,7 @@
       <c r="AC21" s="48"/>
       <c r="AD21" s="48"/>
       <c r="AE21" s="48" t="s">
-        <v>621</v>
+        <v>583</v>
       </c>
       <c r="AF21" s="48" t="s">
         <v>53</v>
@@ -12435,22 +9310,22 @@
         <v>71</v>
       </c>
       <c r="AM21" s="48" t="s">
-        <v>622</v>
+        <v>584</v>
       </c>
       <c r="AN21" s="48" t="s">
-        <v>623</v>
+        <v>585</v>
       </c>
       <c r="AO21" s="48"/>
-      <c r="AP21" s="86" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="22" spans="1:42" s="97" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AP21" s="79" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="22" spans="1:42" s="83" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="48">
         <v>20</v>
       </c>
       <c r="B22" s="48" t="s">
-        <v>720</v>
+        <v>674</v>
       </c>
       <c r="C22" s="48">
         <v>2021</v>
@@ -12458,8 +9333,8 @@
       <c r="D22" s="48" t="s">
         <v>217</v>
       </c>
-      <c r="E22" s="82" t="s">
-        <v>625</v>
+      <c r="E22" s="75" t="s">
+        <v>587</v>
       </c>
       <c r="F22" s="49"/>
       <c r="G22" s="49"/>
@@ -12471,76 +9346,76 @@
       <c r="K22" s="49"/>
       <c r="L22" s="49"/>
       <c r="M22" s="49"/>
-      <c r="N22" s="94" t="s">
-        <v>626</v>
+      <c r="N22" s="80" t="s">
+        <v>588</v>
       </c>
       <c r="O22" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="P22" s="95" t="s">
-        <v>627</v>
+      <c r="P22" s="81" t="s">
+        <v>589</v>
       </c>
       <c r="Q22" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="R22" s="84" t="s">
-        <v>628</v>
+      <c r="R22" s="77" t="s">
+        <v>590</v>
       </c>
       <c r="S22" s="49"/>
       <c r="T22" s="49" t="s">
         <v>71</v>
       </c>
-      <c r="U22" s="84"/>
+      <c r="U22" s="77"/>
       <c r="V22" s="49"/>
       <c r="W22" s="49" t="s">
         <v>71</v>
       </c>
-      <c r="X22" s="96" t="s">
-        <v>630</v>
-      </c>
-      <c r="Y22" s="95"/>
-      <c r="Z22" s="95"/>
-      <c r="AA22" s="95"/>
-      <c r="AB22" s="95" t="s">
-        <v>71</v>
-      </c>
-      <c r="AC22" s="95" t="s">
-        <v>71</v>
-      </c>
-      <c r="AD22" s="95"/>
-      <c r="AE22" s="95" t="s">
-        <v>632</v>
+      <c r="X22" s="82" t="s">
+        <v>591</v>
+      </c>
+      <c r="Y22" s="81"/>
+      <c r="Z22" s="81"/>
+      <c r="AA22" s="81"/>
+      <c r="AB22" s="81" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC22" s="81" t="s">
+        <v>71</v>
+      </c>
+      <c r="AD22" s="81"/>
+      <c r="AE22" s="81" t="s">
+        <v>592</v>
       </c>
       <c r="AF22" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="AG22" s="95"/>
-      <c r="AH22" s="95"/>
-      <c r="AI22" s="95" t="s">
-        <v>71</v>
-      </c>
-      <c r="AJ22" s="95"/>
-      <c r="AK22" s="95"/>
-      <c r="AL22" s="95"/>
+      <c r="AG22" s="81"/>
+      <c r="AH22" s="81"/>
+      <c r="AI22" s="81" t="s">
+        <v>71</v>
+      </c>
+      <c r="AJ22" s="81"/>
+      <c r="AK22" s="81"/>
+      <c r="AL22" s="81"/>
       <c r="AM22" s="48" t="s">
-        <v>443</v>
-      </c>
-      <c r="AN22" s="95" t="s">
-        <v>633</v>
+        <v>441</v>
+      </c>
+      <c r="AN22" s="81" t="s">
+        <v>593</v>
       </c>
       <c r="AO22" s="48" t="s">
-        <v>721</v>
-      </c>
-      <c r="AP22" s="86" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="23" spans="1:42" s="97" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>675</v>
+      </c>
+      <c r="AP22" s="79" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="23" spans="1:42" s="83" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="48">
         <v>21</v>
       </c>
       <c r="B23" s="48" t="s">
-        <v>722</v>
+        <v>676</v>
       </c>
       <c r="C23" s="48">
         <v>2020</v>
@@ -12548,8 +9423,8 @@
       <c r="D23" s="48" t="s">
         <v>231</v>
       </c>
-      <c r="E23" s="96" t="s">
-        <v>635</v>
+      <c r="E23" s="82" t="s">
+        <v>595</v>
       </c>
       <c r="F23" s="49" t="s">
         <v>71</v>
@@ -12567,19 +9442,19 @@
       <c r="M23" s="49" t="s">
         <v>71</v>
       </c>
-      <c r="N23" s="94" t="s">
-        <v>636</v>
+      <c r="N23" s="80" t="s">
+        <v>596</v>
       </c>
       <c r="O23" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="P23" s="95" t="s">
-        <v>637</v>
+      <c r="P23" s="81" t="s">
+        <v>597</v>
       </c>
       <c r="Q23" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="R23" s="84" t="s">
+      <c r="R23" s="77" t="s">
         <v>22</v>
       </c>
       <c r="S23" s="49" t="s">
@@ -12588,61 +9463,61 @@
       <c r="T23" s="49" t="s">
         <v>71</v>
       </c>
-      <c r="U23" s="84"/>
+      <c r="U23" s="77"/>
       <c r="V23" s="49"/>
       <c r="W23" s="49" t="s">
         <v>71</v>
       </c>
-      <c r="X23" s="96" t="s">
-        <v>638</v>
-      </c>
-      <c r="Y23" s="95"/>
-      <c r="Z23" s="95" t="s">
-        <v>71</v>
-      </c>
-      <c r="AA23" s="95" t="s">
-        <v>71</v>
-      </c>
-      <c r="AB23" s="95" t="s">
-        <v>71</v>
-      </c>
-      <c r="AC23" s="95"/>
-      <c r="AD23" s="95"/>
-      <c r="AE23" s="95" t="s">
-        <v>640</v>
-      </c>
-      <c r="AF23" s="95" t="s">
+      <c r="X23" s="82" t="s">
+        <v>598</v>
+      </c>
+      <c r="Y23" s="81"/>
+      <c r="Z23" s="81" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA23" s="81" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB23" s="81" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC23" s="81"/>
+      <c r="AD23" s="81"/>
+      <c r="AE23" s="81" t="s">
+        <v>599</v>
+      </c>
+      <c r="AF23" s="81" t="s">
         <v>48</v>
       </c>
-      <c r="AG23" s="95"/>
-      <c r="AH23" s="95" t="s">
-        <v>71</v>
-      </c>
-      <c r="AI23" s="95"/>
-      <c r="AJ23" s="95" t="s">
-        <v>71</v>
-      </c>
-      <c r="AK23" s="95"/>
-      <c r="AL23" s="95"/>
-      <c r="AM23" s="95" t="s">
-        <v>641</v>
-      </c>
-      <c r="AN23" s="95" t="s">
-        <v>642</v>
-      </c>
-      <c r="AO23" s="95" t="s">
-        <v>723</v>
-      </c>
-      <c r="AP23" s="86" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="24" spans="1:42" s="97" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AG23" s="81"/>
+      <c r="AH23" s="81" t="s">
+        <v>71</v>
+      </c>
+      <c r="AI23" s="81"/>
+      <c r="AJ23" s="81" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK23" s="81"/>
+      <c r="AL23" s="81"/>
+      <c r="AM23" s="81" t="s">
+        <v>600</v>
+      </c>
+      <c r="AN23" s="81" t="s">
+        <v>601</v>
+      </c>
+      <c r="AO23" s="81" t="s">
+        <v>677</v>
+      </c>
+      <c r="AP23" s="79" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="24" spans="1:42" s="83" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="48">
         <v>22</v>
       </c>
       <c r="B24" s="48" t="s">
-        <v>724</v>
+        <v>678</v>
       </c>
       <c r="C24" s="48">
         <v>2019</v>
@@ -12650,8 +9525,8 @@
       <c r="D24" s="48" t="s">
         <v>237</v>
       </c>
-      <c r="E24" s="96" t="s">
-        <v>644</v>
+      <c r="E24" s="82" t="s">
+        <v>603</v>
       </c>
       <c r="F24" s="49"/>
       <c r="G24" s="49"/>
@@ -12663,74 +9538,74 @@
       </c>
       <c r="L24" s="49"/>
       <c r="M24" s="49"/>
-      <c r="N24" s="94" t="s">
-        <v>645</v>
+      <c r="N24" s="80" t="s">
+        <v>604</v>
       </c>
       <c r="O24" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="P24" s="95" t="s">
-        <v>646</v>
+      <c r="P24" s="81" t="s">
+        <v>605</v>
       </c>
       <c r="Q24" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="R24" s="84" t="s">
+      <c r="R24" s="77" t="s">
         <v>22</v>
       </c>
       <c r="S24" s="49" t="s">
         <v>71</v>
       </c>
       <c r="T24" s="49"/>
-      <c r="U24" s="84"/>
+      <c r="U24" s="77"/>
       <c r="V24" s="49"/>
       <c r="W24" s="49" t="s">
         <v>71</v>
       </c>
-      <c r="X24" s="96" t="s">
-        <v>647</v>
-      </c>
-      <c r="Y24" s="95"/>
-      <c r="Z24" s="95"/>
-      <c r="AA24" s="95"/>
-      <c r="AB24" s="95" t="s">
-        <v>71</v>
-      </c>
-      <c r="AC24" s="95"/>
-      <c r="AD24" s="95"/>
-      <c r="AE24" s="95" t="s">
-        <v>648</v>
+      <c r="X24" s="82" t="s">
+        <v>606</v>
+      </c>
+      <c r="Y24" s="81"/>
+      <c r="Z24" s="81"/>
+      <c r="AA24" s="81"/>
+      <c r="AB24" s="81" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC24" s="81"/>
+      <c r="AD24" s="81"/>
+      <c r="AE24" s="81" t="s">
+        <v>607</v>
       </c>
       <c r="AF24" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="AG24" s="95" t="s">
-        <v>71</v>
-      </c>
-      <c r="AH24" s="95"/>
-      <c r="AI24" s="95"/>
-      <c r="AJ24" s="95"/>
-      <c r="AK24" s="95"/>
-      <c r="AL24" s="95"/>
+      <c r="AG24" s="81" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH24" s="81"/>
+      <c r="AI24" s="81"/>
+      <c r="AJ24" s="81"/>
+      <c r="AK24" s="81"/>
+      <c r="AL24" s="81"/>
       <c r="AM24" s="48" t="s">
-        <v>649</v>
-      </c>
-      <c r="AN24" s="95" t="s">
-        <v>650</v>
-      </c>
-      <c r="AO24" s="95" t="s">
-        <v>725</v>
-      </c>
-      <c r="AP24" s="86" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="25" spans="1:42" s="97" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>608</v>
+      </c>
+      <c r="AN24" s="81" t="s">
+        <v>609</v>
+      </c>
+      <c r="AO24" s="81" t="s">
+        <v>679</v>
+      </c>
+      <c r="AP24" s="79" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="25" spans="1:42" s="83" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="48">
         <v>23</v>
       </c>
       <c r="B25" s="48" t="s">
-        <v>726</v>
+        <v>680</v>
       </c>
       <c r="C25" s="48">
         <v>2023</v>
@@ -12738,8 +9613,8 @@
       <c r="D25" s="48" t="s">
         <v>220</v>
       </c>
-      <c r="E25" s="96" t="s">
-        <v>653</v>
+      <c r="E25" s="82" t="s">
+        <v>611</v>
       </c>
       <c r="F25" s="49" t="s">
         <v>71</v>
@@ -12751,76 +9626,76 @@
       <c r="K25" s="49"/>
       <c r="L25" s="49"/>
       <c r="M25" s="49"/>
-      <c r="N25" s="94" t="s">
-        <v>654</v>
+      <c r="N25" s="80" t="s">
+        <v>612</v>
       </c>
       <c r="O25" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="P25" s="95" t="s">
-        <v>655</v>
+      <c r="P25" s="81" t="s">
+        <v>613</v>
       </c>
       <c r="Q25" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="R25" s="84" t="s">
-        <v>656</v>
+      <c r="R25" s="77" t="s">
+        <v>614</v>
       </c>
       <c r="S25" s="49" t="s">
         <v>71</v>
       </c>
       <c r="T25" s="49"/>
-      <c r="U25" s="84"/>
+      <c r="U25" s="77"/>
       <c r="V25" s="49"/>
       <c r="W25" s="49" t="s">
         <v>71</v>
       </c>
-      <c r="X25" s="96" t="s">
-        <v>657</v>
-      </c>
-      <c r="Y25" s="95"/>
-      <c r="Z25" s="95"/>
-      <c r="AA25" s="95" t="s">
-        <v>71</v>
-      </c>
-      <c r="AB25" s="95"/>
-      <c r="AC25" s="95"/>
-      <c r="AD25" s="95"/>
-      <c r="AE25" s="95" t="s">
-        <v>658</v>
-      </c>
-      <c r="AF25" s="95" t="s">
+      <c r="X25" s="82" t="s">
+        <v>615</v>
+      </c>
+      <c r="Y25" s="81"/>
+      <c r="Z25" s="81"/>
+      <c r="AA25" s="81" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB25" s="81"/>
+      <c r="AC25" s="81"/>
+      <c r="AD25" s="81"/>
+      <c r="AE25" s="81" t="s">
+        <v>616</v>
+      </c>
+      <c r="AF25" s="81" t="s">
         <v>52</v>
       </c>
-      <c r="AG25" s="95" t="s">
-        <v>71</v>
-      </c>
-      <c r="AH25" s="95"/>
-      <c r="AI25" s="95"/>
-      <c r="AJ25" s="95"/>
-      <c r="AK25" s="95"/>
-      <c r="AL25" s="95" t="s">
-        <v>71</v>
-      </c>
-      <c r="AM25" s="95" t="s">
-        <v>446</v>
-      </c>
-      <c r="AN25" s="95" t="s">
-        <v>659</v>
-      </c>
-      <c r="AO25" s="95" t="s">
-        <v>727</v>
-      </c>
-      <c r="AP25" s="86" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="26" spans="1:42" s="97" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AG25" s="81" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH25" s="81"/>
+      <c r="AI25" s="81"/>
+      <c r="AJ25" s="81"/>
+      <c r="AK25" s="81"/>
+      <c r="AL25" s="81" t="s">
+        <v>71</v>
+      </c>
+      <c r="AM25" s="81" t="s">
+        <v>444</v>
+      </c>
+      <c r="AN25" s="81" t="s">
+        <v>617</v>
+      </c>
+      <c r="AO25" s="81" t="s">
+        <v>681</v>
+      </c>
+      <c r="AP25" s="79" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="26" spans="1:42" s="83" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="48">
         <v>24</v>
       </c>
       <c r="B26" s="48" t="s">
-        <v>728</v>
+        <v>682</v>
       </c>
       <c r="C26" s="48">
         <v>2023</v>
@@ -12828,8 +9703,8 @@
       <c r="D26" s="48" t="s">
         <v>242</v>
       </c>
-      <c r="E26" s="96" t="s">
-        <v>661</v>
+      <c r="E26" s="82" t="s">
+        <v>619</v>
       </c>
       <c r="F26" s="49" t="s">
         <v>71</v>
@@ -12843,19 +9718,19 @@
       <c r="K26" s="49"/>
       <c r="L26" s="49"/>
       <c r="M26" s="49"/>
-      <c r="N26" s="94" t="s">
-        <v>662</v>
+      <c r="N26" s="80" t="s">
+        <v>620</v>
       </c>
       <c r="O26" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="P26" s="95" t="s">
-        <v>663</v>
-      </c>
-      <c r="Q26" s="84" t="s">
+      <c r="P26" s="81" t="s">
+        <v>621</v>
+      </c>
+      <c r="Q26" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="R26" s="84" t="s">
+      <c r="R26" s="77" t="s">
         <v>22</v>
       </c>
       <c r="S26" s="49" t="s">
@@ -12864,57 +9739,57 @@
       <c r="T26" s="49" t="s">
         <v>71</v>
       </c>
-      <c r="U26" s="84"/>
+      <c r="U26" s="77"/>
       <c r="V26" s="49"/>
       <c r="W26" s="49" t="s">
         <v>71</v>
       </c>
-      <c r="X26" s="96" t="s">
-        <v>657</v>
-      </c>
-      <c r="Y26" s="95"/>
-      <c r="Z26" s="95"/>
-      <c r="AA26" s="95" t="s">
-        <v>71</v>
-      </c>
-      <c r="AB26" s="95"/>
-      <c r="AC26" s="95"/>
-      <c r="AD26" s="95"/>
-      <c r="AE26" s="95" t="s">
-        <v>658</v>
-      </c>
-      <c r="AF26" s="95" t="s">
+      <c r="X26" s="82" t="s">
+        <v>615</v>
+      </c>
+      <c r="Y26" s="81"/>
+      <c r="Z26" s="81"/>
+      <c r="AA26" s="81" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB26" s="81"/>
+      <c r="AC26" s="81"/>
+      <c r="AD26" s="81"/>
+      <c r="AE26" s="81" t="s">
+        <v>616</v>
+      </c>
+      <c r="AF26" s="81" t="s">
         <v>52</v>
       </c>
-      <c r="AG26" s="95" t="s">
-        <v>71</v>
-      </c>
-      <c r="AH26" s="95"/>
-      <c r="AI26" s="95"/>
-      <c r="AJ26" s="95"/>
-      <c r="AK26" s="95"/>
-      <c r="AL26" s="95" t="s">
-        <v>71</v>
-      </c>
-      <c r="AM26" s="95" t="s">
-        <v>446</v>
-      </c>
-      <c r="AN26" s="95" t="s">
-        <v>659</v>
-      </c>
-      <c r="AO26" s="95" t="s">
-        <v>729</v>
-      </c>
-      <c r="AP26" s="86" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="27" spans="1:42" s="97" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AG26" s="81" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH26" s="81"/>
+      <c r="AI26" s="81"/>
+      <c r="AJ26" s="81"/>
+      <c r="AK26" s="81"/>
+      <c r="AL26" s="81" t="s">
+        <v>71</v>
+      </c>
+      <c r="AM26" s="81" t="s">
+        <v>444</v>
+      </c>
+      <c r="AN26" s="81" t="s">
+        <v>617</v>
+      </c>
+      <c r="AO26" s="81" t="s">
+        <v>683</v>
+      </c>
+      <c r="AP26" s="79" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="27" spans="1:42" s="83" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="48">
         <v>25</v>
       </c>
       <c r="B27" s="48" t="s">
-        <v>730</v>
+        <v>684</v>
       </c>
       <c r="C27" s="48">
         <v>2021</v>
@@ -12922,8 +9797,8 @@
       <c r="D27" s="48" t="s">
         <v>256</v>
       </c>
-      <c r="E27" s="96" t="s">
-        <v>665</v>
+      <c r="E27" s="82" t="s">
+        <v>623</v>
       </c>
       <c r="F27" s="49"/>
       <c r="G27" s="49"/>
@@ -12939,19 +9814,19 @@
       <c r="M27" s="49" t="s">
         <v>71</v>
       </c>
-      <c r="N27" s="94" t="s">
-        <v>666</v>
+      <c r="N27" s="80" t="s">
+        <v>624</v>
       </c>
       <c r="O27" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="P27" s="95" t="s">
-        <v>667</v>
-      </c>
-      <c r="Q27" s="84" t="s">
+      <c r="P27" s="81" t="s">
+        <v>625</v>
+      </c>
+      <c r="Q27" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="R27" s="84" t="s">
+      <c r="R27" s="77" t="s">
         <v>22</v>
       </c>
       <c r="S27" s="49" t="s">
@@ -12960,53 +9835,53 @@
       <c r="T27" s="49" t="s">
         <v>71</v>
       </c>
-      <c r="U27" s="84"/>
+      <c r="U27" s="77"/>
       <c r="V27" s="49" t="s">
         <v>71</v>
       </c>
       <c r="W27" s="49"/>
-      <c r="X27" s="96" t="s">
-        <v>668</v>
-      </c>
-      <c r="Y27" s="95"/>
-      <c r="Z27" s="95"/>
-      <c r="AA27" s="95"/>
-      <c r="AB27" s="95"/>
-      <c r="AC27" s="95" t="s">
-        <v>71</v>
-      </c>
-      <c r="AD27" s="95"/>
-      <c r="AE27" s="95" t="s">
-        <v>670</v>
+      <c r="X27" s="82" t="s">
+        <v>626</v>
+      </c>
+      <c r="Y27" s="81"/>
+      <c r="Z27" s="81"/>
+      <c r="AA27" s="81"/>
+      <c r="AB27" s="81"/>
+      <c r="AC27" s="81" t="s">
+        <v>71</v>
+      </c>
+      <c r="AD27" s="81"/>
+      <c r="AE27" s="81" t="s">
+        <v>627</v>
       </c>
       <c r="AF27" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="AG27" s="95" t="s">
-        <v>71</v>
-      </c>
-      <c r="AH27" s="95"/>
-      <c r="AI27" s="95"/>
-      <c r="AJ27" s="95"/>
-      <c r="AK27" s="95"/>
-      <c r="AL27" s="95"/>
+      <c r="AG27" s="81" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH27" s="81"/>
+      <c r="AI27" s="81"/>
+      <c r="AJ27" s="81"/>
+      <c r="AK27" s="81"/>
+      <c r="AL27" s="81"/>
       <c r="AM27" s="48" t="s">
-        <v>514</v>
-      </c>
-      <c r="AN27" s="95" t="s">
-        <v>671</v>
-      </c>
-      <c r="AO27" s="95"/>
-      <c r="AP27" s="86" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="28" spans="1:42" s="97" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>498</v>
+      </c>
+      <c r="AN27" s="81" t="s">
+        <v>628</v>
+      </c>
+      <c r="AO27" s="81"/>
+      <c r="AP27" s="79" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="28" spans="1:42" s="83" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="48">
         <v>26</v>
       </c>
       <c r="B28" s="48" t="s">
-        <v>731</v>
+        <v>685</v>
       </c>
       <c r="C28" s="48">
         <v>2019</v>
@@ -13014,8 +9889,8 @@
       <c r="D28" s="48" t="s">
         <v>274</v>
       </c>
-      <c r="E28" s="96" t="s">
-        <v>673</v>
+      <c r="E28" s="82" t="s">
+        <v>630</v>
       </c>
       <c r="F28" s="49"/>
       <c r="G28" s="49"/>
@@ -13027,74 +9902,74 @@
       </c>
       <c r="L28" s="49"/>
       <c r="M28" s="49"/>
-      <c r="N28" s="94" t="s">
-        <v>674</v>
+      <c r="N28" s="80" t="s">
+        <v>631</v>
       </c>
       <c r="O28" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="P28" s="95" t="s">
-        <v>675</v>
+      <c r="P28" s="81" t="s">
+        <v>632</v>
       </c>
       <c r="Q28" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="R28" s="84" t="s">
-        <v>494</v>
+      <c r="R28" s="77" t="s">
+        <v>480</v>
       </c>
       <c r="S28" s="49" t="s">
         <v>71</v>
       </c>
       <c r="T28" s="49"/>
-      <c r="U28" s="84"/>
+      <c r="U28" s="77"/>
       <c r="V28" s="49"/>
       <c r="W28" s="49" t="s">
         <v>71</v>
       </c>
-      <c r="X28" s="96" t="s">
-        <v>676</v>
-      </c>
-      <c r="Y28" s="95"/>
-      <c r="Z28" s="95"/>
-      <c r="AA28" s="95"/>
-      <c r="AB28" s="95" t="s">
-        <v>71</v>
-      </c>
-      <c r="AC28" s="95"/>
-      <c r="AD28" s="95" t="s">
-        <v>469</v>
-      </c>
-      <c r="AE28" s="95" t="s">
-        <v>470</v>
+      <c r="X28" s="82" t="s">
+        <v>633</v>
+      </c>
+      <c r="Y28" s="81"/>
+      <c r="Z28" s="81"/>
+      <c r="AA28" s="81"/>
+      <c r="AB28" s="81" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC28" s="81"/>
+      <c r="AD28" s="81" t="s">
+        <v>459</v>
+      </c>
+      <c r="AE28" s="81" t="s">
+        <v>460</v>
       </c>
       <c r="AF28" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="AG28" s="95" t="s">
-        <v>71</v>
-      </c>
-      <c r="AH28" s="95"/>
-      <c r="AI28" s="95"/>
-      <c r="AJ28" s="95"/>
-      <c r="AK28" s="95"/>
-      <c r="AL28" s="95"/>
+      <c r="AG28" s="81" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH28" s="81"/>
+      <c r="AI28" s="81"/>
+      <c r="AJ28" s="81"/>
+      <c r="AK28" s="81"/>
+      <c r="AL28" s="81"/>
       <c r="AM28" s="48" t="s">
-        <v>514</v>
-      </c>
-      <c r="AN28" s="95" t="s">
-        <v>677</v>
-      </c>
-      <c r="AO28" s="95"/>
-      <c r="AP28" s="86" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="29" spans="1:42" s="97" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>498</v>
+      </c>
+      <c r="AN28" s="81" t="s">
+        <v>634</v>
+      </c>
+      <c r="AO28" s="81"/>
+      <c r="AP28" s="79" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="29" spans="1:42" s="83" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="48">
         <v>27</v>
       </c>
       <c r="B29" s="48" t="s">
-        <v>732</v>
+        <v>686</v>
       </c>
       <c r="C29" s="48">
         <v>2021</v>
@@ -13102,8 +9977,8 @@
       <c r="D29" s="48" t="s">
         <v>280</v>
       </c>
-      <c r="E29" s="96" t="s">
-        <v>679</v>
+      <c r="E29" s="82" t="s">
+        <v>636</v>
       </c>
       <c r="F29" s="49"/>
       <c r="G29" s="49" t="s">
@@ -13115,20 +9990,20 @@
       <c r="K29" s="49"/>
       <c r="L29" s="49"/>
       <c r="M29" s="49"/>
-      <c r="N29" s="94" t="s">
-        <v>680</v>
+      <c r="N29" s="80" t="s">
+        <v>637</v>
       </c>
       <c r="O29" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="P29" s="95" t="s">
-        <v>681</v>
+      <c r="P29" s="81" t="s">
+        <v>638</v>
       </c>
       <c r="Q29" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="R29" s="84" t="s">
-        <v>682</v>
+      <c r="R29" s="77" t="s">
+        <v>639</v>
       </c>
       <c r="S29" s="49" t="s">
         <v>71</v>
@@ -13136,359 +10011,359 @@
       <c r="T29" s="49" t="s">
         <v>71</v>
       </c>
-      <c r="U29" s="84"/>
+      <c r="U29" s="77"/>
       <c r="V29" s="49" t="s">
         <v>71</v>
       </c>
       <c r="W29" s="49"/>
-      <c r="X29" s="96" t="s">
-        <v>685</v>
-      </c>
-      <c r="Y29" s="95" t="s">
-        <v>71</v>
-      </c>
-      <c r="Z29" s="95"/>
-      <c r="AA29" s="95"/>
-      <c r="AB29" s="95" t="s">
-        <v>71</v>
-      </c>
-      <c r="AC29" s="95"/>
-      <c r="AD29" s="95"/>
-      <c r="AE29" s="95" t="s">
-        <v>687</v>
+      <c r="X29" s="82" t="s">
+        <v>640</v>
+      </c>
+      <c r="Y29" s="81" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z29" s="81"/>
+      <c r="AA29" s="81"/>
+      <c r="AB29" s="81" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC29" s="81"/>
+      <c r="AD29" s="81"/>
+      <c r="AE29" s="81" t="s">
+        <v>641</v>
       </c>
       <c r="AF29" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="AG29" s="95" t="s">
-        <v>71</v>
-      </c>
-      <c r="AH29" s="95"/>
-      <c r="AI29" s="95"/>
-      <c r="AJ29" s="95"/>
-      <c r="AK29" s="95"/>
-      <c r="AL29" s="95"/>
+      <c r="AG29" s="81" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH29" s="81"/>
+      <c r="AI29" s="81"/>
+      <c r="AJ29" s="81"/>
+      <c r="AK29" s="81"/>
+      <c r="AL29" s="81"/>
       <c r="AM29" s="48" t="s">
-        <v>514</v>
-      </c>
-      <c r="AN29" s="95" t="s">
+        <v>498</v>
+      </c>
+      <c r="AN29" s="81" t="s">
+        <v>641</v>
+      </c>
+      <c r="AO29" s="81" t="s">
         <v>687</v>
       </c>
-      <c r="AO29" s="95" t="s">
-        <v>733</v>
-      </c>
-      <c r="AP29" s="86" t="s">
-        <v>688</v>
+      <c r="AP29" s="79" t="s">
+        <v>642</v>
       </c>
     </row>
     <row r="30" spans="1:42" s="64" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B30" s="48"/>
       <c r="C30" s="48"/>
-      <c r="E30" s="98"/>
-      <c r="F30" s="99"/>
-      <c r="G30" s="99"/>
-      <c r="H30" s="99"/>
-      <c r="I30" s="99"/>
-      <c r="J30" s="99"/>
-      <c r="K30" s="99"/>
-      <c r="L30" s="99"/>
-      <c r="M30" s="99"/>
-      <c r="N30" s="100"/>
-      <c r="O30" s="99"/>
-      <c r="Q30" s="99"/>
-      <c r="R30" s="101"/>
-      <c r="S30" s="99"/>
-      <c r="T30" s="99"/>
-      <c r="U30" s="101"/>
-      <c r="V30" s="99"/>
-      <c r="W30" s="99"/>
-      <c r="X30" s="98"/>
-      <c r="AP30" s="102"/>
+      <c r="E30" s="84"/>
+      <c r="F30" s="85"/>
+      <c r="G30" s="85"/>
+      <c r="H30" s="85"/>
+      <c r="I30" s="85"/>
+      <c r="J30" s="85"/>
+      <c r="K30" s="85"/>
+      <c r="L30" s="85"/>
+      <c r="M30" s="85"/>
+      <c r="N30" s="86"/>
+      <c r="O30" s="85"/>
+      <c r="Q30" s="85"/>
+      <c r="R30" s="87"/>
+      <c r="S30" s="85"/>
+      <c r="T30" s="85"/>
+      <c r="U30" s="87"/>
+      <c r="V30" s="85"/>
+      <c r="W30" s="85"/>
+      <c r="X30" s="84"/>
+      <c r="AP30" s="88"/>
     </row>
     <row r="31" spans="1:42" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F31" s="103"/>
-      <c r="G31" s="103"/>
-      <c r="H31" s="103"/>
-      <c r="I31" s="103"/>
-      <c r="J31" s="103"/>
-      <c r="K31" s="103"/>
-      <c r="L31" s="103"/>
-      <c r="M31" s="103"/>
-      <c r="S31" s="103"/>
-      <c r="T31" s="103"/>
-      <c r="U31" s="104"/>
+      <c r="F31" s="89"/>
+      <c r="G31" s="89"/>
+      <c r="H31" s="89"/>
+      <c r="I31" s="89"/>
+      <c r="J31" s="89"/>
+      <c r="K31" s="89"/>
+      <c r="L31" s="89"/>
+      <c r="M31" s="89"/>
+      <c r="S31" s="89"/>
+      <c r="T31" s="89"/>
+      <c r="U31" s="90"/>
     </row>
     <row r="32" spans="1:42" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F32" s="103"/>
-      <c r="G32" s="103"/>
-      <c r="H32" s="103"/>
-      <c r="I32" s="103"/>
-      <c r="J32" s="103"/>
-      <c r="K32" s="103"/>
-      <c r="L32" s="103"/>
-      <c r="M32" s="103"/>
-      <c r="S32" s="103"/>
-      <c r="T32" s="103"/>
-      <c r="U32" s="104"/>
+      <c r="F32" s="89"/>
+      <c r="G32" s="89"/>
+      <c r="H32" s="89"/>
+      <c r="I32" s="89"/>
+      <c r="J32" s="89"/>
+      <c r="K32" s="89"/>
+      <c r="L32" s="89"/>
+      <c r="M32" s="89"/>
+      <c r="S32" s="89"/>
+      <c r="T32" s="89"/>
+      <c r="U32" s="90"/>
     </row>
     <row r="33" spans="6:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F33" s="103"/>
-      <c r="G33" s="103"/>
-      <c r="H33" s="103"/>
-      <c r="I33" s="103"/>
-      <c r="J33" s="103"/>
-      <c r="K33" s="103"/>
-      <c r="L33" s="103"/>
-      <c r="M33" s="103"/>
-      <c r="S33" s="103"/>
-      <c r="T33" s="103"/>
-      <c r="U33" s="104"/>
+      <c r="F33" s="89"/>
+      <c r="G33" s="89"/>
+      <c r="H33" s="89"/>
+      <c r="I33" s="89"/>
+      <c r="J33" s="89"/>
+      <c r="K33" s="89"/>
+      <c r="L33" s="89"/>
+      <c r="M33" s="89"/>
+      <c r="S33" s="89"/>
+      <c r="T33" s="89"/>
+      <c r="U33" s="90"/>
     </row>
     <row r="34" spans="6:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F34" s="103"/>
-      <c r="G34" s="103"/>
-      <c r="H34" s="103"/>
-      <c r="I34" s="103"/>
-      <c r="J34" s="103"/>
-      <c r="K34" s="103"/>
-      <c r="L34" s="103"/>
-      <c r="M34" s="103"/>
-      <c r="S34" s="103"/>
-      <c r="T34" s="103"/>
-      <c r="U34" s="104"/>
+      <c r="F34" s="89"/>
+      <c r="G34" s="89"/>
+      <c r="H34" s="89"/>
+      <c r="I34" s="89"/>
+      <c r="J34" s="89"/>
+      <c r="K34" s="89"/>
+      <c r="L34" s="89"/>
+      <c r="M34" s="89"/>
+      <c r="S34" s="89"/>
+      <c r="T34" s="89"/>
+      <c r="U34" s="90"/>
     </row>
     <row r="35" spans="6:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F35" s="103"/>
-      <c r="G35" s="103"/>
-      <c r="H35" s="103"/>
-      <c r="I35" s="103"/>
-      <c r="J35" s="103"/>
-      <c r="K35" s="103"/>
-      <c r="L35" s="103"/>
-      <c r="M35" s="103"/>
-      <c r="S35" s="103"/>
-      <c r="T35" s="103"/>
-      <c r="U35" s="104"/>
+      <c r="F35" s="89"/>
+      <c r="G35" s="89"/>
+      <c r="H35" s="89"/>
+      <c r="I35" s="89"/>
+      <c r="J35" s="89"/>
+      <c r="K35" s="89"/>
+      <c r="L35" s="89"/>
+      <c r="M35" s="89"/>
+      <c r="S35" s="89"/>
+      <c r="T35" s="89"/>
+      <c r="U35" s="90"/>
     </row>
     <row r="36" spans="6:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F36" s="103"/>
-      <c r="G36" s="103"/>
-      <c r="H36" s="103"/>
-      <c r="I36" s="103"/>
-      <c r="J36" s="103"/>
-      <c r="K36" s="103"/>
-      <c r="L36" s="103"/>
-      <c r="M36" s="103"/>
-      <c r="S36" s="103"/>
-      <c r="T36" s="103"/>
-      <c r="U36" s="104"/>
+      <c r="F36" s="89"/>
+      <c r="G36" s="89"/>
+      <c r="H36" s="89"/>
+      <c r="I36" s="89"/>
+      <c r="J36" s="89"/>
+      <c r="K36" s="89"/>
+      <c r="L36" s="89"/>
+      <c r="M36" s="89"/>
+      <c r="S36" s="89"/>
+      <c r="T36" s="89"/>
+      <c r="U36" s="90"/>
     </row>
     <row r="37" spans="6:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F37" s="103"/>
-      <c r="G37" s="103"/>
-      <c r="H37" s="103"/>
-      <c r="I37" s="103"/>
-      <c r="J37" s="103"/>
-      <c r="K37" s="103"/>
-      <c r="L37" s="103"/>
-      <c r="M37" s="103"/>
-      <c r="S37" s="103"/>
-      <c r="T37" s="103"/>
-      <c r="U37" s="104"/>
+      <c r="F37" s="89"/>
+      <c r="G37" s="89"/>
+      <c r="H37" s="89"/>
+      <c r="I37" s="89"/>
+      <c r="J37" s="89"/>
+      <c r="K37" s="89"/>
+      <c r="L37" s="89"/>
+      <c r="M37" s="89"/>
+      <c r="S37" s="89"/>
+      <c r="T37" s="89"/>
+      <c r="U37" s="90"/>
     </row>
     <row r="38" spans="6:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F38" s="103"/>
-      <c r="G38" s="103"/>
-      <c r="H38" s="103"/>
-      <c r="I38" s="103"/>
-      <c r="J38" s="103"/>
-      <c r="K38" s="103"/>
-      <c r="L38" s="103"/>
-      <c r="M38" s="103"/>
-      <c r="S38" s="103"/>
-      <c r="T38" s="103"/>
-      <c r="U38" s="104"/>
+      <c r="F38" s="89"/>
+      <c r="G38" s="89"/>
+      <c r="H38" s="89"/>
+      <c r="I38" s="89"/>
+      <c r="J38" s="89"/>
+      <c r="K38" s="89"/>
+      <c r="L38" s="89"/>
+      <c r="M38" s="89"/>
+      <c r="S38" s="89"/>
+      <c r="T38" s="89"/>
+      <c r="U38" s="90"/>
     </row>
     <row r="39" spans="6:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F39" s="103"/>
-      <c r="G39" s="103"/>
-      <c r="H39" s="103"/>
-      <c r="I39" s="103"/>
-      <c r="J39" s="103"/>
-      <c r="K39" s="103"/>
-      <c r="L39" s="103"/>
-      <c r="M39" s="103"/>
-      <c r="S39" s="103"/>
-      <c r="T39" s="103"/>
-      <c r="U39" s="104"/>
+      <c r="F39" s="89"/>
+      <c r="G39" s="89"/>
+      <c r="H39" s="89"/>
+      <c r="I39" s="89"/>
+      <c r="J39" s="89"/>
+      <c r="K39" s="89"/>
+      <c r="L39" s="89"/>
+      <c r="M39" s="89"/>
+      <c r="S39" s="89"/>
+      <c r="T39" s="89"/>
+      <c r="U39" s="90"/>
     </row>
     <row r="40" spans="6:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F40" s="103"/>
-      <c r="G40" s="103"/>
-      <c r="H40" s="103"/>
-      <c r="I40" s="103"/>
-      <c r="J40" s="103"/>
-      <c r="K40" s="103"/>
-      <c r="L40" s="103"/>
-      <c r="M40" s="103"/>
-      <c r="S40" s="103"/>
-      <c r="T40" s="103"/>
-      <c r="U40" s="104"/>
+      <c r="F40" s="89"/>
+      <c r="G40" s="89"/>
+      <c r="H40" s="89"/>
+      <c r="I40" s="89"/>
+      <c r="J40" s="89"/>
+      <c r="K40" s="89"/>
+      <c r="L40" s="89"/>
+      <c r="M40" s="89"/>
+      <c r="S40" s="89"/>
+      <c r="T40" s="89"/>
+      <c r="U40" s="90"/>
     </row>
     <row r="41" spans="6:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F41" s="103"/>
-      <c r="G41" s="103"/>
-      <c r="H41" s="103"/>
-      <c r="I41" s="103"/>
-      <c r="J41" s="103"/>
-      <c r="K41" s="103"/>
-      <c r="L41" s="103"/>
-      <c r="M41" s="103"/>
-      <c r="S41" s="103"/>
-      <c r="T41" s="103"/>
-      <c r="U41" s="104"/>
+      <c r="F41" s="89"/>
+      <c r="G41" s="89"/>
+      <c r="H41" s="89"/>
+      <c r="I41" s="89"/>
+      <c r="J41" s="89"/>
+      <c r="K41" s="89"/>
+      <c r="L41" s="89"/>
+      <c r="M41" s="89"/>
+      <c r="S41" s="89"/>
+      <c r="T41" s="89"/>
+      <c r="U41" s="90"/>
     </row>
     <row r="42" spans="6:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F42" s="103"/>
-      <c r="G42" s="103"/>
-      <c r="H42" s="103"/>
-      <c r="I42" s="103"/>
-      <c r="J42" s="103"/>
-      <c r="K42" s="103"/>
-      <c r="L42" s="103"/>
-      <c r="M42" s="103"/>
-      <c r="S42" s="103"/>
-      <c r="T42" s="103"/>
-      <c r="U42" s="104"/>
+      <c r="F42" s="89"/>
+      <c r="G42" s="89"/>
+      <c r="H42" s="89"/>
+      <c r="I42" s="89"/>
+      <c r="J42" s="89"/>
+      <c r="K42" s="89"/>
+      <c r="L42" s="89"/>
+      <c r="M42" s="89"/>
+      <c r="S42" s="89"/>
+      <c r="T42" s="89"/>
+      <c r="U42" s="90"/>
     </row>
     <row r="43" spans="6:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F43" s="103"/>
-      <c r="G43" s="103"/>
-      <c r="H43" s="103"/>
-      <c r="I43" s="103"/>
-      <c r="J43" s="103"/>
-      <c r="K43" s="103"/>
-      <c r="L43" s="103"/>
-      <c r="M43" s="103"/>
-      <c r="S43" s="103"/>
-      <c r="T43" s="103"/>
-      <c r="U43" s="104"/>
+      <c r="F43" s="89"/>
+      <c r="G43" s="89"/>
+      <c r="H43" s="89"/>
+      <c r="I43" s="89"/>
+      <c r="J43" s="89"/>
+      <c r="K43" s="89"/>
+      <c r="L43" s="89"/>
+      <c r="M43" s="89"/>
+      <c r="S43" s="89"/>
+      <c r="T43" s="89"/>
+      <c r="U43" s="90"/>
     </row>
     <row r="44" spans="6:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F44" s="103"/>
-      <c r="G44" s="103"/>
-      <c r="H44" s="103"/>
-      <c r="I44" s="103"/>
-      <c r="J44" s="103"/>
-      <c r="K44" s="103"/>
-      <c r="L44" s="103"/>
-      <c r="M44" s="103"/>
-      <c r="S44" s="103"/>
-      <c r="T44" s="103"/>
-      <c r="U44" s="104"/>
+      <c r="F44" s="89"/>
+      <c r="G44" s="89"/>
+      <c r="H44" s="89"/>
+      <c r="I44" s="89"/>
+      <c r="J44" s="89"/>
+      <c r="K44" s="89"/>
+      <c r="L44" s="89"/>
+      <c r="M44" s="89"/>
+      <c r="S44" s="89"/>
+      <c r="T44" s="89"/>
+      <c r="U44" s="90"/>
     </row>
     <row r="45" spans="6:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F45" s="103"/>
-      <c r="G45" s="103"/>
-      <c r="H45" s="103"/>
-      <c r="I45" s="103"/>
-      <c r="J45" s="103"/>
-      <c r="K45" s="103"/>
-      <c r="L45" s="103"/>
-      <c r="M45" s="103"/>
-      <c r="S45" s="103"/>
-      <c r="T45" s="103"/>
-      <c r="U45" s="104"/>
+      <c r="F45" s="89"/>
+      <c r="G45" s="89"/>
+      <c r="H45" s="89"/>
+      <c r="I45" s="89"/>
+      <c r="J45" s="89"/>
+      <c r="K45" s="89"/>
+      <c r="L45" s="89"/>
+      <c r="M45" s="89"/>
+      <c r="S45" s="89"/>
+      <c r="T45" s="89"/>
+      <c r="U45" s="90"/>
     </row>
     <row r="46" spans="6:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="S46" s="103"/>
-      <c r="T46" s="103"/>
-      <c r="U46" s="104"/>
+      <c r="S46" s="89"/>
+      <c r="T46" s="89"/>
+      <c r="U46" s="90"/>
     </row>
     <row r="47" spans="6:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="S47" s="103"/>
-      <c r="T47" s="103"/>
-      <c r="U47" s="104"/>
+      <c r="S47" s="89"/>
+      <c r="T47" s="89"/>
+      <c r="U47" s="90"/>
     </row>
     <row r="48" spans="6:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="S48" s="103"/>
-      <c r="T48" s="103"/>
-      <c r="U48" s="104"/>
+      <c r="S48" s="89"/>
+      <c r="T48" s="89"/>
+      <c r="U48" s="90"/>
     </row>
     <row r="49" spans="19:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="S49" s="103"/>
-      <c r="T49" s="103"/>
-      <c r="U49" s="104"/>
+      <c r="S49" s="89"/>
+      <c r="T49" s="89"/>
+      <c r="U49" s="90"/>
     </row>
     <row r="50" spans="19:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="S50" s="103"/>
-      <c r="T50" s="103"/>
-      <c r="U50" s="104"/>
+      <c r="S50" s="89"/>
+      <c r="T50" s="89"/>
+      <c r="U50" s="90"/>
     </row>
     <row r="51" spans="19:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="S51" s="103"/>
-      <c r="T51" s="103"/>
-      <c r="U51" s="104"/>
+      <c r="S51" s="89"/>
+      <c r="T51" s="89"/>
+      <c r="U51" s="90"/>
     </row>
     <row r="52" spans="19:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="S52" s="103"/>
-      <c r="T52" s="103"/>
-      <c r="U52" s="104"/>
+      <c r="S52" s="89"/>
+      <c r="T52" s="89"/>
+      <c r="U52" s="90"/>
     </row>
     <row r="53" spans="19:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="S53" s="103"/>
-      <c r="T53" s="103"/>
-      <c r="U53" s="104"/>
+      <c r="S53" s="89"/>
+      <c r="T53" s="89"/>
+      <c r="U53" s="90"/>
     </row>
     <row r="54" spans="19:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="S54" s="103"/>
-      <c r="T54" s="103"/>
-      <c r="U54" s="104"/>
+      <c r="S54" s="89"/>
+      <c r="T54" s="89"/>
+      <c r="U54" s="90"/>
     </row>
     <row r="55" spans="19:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="S55" s="103"/>
-      <c r="T55" s="103"/>
-      <c r="U55" s="104"/>
+      <c r="S55" s="89"/>
+      <c r="T55" s="89"/>
+      <c r="U55" s="90"/>
     </row>
     <row r="56" spans="19:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="S56" s="103"/>
-      <c r="T56" s="103"/>
-      <c r="U56" s="104"/>
+      <c r="S56" s="89"/>
+      <c r="T56" s="89"/>
+      <c r="U56" s="90"/>
     </row>
     <row r="57" spans="19:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="S57" s="103"/>
-      <c r="T57" s="103"/>
-      <c r="U57" s="104"/>
+      <c r="S57" s="89"/>
+      <c r="T57" s="89"/>
+      <c r="U57" s="90"/>
     </row>
     <row r="58" spans="19:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="S58" s="103"/>
-      <c r="T58" s="103"/>
-      <c r="U58" s="104"/>
+      <c r="S58" s="89"/>
+      <c r="T58" s="89"/>
+      <c r="U58" s="90"/>
     </row>
     <row r="59" spans="19:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="S59" s="103"/>
-      <c r="T59" s="103"/>
-      <c r="U59" s="104"/>
+      <c r="S59" s="89"/>
+      <c r="T59" s="89"/>
+      <c r="U59" s="90"/>
     </row>
     <row r="60" spans="19:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="S60" s="103"/>
-      <c r="T60" s="103"/>
-      <c r="U60" s="104"/>
+      <c r="S60" s="89"/>
+      <c r="T60" s="89"/>
+      <c r="U60" s="90"/>
     </row>
     <row r="61" spans="19:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="S61" s="103"/>
-      <c r="T61" s="103"/>
-      <c r="U61" s="104"/>
+      <c r="S61" s="89"/>
+      <c r="T61" s="89"/>
+      <c r="U61" s="90"/>
     </row>
     <row r="62" spans="19:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="S62" s="103"/>
-      <c r="T62" s="103"/>
-      <c r="U62" s="104"/>
+      <c r="S62" s="89"/>
+      <c r="T62" s="89"/>
+      <c r="U62" s="90"/>
     </row>
     <row r="63" spans="19:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="S63" s="103"/>
-      <c r="T63" s="103"/>
-      <c r="U63" s="104"/>
+      <c r="S63" s="89"/>
+      <c r="T63" s="89"/>
+      <c r="U63" s="90"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:AR29" xr:uid="{00000000-0009-0000-0000-000005000000}"/>
